--- a/common/Item.xlsx
+++ b/common/Item.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
   <si>
     <t>序号</t>
   </si>
@@ -22,10 +22,15 @@
     <t>名称_cn</t>
   </si>
   <si>
-    <t>效果_cn</t>
+    <t>效果描述_cn</t>
   </si>
   <si>
     <t>获取途径_cn</t>
+  </si>
+  <si>
+    <t>背包类型
+1=通用背包
+2=好感背包</t>
   </si>
   <si>
     <r>
@@ -59,13 +64,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">品质
 </t>
     </r>
@@ -81,7 +79,7 @@
 3=蓝
 4=紫
 5=红
-6=橙</t>
+6=金</t>
     </r>
   </si>
   <si>
@@ -111,8 +109,30 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">掉落组id
+    <r>
+      <t xml:space="preserve">掉落组id
 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0=无掉落</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
   </si>
   <si>
     <t>图标路径</t>
@@ -251,14 +271,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">type </t>
+      <t xml:space="preserve">backpack_tpye </t>
     </r>
     <r>
       <rPr>
@@ -281,16 +294,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>quality</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+      <t xml:space="preserve">type </t>
     </r>
     <r>
       <rPr>
@@ -313,7 +317,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>rank</t>
+      <t>quality</t>
     </r>
     <r>
       <rPr>
@@ -345,7 +349,16 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">spell_id </t>
+      <t>rank</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -368,16 +381,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>drop_box_id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+      <t xml:space="preserve">spell_id </t>
     </r>
     <r>
       <rPr>
@@ -393,7 +397,23 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">icon_path </t>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>drop_box_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -404,7 +424,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>string</t>
+      <t>int</t>
     </r>
   </si>
   <si>
@@ -416,16 +436,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>value</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+      <t xml:space="preserve">icon_path </t>
     </r>
     <r>
       <rPr>
@@ -436,8 +447,136 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
+      <t>string</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>int</t>
     </r>
+  </si>
+  <si>
+    <t>桃子</t>
+  </si>
+  <si>
+    <t>提升好感度</t>
+  </si>
+  <si>
+    <t>寻访</t>
+  </si>
+  <si>
+    <t>荔枝</t>
+  </si>
+  <si>
+    <t>古琴</t>
+  </si>
+  <si>
+    <t>青铜镜</t>
+  </si>
+  <si>
+    <t>落花簪</t>
+  </si>
+  <si>
+    <t>泣血刃</t>
+  </si>
+  <si>
+    <t>仕女图</t>
+  </si>
+  <si>
+    <t>凤凰镜</t>
+  </si>
+  <si>
+    <t>九眼天珠</t>
+  </si>
+  <si>
+    <t>三彩骏马</t>
+  </si>
+  <si>
+    <t>凤首箜篌</t>
+  </si>
+  <si>
+    <t>白玉棋盘</t>
+  </si>
+  <si>
+    <t>张旭的字帖</t>
+  </si>
+  <si>
+    <t>鎏金青铜马</t>
+  </si>
+  <si>
+    <t>三彩南瓜罐</t>
+  </si>
+  <si>
+    <t>秘色瓷手镯</t>
+  </si>
+  <si>
+    <t>吴道子的画</t>
+  </si>
+  <si>
+    <t>鎏金铜佛像</t>
+  </si>
+  <si>
+    <t>唐花纹香盒</t>
+  </si>
+  <si>
+    <t>玛瑙天珠手串</t>
+  </si>
+  <si>
+    <t>威严散</t>
+  </si>
+  <si>
+    <t>增加卡牌100点威严属性</t>
+  </si>
+  <si>
+    <t>关卡、牢房、副本</t>
+  </si>
+  <si>
+    <t>威严丸</t>
+  </si>
+  <si>
+    <t>增加卡牌500点威严属性</t>
+  </si>
+  <si>
+    <t>威严丹</t>
+  </si>
+  <si>
+    <t>增加卡牌1000点威严属性</t>
+  </si>
+  <si>
+    <t>威严星力</t>
+  </si>
+  <si>
+    <t>提升卡牌威严星运等级</t>
+  </si>
+  <si>
+    <t>商城礼包购买、副本、冲榜奖励、充值奖励</t>
   </si>
 </sst>
 </file>
@@ -472,9 +611,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -489,7 +627,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -497,26 +635,34 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -527,8 +673,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -549,13 +704,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -563,26 +711,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -593,9 +725,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -651,37 +790,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -693,37 +910,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -735,103 +928,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -860,17 +999,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -894,7 +1027,31 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -910,15 +1067,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -940,15 +1088,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -965,10 +1104,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -977,76 +1116,76 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1055,69 +1194,75 @@
     <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1446,28 +1591,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="13.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.5" style="1" customWidth="1"/>
-    <col min="4" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="49.75" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.875" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="4" max="6" width="16" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.75" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="49.75" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.875" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="164.25" spans="1:11">
+    <row r="1" ht="164.25" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1501,40 +1646,886 @@
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" ht="33.75" spans="1:11">
+    <row r="2" ht="33.75" spans="1:12">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1">
+        <v>107001</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4">
+        <v>71</v>
+      </c>
+      <c r="I3" s="1">
+        <v>207001</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1">
+        <v>107002</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>7</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4">
+        <v>72</v>
+      </c>
+      <c r="I4" s="1">
+        <v>207002</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1">
+        <v>107003</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>7</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4">
+        <v>73</v>
+      </c>
+      <c r="I5" s="1">
+        <v>207003</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1">
+        <v>107004</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>7</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4">
+        <v>74</v>
+      </c>
+      <c r="I6" s="1">
+        <v>207004</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1">
+        <v>107005</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>7</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2</v>
+      </c>
+      <c r="H7" s="4">
+        <v>75</v>
+      </c>
+      <c r="I7" s="1">
+        <v>207005</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
         <v>12</v>
       </c>
-      <c r="C2" s="3" t="s">
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1">
+        <v>107006</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>7</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2</v>
+      </c>
+      <c r="H8" s="4">
+        <v>76</v>
+      </c>
+      <c r="I8" s="1">
+        <v>207006</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1">
+        <v>107007</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>7</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2</v>
+      </c>
+      <c r="H9" s="4">
+        <v>77</v>
+      </c>
+      <c r="I9" s="1">
+        <v>207007</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1">
+        <v>107008</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2</v>
+      </c>
+      <c r="F10" s="1">
+        <v>7</v>
+      </c>
+      <c r="G10" s="1">
+        <v>3</v>
+      </c>
+      <c r="H10" s="4">
+        <v>78</v>
+      </c>
+      <c r="I10" s="1">
+        <v>207008</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
         <v>13</v>
       </c>
-      <c r="D2" s="3" t="s">
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1">
+        <v>107009</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2</v>
+      </c>
+      <c r="F11" s="1">
+        <v>7</v>
+      </c>
+      <c r="G11" s="1">
+        <v>3</v>
+      </c>
+      <c r="H11" s="4">
+        <v>79</v>
+      </c>
+      <c r="I11" s="1">
+        <v>207009</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="1">
+        <v>107010</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2</v>
+      </c>
+      <c r="F12" s="1">
+        <v>7</v>
+      </c>
+      <c r="G12" s="1">
+        <v>3</v>
+      </c>
+      <c r="H12" s="4">
+        <v>80</v>
+      </c>
+      <c r="I12" s="1">
+        <v>207010</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="1">
+        <v>107011</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2</v>
+      </c>
+      <c r="F13" s="1">
+        <v>7</v>
+      </c>
+      <c r="G13" s="1">
+        <v>3</v>
+      </c>
+      <c r="H13" s="4">
+        <v>81</v>
+      </c>
+      <c r="I13" s="1">
+        <v>207011</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="1">
+        <v>107012</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2</v>
+      </c>
+      <c r="F14" s="1">
+        <v>7</v>
+      </c>
+      <c r="G14" s="1">
+        <v>3</v>
+      </c>
+      <c r="H14" s="4">
+        <v>82</v>
+      </c>
+      <c r="I14" s="1">
+        <v>207012</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="1">
+        <v>107013</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2</v>
+      </c>
+      <c r="F15" s="1">
+        <v>7</v>
+      </c>
+      <c r="G15" s="1">
+        <v>3</v>
+      </c>
+      <c r="H15" s="4">
+        <v>83</v>
+      </c>
+      <c r="I15" s="1">
+        <v>207013</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="1">
+        <v>107014</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2</v>
+      </c>
+      <c r="F16" s="1">
+        <v>7</v>
+      </c>
+      <c r="G16" s="1">
+        <v>3</v>
+      </c>
+      <c r="H16" s="4">
+        <v>84</v>
+      </c>
+      <c r="I16" s="1">
+        <v>207014</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="1">
+        <v>107015</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2</v>
+      </c>
+      <c r="F17" s="1">
+        <v>7</v>
+      </c>
+      <c r="G17" s="1">
+        <v>4</v>
+      </c>
+      <c r="H17" s="4">
+        <v>85</v>
+      </c>
+      <c r="I17" s="1">
+        <v>207015</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
         <v>14</v>
       </c>
-      <c r="E2" s="3" t="s">
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="1">
+        <v>107016</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2</v>
+      </c>
+      <c r="F18" s="1">
+        <v>7</v>
+      </c>
+      <c r="G18" s="1">
+        <v>4</v>
+      </c>
+      <c r="H18" s="4">
+        <v>86</v>
+      </c>
+      <c r="I18" s="1">
+        <v>207016</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="1">
+        <v>107017</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2</v>
+      </c>
+      <c r="F19" s="1">
+        <v>7</v>
+      </c>
+      <c r="G19" s="1">
+        <v>4</v>
+      </c>
+      <c r="H19" s="4">
+        <v>87</v>
+      </c>
+      <c r="I19" s="1">
+        <v>207017</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="1">
+        <v>107018</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2</v>
+      </c>
+      <c r="F20" s="1">
+        <v>7</v>
+      </c>
+      <c r="G20" s="1">
+        <v>4</v>
+      </c>
+      <c r="H20" s="4">
+        <v>88</v>
+      </c>
+      <c r="I20" s="1">
+        <v>207018</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="1">
+        <v>107019</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2</v>
+      </c>
+      <c r="F21" s="1">
+        <v>7</v>
+      </c>
+      <c r="G21" s="1">
+        <v>5</v>
+      </c>
+      <c r="H21" s="4">
+        <v>89</v>
+      </c>
+      <c r="I21" s="1">
+        <v>207019</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
         <v>15</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="3" t="s">
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="1">
+        <v>107020</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2</v>
+      </c>
+      <c r="F22" s="1">
+        <v>7</v>
+      </c>
+      <c r="G22" s="1">
+        <v>5</v>
+      </c>
+      <c r="H22" s="4">
+        <v>90</v>
+      </c>
+      <c r="I22" s="1">
+        <v>207020</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" ht="33" spans="1:12">
+      <c r="A23" s="1">
+        <v>101001</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1">
         <v>20</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>21</v>
+      <c r="I23" s="1">
+        <v>201001</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" ht="33" spans="1:12">
+      <c r="A24" s="1">
+        <v>101011</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1">
+        <v>2</v>
+      </c>
+      <c r="H24" s="1">
+        <v>15</v>
+      </c>
+      <c r="I24" s="1">
+        <v>201011</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="25" ht="33" spans="1:12">
+      <c r="A25" s="1">
+        <v>101021</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1">
+        <v>3</v>
+      </c>
+      <c r="H25" s="1">
+        <v>10</v>
+      </c>
+      <c r="I25" s="1">
+        <v>201021</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="26" ht="49.5" spans="1:12">
+      <c r="A26" s="1">
+        <v>102001</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>2</v>
+      </c>
+      <c r="G26" s="1">
+        <v>5</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1">
+        <v>5000</v>
       </c>
     </row>
   </sheetData>

--- a/common/Item.xlsx
+++ b/common/Item.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
   <si>
     <t>序号</t>
   </si>
@@ -64,6 +64,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">品质
 </t>
     </r>
@@ -110,6 +117,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">掉落组id
 </t>
     </r>
@@ -271,6 +285,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">backpack_tpye </t>
     </r>
     <r>
@@ -492,6 +513,9 @@
     <t>寻访</t>
   </si>
   <si>
+    <t>Assets\mnRes\Images\icon\453.png</t>
+  </si>
+  <si>
     <t>荔枝</t>
   </si>
   <si>
@@ -558,18 +582,27 @@
     <t>关卡、牢房、副本</t>
   </si>
   <si>
+    <t>Assets\mnRes\Images\icon\49.png</t>
+  </si>
+  <si>
     <t>威严丸</t>
   </si>
   <si>
     <t>增加卡牌500点威严属性</t>
   </si>
   <si>
+    <t>Assets\mnRes\Images\icon\5.png</t>
+  </si>
+  <si>
     <t>威严丹</t>
   </si>
   <si>
     <t>增加卡牌1000点威严属性</t>
   </si>
   <si>
+    <t>Assets\mnRes\Images\icon\9.png</t>
+  </si>
+  <si>
     <t>威严星力</t>
   </si>
   <si>
@@ -577,6 +610,9 @@
   </si>
   <si>
     <t>商城礼包购买、副本、冲榜奖励、充值奖励</t>
+  </si>
+  <si>
+    <t>Assets\mnRes\Images\icon\15.png</t>
   </si>
 </sst>
 </file>
@@ -585,8 +621,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -612,7 +648,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -620,9 +677,54 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -631,6 +733,13 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -660,22 +769,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -689,69 +783,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -790,13 +826,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -808,25 +892,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -838,13 +940,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -856,115 +1000,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1001,41 +1037,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1071,6 +1076,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1088,11 +1111,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1104,10 +1140,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1116,137 +1152,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1258,9 +1294,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1593,8 +1626,8 @@
   <sheetPr/>
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1692,7 +1725,7 @@
       <c r="A3" s="1">
         <v>107001</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1710,7 +1743,7 @@
       <c r="G3" s="1">
         <v>1</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="1">
         <v>71</v>
       </c>
       <c r="I3" s="1">
@@ -1718,6 +1751,9 @@
       </c>
       <c r="J3" s="1">
         <v>0</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="L3" s="1">
         <v>10</v>
@@ -1727,8 +1763,8 @@
       <c r="A4" s="1">
         <v>107002</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>27</v>
+      <c r="B4" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>25</v>
@@ -1745,7 +1781,7 @@
       <c r="G4" s="1">
         <v>1</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="1">
         <v>72</v>
       </c>
       <c r="I4" s="1">
@@ -1753,6 +1789,9 @@
       </c>
       <c r="J4" s="1">
         <v>0</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="L4" s="1">
         <v>10</v>
@@ -1762,8 +1801,8 @@
       <c r="A5" s="1">
         <v>107003</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>28</v>
+      <c r="B5" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>25</v>
@@ -1780,7 +1819,7 @@
       <c r="G5" s="1">
         <v>1</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="1">
         <v>73</v>
       </c>
       <c r="I5" s="1">
@@ -1788,6 +1827,9 @@
       </c>
       <c r="J5" s="1">
         <v>0</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="L5" s="1">
         <v>10</v>
@@ -1797,8 +1839,8 @@
       <c r="A6" s="1">
         <v>107004</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>29</v>
+      <c r="B6" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>25</v>
@@ -1815,7 +1857,7 @@
       <c r="G6" s="1">
         <v>1</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="1">
         <v>74</v>
       </c>
       <c r="I6" s="1">
@@ -1823,6 +1865,9 @@
       </c>
       <c r="J6" s="1">
         <v>0</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="L6" s="1">
         <v>10</v>
@@ -1832,8 +1877,8 @@
       <c r="A7" s="1">
         <v>107005</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>30</v>
+      <c r="B7" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>25</v>
@@ -1850,7 +1895,7 @@
       <c r="G7" s="1">
         <v>2</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="1">
         <v>75</v>
       </c>
       <c r="I7" s="1">
@@ -1858,6 +1903,9 @@
       </c>
       <c r="J7" s="1">
         <v>0</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="L7" s="1">
         <v>12</v>
@@ -1867,8 +1915,8 @@
       <c r="A8" s="1">
         <v>107006</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>31</v>
+      <c r="B8" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>25</v>
@@ -1885,7 +1933,7 @@
       <c r="G8" s="1">
         <v>2</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="1">
         <v>76</v>
       </c>
       <c r="I8" s="1">
@@ -1893,6 +1941,9 @@
       </c>
       <c r="J8" s="1">
         <v>0</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="L8" s="1">
         <v>12</v>
@@ -1902,8 +1953,8 @@
       <c r="A9" s="1">
         <v>107007</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>32</v>
+      <c r="B9" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>25</v>
@@ -1920,7 +1971,7 @@
       <c r="G9" s="1">
         <v>2</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="1">
         <v>77</v>
       </c>
       <c r="I9" s="1">
@@ -1928,6 +1979,9 @@
       </c>
       <c r="J9" s="1">
         <v>0</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="L9" s="1">
         <v>12</v>
@@ -1937,8 +1991,8 @@
       <c r="A10" s="1">
         <v>107008</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>33</v>
+      <c r="B10" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>25</v>
@@ -1955,7 +2009,7 @@
       <c r="G10" s="1">
         <v>3</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="1">
         <v>78</v>
       </c>
       <c r="I10" s="1">
@@ -1963,6 +2017,9 @@
       </c>
       <c r="J10" s="1">
         <v>0</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="L10" s="1">
         <v>13</v>
@@ -1972,8 +2029,8 @@
       <c r="A11" s="1">
         <v>107009</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>34</v>
+      <c r="B11" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>25</v>
@@ -1990,7 +2047,7 @@
       <c r="G11" s="1">
         <v>3</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="1">
         <v>79</v>
       </c>
       <c r="I11" s="1">
@@ -1998,6 +2055,9 @@
       </c>
       <c r="J11" s="1">
         <v>0</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="L11" s="1">
         <v>13</v>
@@ -2007,8 +2067,8 @@
       <c r="A12" s="1">
         <v>107010</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>35</v>
+      <c r="B12" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>25</v>
@@ -2025,7 +2085,7 @@
       <c r="G12" s="1">
         <v>3</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="1">
         <v>80</v>
       </c>
       <c r="I12" s="1">
@@ -2033,6 +2093,9 @@
       </c>
       <c r="J12" s="1">
         <v>0</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="L12" s="1">
         <v>13</v>
@@ -2042,8 +2105,8 @@
       <c r="A13" s="1">
         <v>107011</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>36</v>
+      <c r="B13" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>25</v>
@@ -2060,7 +2123,7 @@
       <c r="G13" s="1">
         <v>3</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="1">
         <v>81</v>
       </c>
       <c r="I13" s="1">
@@ -2068,6 +2131,9 @@
       </c>
       <c r="J13" s="1">
         <v>0</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="L13" s="1">
         <v>13</v>
@@ -2077,8 +2143,8 @@
       <c r="A14" s="1">
         <v>107012</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>37</v>
+      <c r="B14" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>25</v>
@@ -2095,7 +2161,7 @@
       <c r="G14" s="1">
         <v>3</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="1">
         <v>82</v>
       </c>
       <c r="I14" s="1">
@@ -2103,6 +2169,9 @@
       </c>
       <c r="J14" s="1">
         <v>0</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="L14" s="1">
         <v>13</v>
@@ -2112,8 +2181,8 @@
       <c r="A15" s="1">
         <v>107013</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>38</v>
+      <c r="B15" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>25</v>
@@ -2130,7 +2199,7 @@
       <c r="G15" s="1">
         <v>3</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="1">
         <v>83</v>
       </c>
       <c r="I15" s="1">
@@ -2138,6 +2207,9 @@
       </c>
       <c r="J15" s="1">
         <v>0</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="L15" s="1">
         <v>13</v>
@@ -2147,8 +2219,8 @@
       <c r="A16" s="1">
         <v>107014</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>39</v>
+      <c r="B16" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>25</v>
@@ -2165,7 +2237,7 @@
       <c r="G16" s="1">
         <v>3</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="1">
         <v>84</v>
       </c>
       <c r="I16" s="1">
@@ -2173,6 +2245,9 @@
       </c>
       <c r="J16" s="1">
         <v>0</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="L16" s="1">
         <v>13</v>
@@ -2182,8 +2257,8 @@
       <c r="A17" s="1">
         <v>107015</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>40</v>
+      <c r="B17" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>25</v>
@@ -2200,7 +2275,7 @@
       <c r="G17" s="1">
         <v>4</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="1">
         <v>85</v>
       </c>
       <c r="I17" s="1">
@@ -2208,6 +2283,9 @@
       </c>
       <c r="J17" s="1">
         <v>0</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="L17" s="1">
         <v>14</v>
@@ -2217,8 +2295,8 @@
       <c r="A18" s="1">
         <v>107016</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>41</v>
+      <c r="B18" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>25</v>
@@ -2235,7 +2313,7 @@
       <c r="G18" s="1">
         <v>4</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="1">
         <v>86</v>
       </c>
       <c r="I18" s="1">
@@ -2243,6 +2321,9 @@
       </c>
       <c r="J18" s="1">
         <v>0</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="L18" s="1">
         <v>14</v>
@@ -2252,8 +2333,8 @@
       <c r="A19" s="1">
         <v>107017</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>42</v>
+      <c r="B19" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>25</v>
@@ -2270,7 +2351,7 @@
       <c r="G19" s="1">
         <v>4</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="1">
         <v>87</v>
       </c>
       <c r="I19" s="1">
@@ -2278,6 +2359,9 @@
       </c>
       <c r="J19" s="1">
         <v>0</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="L19" s="1">
         <v>14</v>
@@ -2287,8 +2371,8 @@
       <c r="A20" s="1">
         <v>107018</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>43</v>
+      <c r="B20" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>25</v>
@@ -2305,7 +2389,7 @@
       <c r="G20" s="1">
         <v>4</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="1">
         <v>88</v>
       </c>
       <c r="I20" s="1">
@@ -2313,6 +2397,9 @@
       </c>
       <c r="J20" s="1">
         <v>0</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="L20" s="1">
         <v>14</v>
@@ -2322,8 +2409,8 @@
       <c r="A21" s="1">
         <v>107019</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>44</v>
+      <c r="B21" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>25</v>
@@ -2340,7 +2427,7 @@
       <c r="G21" s="1">
         <v>5</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="1">
         <v>89</v>
       </c>
       <c r="I21" s="1">
@@ -2348,6 +2435,9 @@
       </c>
       <c r="J21" s="1">
         <v>0</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="L21" s="1">
         <v>15</v>
@@ -2357,8 +2447,8 @@
       <c r="A22" s="1">
         <v>107020</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>45</v>
+      <c r="B22" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>25</v>
@@ -2375,7 +2465,7 @@
       <c r="G22" s="1">
         <v>5</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="1">
         <v>90</v>
       </c>
       <c r="I22" s="1">
@@ -2383,6 +2473,9 @@
       </c>
       <c r="J22" s="1">
         <v>0</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="L22" s="1">
         <v>15</v>
@@ -2393,13 +2486,13 @@
         <v>101001</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="5" t="s">
         <v>47</v>
       </c>
+      <c r="C23" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="D23" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
@@ -2418,6 +2511,9 @@
       </c>
       <c r="J23" s="1">
         <v>0</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="L23" s="1">
         <v>100</v>
@@ -2428,13 +2524,13 @@
         <v>101011</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
@@ -2453,6 +2549,9 @@
       </c>
       <c r="J24" s="1">
         <v>0</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="L24" s="1">
         <v>500</v>
@@ -2463,13 +2562,13 @@
         <v>101021</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
@@ -2488,6 +2587,9 @@
       </c>
       <c r="J25" s="1">
         <v>0</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="L25" s="1">
         <v>1000</v>
@@ -2498,13 +2600,13 @@
         <v>102001</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
@@ -2523,6 +2625,9 @@
       </c>
       <c r="J26" s="1">
         <v>0</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="L26" s="1">
         <v>5000</v>

--- a/common/Item.xlsx
+++ b/common/Item.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63">
   <si>
     <t>序号</t>
   </si>
@@ -34,13 +34,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">道具类型
 </t>
     </r>
@@ -59,18 +52,23 @@
 6=突破道具
 7=好感道具
 8=联姻道具
-9=红颜道具</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
+9=红颜道具
+10=碎片道具
+11=货币
+12=资源
+13=卡牌</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">映射
+举例：
+1~10没有映射
+货币、资源填入类型名称
+卡牌填入卡牌ID
+</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">品质
 </t>
     </r>
@@ -285,13 +283,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">backpack_tpye </t>
     </r>
     <r>
@@ -308,14 +299,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">type </t>
+      <t xml:space="preserve">item_type </t>
     </r>
     <r>
       <rPr>
@@ -331,13 +315,22 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
+      <t xml:space="preserve">corresponding </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>string</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>quality</t>
     </r>
     <r>
@@ -620,9 +613,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -648,21 +641,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -683,6 +693,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -691,9 +716,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -701,13 +749,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -729,7 +770,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -737,57 +778,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -826,25 +819,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -856,157 +993,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1035,28 +1028,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1078,9 +1060,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1090,30 +1098,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1132,6 +1116,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1140,10 +1133,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1152,133 +1145,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1624,10 +1617,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1636,16 +1629,17 @@
     <col min="2" max="2" width="13.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.5" style="1" customWidth="1"/>
     <col min="4" max="6" width="16" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.75" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="49.75" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.875" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="1"/>
+    <col min="7" max="7" width="17.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.25" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.75" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="49.75" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.875" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="164.25" spans="1:12">
+    <row r="1" ht="230.25" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1682,57 +1676,63 @@
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" ht="33.75" spans="1:12">
+    <row r="2" ht="33.75" spans="1:13">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>107001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
@@ -1741,36 +1741,39 @@
         <v>7</v>
       </c>
       <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
         <v>1</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>71</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>207001</v>
       </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="1">
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>107002</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="E4" s="1">
         <v>2</v>
@@ -1779,36 +1782,39 @@
         <v>7</v>
       </c>
       <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
         <v>1</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>72</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>207002</v>
       </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="1">
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>107003</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E5" s="1">
         <v>2</v>
@@ -1817,36 +1823,39 @@
         <v>7</v>
       </c>
       <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
         <v>1</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>73</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>207003</v>
       </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L5" s="1">
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>107004</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E6" s="1">
         <v>2</v>
@@ -1855,36 +1864,39 @@
         <v>7</v>
       </c>
       <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
         <v>1</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>74</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>207004</v>
       </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L6" s="1">
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>107005</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
@@ -1893,36 +1905,39 @@
         <v>7</v>
       </c>
       <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
         <v>2</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>75</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <v>207005</v>
       </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L7" s="1">
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>107006</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
@@ -1931,36 +1946,39 @@
         <v>7</v>
       </c>
       <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
         <v>2</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>76</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="1">
         <v>207006</v>
       </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L8" s="1">
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>107007</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E9" s="1">
         <v>2</v>
@@ -1969,36 +1987,39 @@
         <v>7</v>
       </c>
       <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
         <v>2</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>77</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J9" s="1">
         <v>207007</v>
       </c>
-      <c r="J9" s="1">
-        <v>0</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L9" s="1">
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>107008</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E10" s="1">
         <v>2</v>
@@ -2007,36 +2028,39 @@
         <v>7</v>
       </c>
       <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
         <v>3</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
         <v>78</v>
       </c>
-      <c r="I10" s="1">
+      <c r="J10" s="1">
         <v>207008</v>
       </c>
-      <c r="J10" s="1">
-        <v>0</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L10" s="1">
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>107009</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E11" s="1">
         <v>2</v>
@@ -2045,36 +2069,39 @@
         <v>7</v>
       </c>
       <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
         <v>3</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I11" s="1">
         <v>79</v>
       </c>
-      <c r="I11" s="1">
+      <c r="J11" s="1">
         <v>207009</v>
       </c>
-      <c r="J11" s="1">
-        <v>0</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L11" s="1">
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>107010</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E12" s="1">
         <v>2</v>
@@ -2083,36 +2110,39 @@
         <v>7</v>
       </c>
       <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
         <v>3</v>
       </c>
-      <c r="H12" s="1">
+      <c r="I12" s="1">
         <v>80</v>
       </c>
-      <c r="I12" s="1">
+      <c r="J12" s="1">
         <v>207010</v>
       </c>
-      <c r="J12" s="1">
-        <v>0</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L12" s="1">
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M12" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>107011</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E13" s="1">
         <v>2</v>
@@ -2121,36 +2151,39 @@
         <v>7</v>
       </c>
       <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
         <v>3</v>
       </c>
-      <c r="H13" s="1">
+      <c r="I13" s="1">
         <v>81</v>
       </c>
-      <c r="I13" s="1">
+      <c r="J13" s="1">
         <v>207011</v>
       </c>
-      <c r="J13" s="1">
-        <v>0</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L13" s="1">
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M13" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>107012</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E14" s="1">
         <v>2</v>
@@ -2159,36 +2192,39 @@
         <v>7</v>
       </c>
       <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
         <v>3</v>
       </c>
-      <c r="H14" s="1">
+      <c r="I14" s="1">
         <v>82</v>
       </c>
-      <c r="I14" s="1">
+      <c r="J14" s="1">
         <v>207012</v>
       </c>
-      <c r="J14" s="1">
-        <v>0</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L14" s="1">
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M14" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>107013</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E15" s="1">
         <v>2</v>
@@ -2197,36 +2233,39 @@
         <v>7</v>
       </c>
       <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
         <v>3</v>
       </c>
-      <c r="H15" s="1">
+      <c r="I15" s="1">
         <v>83</v>
       </c>
-      <c r="I15" s="1">
+      <c r="J15" s="1">
         <v>207013</v>
       </c>
-      <c r="J15" s="1">
-        <v>0</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L15" s="1">
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M15" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>107014</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E16" s="1">
         <v>2</v>
@@ -2235,36 +2274,39 @@
         <v>7</v>
       </c>
       <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
         <v>3</v>
       </c>
-      <c r="H16" s="1">
+      <c r="I16" s="1">
         <v>84</v>
       </c>
-      <c r="I16" s="1">
+      <c r="J16" s="1">
         <v>207014</v>
       </c>
-      <c r="J16" s="1">
-        <v>0</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L16" s="1">
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M16" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>107015</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E17" s="1">
         <v>2</v>
@@ -2273,36 +2315,39 @@
         <v>7</v>
       </c>
       <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
         <v>4</v>
       </c>
-      <c r="H17" s="1">
+      <c r="I17" s="1">
         <v>85</v>
       </c>
-      <c r="I17" s="1">
+      <c r="J17" s="1">
         <v>207015</v>
       </c>
-      <c r="J17" s="1">
-        <v>0</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L17" s="1">
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M17" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>107016</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E18" s="1">
         <v>2</v>
@@ -2311,36 +2356,39 @@
         <v>7</v>
       </c>
       <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
         <v>4</v>
       </c>
-      <c r="H18" s="1">
+      <c r="I18" s="1">
         <v>86</v>
       </c>
-      <c r="I18" s="1">
+      <c r="J18" s="1">
         <v>207016</v>
       </c>
-      <c r="J18" s="1">
-        <v>0</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L18" s="1">
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M18" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>107017</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E19" s="1">
         <v>2</v>
@@ -2349,36 +2397,39 @@
         <v>7</v>
       </c>
       <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
         <v>4</v>
       </c>
-      <c r="H19" s="1">
+      <c r="I19" s="1">
         <v>87</v>
       </c>
-      <c r="I19" s="1">
+      <c r="J19" s="1">
         <v>207017</v>
       </c>
-      <c r="J19" s="1">
-        <v>0</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L19" s="1">
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M19" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>107018</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E20" s="1">
         <v>2</v>
@@ -2387,36 +2438,39 @@
         <v>7</v>
       </c>
       <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
         <v>4</v>
       </c>
-      <c r="H20" s="1">
+      <c r="I20" s="1">
         <v>88</v>
       </c>
-      <c r="I20" s="1">
+      <c r="J20" s="1">
         <v>207018</v>
       </c>
-      <c r="J20" s="1">
-        <v>0</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L20" s="1">
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M20" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>107019</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E21" s="1">
         <v>2</v>
@@ -2425,36 +2479,39 @@
         <v>7</v>
       </c>
       <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
         <v>5</v>
       </c>
-      <c r="H21" s="1">
+      <c r="I21" s="1">
         <v>89</v>
       </c>
-      <c r="I21" s="1">
+      <c r="J21" s="1">
         <v>207019</v>
       </c>
-      <c r="J21" s="1">
-        <v>0</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L21" s="1">
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M21" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>107020</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E22" s="1">
         <v>2</v>
@@ -2463,36 +2520,39 @@
         <v>7</v>
       </c>
       <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
         <v>5</v>
       </c>
-      <c r="H22" s="1">
+      <c r="I22" s="1">
         <v>90</v>
       </c>
-      <c r="I22" s="1">
+      <c r="J22" s="1">
         <v>207020</v>
       </c>
-      <c r="J22" s="1">
-        <v>0</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L22" s="1">
+      <c r="K22" s="1">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M22" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="23" ht="33" spans="1:12">
+    <row r="23" ht="33" spans="1:13">
       <c r="A23" s="1">
         <v>101001</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
@@ -2501,36 +2561,39 @@
         <v>1</v>
       </c>
       <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
         <v>1</v>
       </c>
-      <c r="H23" s="1">
+      <c r="I23" s="1">
         <v>20</v>
       </c>
-      <c r="I23" s="1">
+      <c r="J23" s="1">
         <v>201001</v>
       </c>
-      <c r="J23" s="1">
-        <v>0</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L23" s="1">
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M23" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="24" ht="33" spans="1:12">
+    <row r="24" ht="33" spans="1:13">
       <c r="A24" s="1">
         <v>101011</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
@@ -2539,36 +2602,39 @@
         <v>1</v>
       </c>
       <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
         <v>2</v>
       </c>
-      <c r="H24" s="1">
+      <c r="I24" s="1">
         <v>15</v>
       </c>
-      <c r="I24" s="1">
+      <c r="J24" s="1">
         <v>201011</v>
       </c>
-      <c r="J24" s="1">
-        <v>0</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L24" s="1">
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M24" s="1">
         <v>500</v>
       </c>
     </row>
-    <row r="25" ht="33" spans="1:12">
+    <row r="25" ht="33" spans="1:13">
       <c r="A25" s="1">
         <v>101021</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
@@ -2577,36 +2643,39 @@
         <v>1</v>
       </c>
       <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
         <v>3</v>
       </c>
-      <c r="H25" s="1">
+      <c r="I25" s="1">
         <v>10</v>
       </c>
-      <c r="I25" s="1">
+      <c r="J25" s="1">
         <v>201021</v>
       </c>
-      <c r="J25" s="1">
-        <v>0</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L25" s="1">
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M25" s="1">
         <v>1000</v>
       </c>
     </row>
-    <row r="26" ht="49.5" spans="1:12">
+    <row r="26" ht="49.5" spans="1:13">
       <c r="A26" s="1">
         <v>102001</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
@@ -2615,21 +2684,24 @@
         <v>2</v>
       </c>
       <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
         <v>5</v>
       </c>
-      <c r="H26" s="1">
+      <c r="I26" s="1">
         <v>1</v>
       </c>
-      <c r="I26" s="1">
-        <v>0</v>
-      </c>
       <c r="J26" s="1">
         <v>0</v>
       </c>
-      <c r="K26" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L26" s="1">
+      <c r="K26" s="1">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M26" s="1">
         <v>5000</v>
       </c>
     </row>

--- a/common/Item.xlsx
+++ b/common/Item.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76">
   <si>
     <t>序号</t>
   </si>
@@ -69,6 +69,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">品质
 </t>
     </r>
@@ -283,6 +290,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">backpack_tpye </t>
     </r>
     <r>
@@ -299,6 +313,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">item_type </t>
     </r>
     <r>
@@ -315,6 +336,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">corresponding </t>
     </r>
     <r>
@@ -331,6 +359,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>quality</t>
     </r>
     <r>
@@ -606,6 +641,45 @@
   </si>
   <si>
     <t>Assets\mnRes\Images\icon\15.png</t>
+  </si>
+  <si>
+    <t>月白石</t>
+  </si>
+  <si>
+    <t>卡牌1阶突破道具</t>
+  </si>
+  <si>
+    <t>副本、活动、充值奖励</t>
+  </si>
+  <si>
+    <t>石青石</t>
+  </si>
+  <si>
+    <t>卡牌2阶突破道具</t>
+  </si>
+  <si>
+    <t>黛蓝石</t>
+  </si>
+  <si>
+    <t>卡牌3阶突破道具</t>
+  </si>
+  <si>
+    <t>紫棠石</t>
+  </si>
+  <si>
+    <t>卡牌4阶突破道具</t>
+  </si>
+  <si>
+    <t>琥珀石</t>
+  </si>
+  <si>
+    <t>卡牌5阶突破道具</t>
+  </si>
+  <si>
+    <t>赤朱石</t>
+  </si>
+  <si>
+    <t>卡牌6阶突破道具</t>
   </si>
 </sst>
 </file>
@@ -614,11 +688,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -640,6 +714,50 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -647,8 +765,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -670,7 +796,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -678,8 +803,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -694,94 +852,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -819,139 +899,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -963,43 +1073,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1028,17 +1108,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1058,13 +1132,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1119,24 +1197,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1145,137 +1225,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1291,8 +1372,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
@@ -1342,6 +1426,7 @@
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 7 6 3 2" xfId="49"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1617,18 +1702,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="13.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="1" customWidth="1"/>
-    <col min="4" max="6" width="16" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.25" style="1" customWidth="1"/>
+    <col min="5" max="6" width="16" style="1" customWidth="1"/>
     <col min="7" max="7" width="17.125" style="1" customWidth="1"/>
     <col min="8" max="8" width="9.125" style="1" customWidth="1"/>
     <col min="9" max="9" width="9.25" style="1" customWidth="1"/>
@@ -2664,7 +2750,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="26" ht="49.5" spans="1:13">
+    <row r="26" ht="33" spans="1:13">
       <c r="A26" s="1">
         <v>102001</v>
       </c>
@@ -2703,6 +2789,252 @@
       </c>
       <c r="M26" s="1">
         <v>5000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="1">
+        <v>106001</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>6</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>1</v>
+      </c>
+      <c r="I27" s="1">
+        <v>25</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M27" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="1">
+        <v>106002</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1">
+        <v>6</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>2</v>
+      </c>
+      <c r="I28" s="1">
+        <v>26</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M28" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="1">
+        <v>106003</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1">
+        <v>6</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
+        <v>3</v>
+      </c>
+      <c r="I29" s="1">
+        <v>27</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M29" s="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="1">
+        <v>106004</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1">
+        <v>6</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1">
+        <v>4</v>
+      </c>
+      <c r="I30" s="1">
+        <v>28</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M30" s="1">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="1">
+        <v>106005</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1">
+        <v>6</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1">
+        <v>5</v>
+      </c>
+      <c r="I31" s="1">
+        <v>29</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M31" s="1">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="1">
+        <v>106006</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1">
+        <v>6</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1">
+        <v>6</v>
+      </c>
+      <c r="I32" s="1">
+        <v>30</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M32" s="1">
+        <v>650</v>
       </c>
     </row>
   </sheetData>

--- a/common/Item.xlsx
+++ b/common/Item.xlsx
@@ -34,6 +34,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">道具类型
 </t>
     </r>
@@ -687,9 +694,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -714,11 +721,57 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -730,15 +783,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -752,14 +813,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -767,30 +821,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -805,14 +836,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -820,39 +851,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -862,6 +862,13 @@
       <color theme="1"/>
       <name val="Tahoma"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -899,19 +906,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -923,49 +1002,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -977,13 +1038,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -995,19 +1062,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1019,67 +1074,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1104,6 +1111,21 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1132,17 +1154,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1181,27 +1199,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1213,10 +1220,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1225,136 +1232,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1705,7 +1712,7 @@
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/common/Item.xlsx
+++ b/common/Item.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13065"/>
+    <workbookView windowWidth="24345" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="124">
   <si>
     <t>序号</t>
   </si>
@@ -29,18 +29,12 @@
   </si>
   <si>
     <t>背包类型
+0=不显示在背包
 1=通用背包
 2=好感背包</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">道具类型
 </t>
     </r>
@@ -63,27 +57,23 @@
 10=碎片道具
 11=货币
 12=资源
-13=卡牌</t>
+13=卡牌
+14=属性
+15=经验</t>
     </r>
   </si>
   <si>
     <t xml:space="preserve">映射
 举例：
 1~10没有映射
-货币、资源填入类型名称
+货币、资源、属性、经验填入类型名称
 卡牌填入卡牌ID
 </t>
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">品质
+0=无品质
 </t>
     </r>
     <r>
@@ -264,6 +254,9 @@
     </r>
   </si>
   <si>
+    <t>channel_intro string</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -272,16 +265,53 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>channel_intro</t>
+      <t xml:space="preserve">backpack_tpye </t>
     </r>
     <r>
       <rPr>
+        <i/>
+        <u/>
         <sz val="11"/>
         <color theme="0"/>
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t>int</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">item_type </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>int</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">corresponding </t>
     </r>
     <r>
       <rPr>
@@ -304,7 +334,16 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">backpack_tpye </t>
+      <t>quality</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -327,7 +366,16 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">item_type </t>
+      <t>rank</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -350,7 +398,62 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">corresponding </t>
+      <t xml:space="preserve">spell_id </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>int</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>drop_box_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>int</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">icon_path </t>
     </r>
     <r>
       <rPr>
@@ -373,7 +476,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>quality</t>
+      <t>value</t>
     </r>
     <r>
       <rPr>
@@ -397,148 +500,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>rank</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>int</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">spell_id </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>int</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>drop_box_id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>int</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">icon_path </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>string</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>value</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>int</t>
-    </r>
-  </si>
-  <si>
     <t>桃子</t>
   </si>
   <si>
@@ -650,15 +611,45 @@
     <t>Assets\mnRes\Images\icon\15.png</t>
   </si>
   <si>
+    <t>才华星力</t>
+  </si>
+  <si>
+    <t>提升卡牌才华星运等级</t>
+  </si>
+  <si>
+    <t>聪慧星力</t>
+  </si>
+  <si>
+    <t>提升卡牌聪慧星运等级</t>
+  </si>
+  <si>
+    <t>魅力星力</t>
+  </si>
+  <si>
+    <t>提升卡牌魅力星运等级</t>
+  </si>
+  <si>
+    <t>彩色星罐</t>
+  </si>
+  <si>
+    <t>获得一种属性星力</t>
+  </si>
+  <si>
+    <t>星瓶碎片</t>
+  </si>
+  <si>
+    <t>增加卡牌星运碎片50</t>
+  </si>
+  <si>
+    <t>副本、活动、充值奖励</t>
+  </si>
+  <si>
     <t>月白石</t>
   </si>
   <si>
     <t>卡牌1阶突破道具</t>
   </si>
   <si>
-    <t>副本、活动、充值奖励</t>
-  </si>
-  <si>
     <t>石青石</t>
   </si>
   <si>
@@ -687,6 +678,120 @@
   </si>
   <si>
     <t>卡牌6阶突破道具</t>
+  </si>
+  <si>
+    <t>恢复卡</t>
+  </si>
+  <si>
+    <t>使用后恢复1次家事次数</t>
+  </si>
+  <si>
+    <t>主线、登录奖励、商城礼包购买</t>
+  </si>
+  <si>
+    <t>出战卡</t>
+  </si>
+  <si>
+    <t>使用后恢复1次卡牌出战次数</t>
+  </si>
+  <si>
+    <t>商城礼包购买、冲榜奖励、充值奖励</t>
+  </si>
+  <si>
+    <t>黄金</t>
+  </si>
+  <si>
+    <t>商城货币</t>
+  </si>
+  <si>
+    <t>充值</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>铜钱</t>
+  </si>
+  <si>
+    <t>主要资源之一，游戏内产出，主要用于升级卡牌</t>
+  </si>
+  <si>
+    <t>家事、关卡、活动奖励</t>
+  </si>
+  <si>
+    <t>cash</t>
+  </si>
+  <si>
+    <t>阅历</t>
+  </si>
+  <si>
+    <t>主要资源之一，游戏内产出，主要用于获取声望</t>
+  </si>
+  <si>
+    <t>家事、活动奖励</t>
+  </si>
+  <si>
+    <t>exp</t>
+  </si>
+  <si>
+    <t>声望</t>
+  </si>
+  <si>
+    <t>主要资源之一，游戏内产出，主要用于关卡消耗</t>
+  </si>
+  <si>
+    <t>rep</t>
+  </si>
+  <si>
+    <t>威严</t>
+  </si>
+  <si>
+    <t>决定玩家关卡的战斗力</t>
+  </si>
+  <si>
+    <t>卡牌、道具、拾光、作品、羁绊</t>
+  </si>
+  <si>
+    <t>maje</t>
+  </si>
+  <si>
+    <t>才华</t>
+  </si>
+  <si>
+    <t>玩家单次【阅历】产出的依据</t>
+  </si>
+  <si>
+    <t>tale</t>
+  </si>
+  <si>
+    <t>聪慧</t>
+  </si>
+  <si>
+    <t>玩家单次【铜钱】产出的依据</t>
+  </si>
+  <si>
+    <t>intel</t>
+  </si>
+  <si>
+    <t>魅力</t>
+  </si>
+  <si>
+    <t>玩家单次【声望】产出的依据</t>
+  </si>
+  <si>
+    <t>charm</t>
+  </si>
+  <si>
+    <t>成长值</t>
+  </si>
+  <si>
+    <t>主角成长经验</t>
+  </si>
+  <si>
+    <t>关卡、家务</t>
+  </si>
+  <si>
+    <t>growth</t>
   </si>
 </sst>
 </file>
@@ -721,76 +826,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -805,20 +840,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -827,8 +848,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -843,7 +909,29 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -851,21 +939,38 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -906,7 +1011,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -918,31 +1119,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -954,7 +1137,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -966,79 +1179,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1050,43 +1191,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1115,45 +1220,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1161,15 +1227,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1193,7 +1250,55 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1220,10 +1325,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1232,16 +1337,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1250,118 +1355,118 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1707,17 +1812,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
+    <col min="1" max="1" width="9.25" style="1"/>
     <col min="2" max="2" width="13.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="21.25" style="1" customWidth="1"/>
@@ -1732,7 +1837,7 @@
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="230.25" spans="1:13">
+    <row r="1" ht="263.25" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2798,33 +2903,33 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" ht="33" spans="1:13">
       <c r="A27" s="1">
-        <v>106001</v>
-      </c>
-      <c r="B27" s="5" t="s">
+        <v>102002</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>65</v>
+      <c r="D27" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
       </c>
       <c r="F27" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G27" s="1">
         <v>0</v>
       </c>
       <c r="H27" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I27" s="1">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="J27" s="1">
         <v>0</v>
@@ -2832,40 +2937,37 @@
       <c r="K27" s="1">
         <v>0</v>
       </c>
-      <c r="L27" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="M27" s="1">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="28" ht="33" spans="1:13">
       <c r="A28" s="1">
-        <v>106002</v>
-      </c>
-      <c r="B28" s="5" t="s">
+        <v>102003</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>65</v>
+      <c r="D28" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
       </c>
       <c r="F28" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G28" s="1">
         <v>0</v>
       </c>
       <c r="H28" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I28" s="1">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="J28" s="1">
         <v>0</v>
@@ -2873,40 +2975,37 @@
       <c r="K28" s="1">
         <v>0</v>
       </c>
-      <c r="L28" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="M28" s="1">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="29" ht="33" spans="1:13">
       <c r="A29" s="1">
-        <v>106003</v>
-      </c>
-      <c r="B29" s="5" t="s">
+        <v>102004</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>65</v>
+      <c r="D29" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
       </c>
       <c r="F29" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G29" s="1">
         <v>0</v>
       </c>
       <c r="H29" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I29" s="1">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="J29" s="1">
         <v>0</v>
@@ -2914,40 +3013,37 @@
       <c r="K29" s="1">
         <v>0</v>
       </c>
-      <c r="L29" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="M29" s="1">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="30" ht="33" spans="1:13">
       <c r="A30" s="1">
-        <v>106004</v>
-      </c>
-      <c r="B30" s="5" t="s">
+        <v>102005</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>65</v>
+      <c r="D30" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
       </c>
       <c r="F30" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G30" s="1">
         <v>0</v>
       </c>
       <c r="H30" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I30" s="1">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="J30" s="1">
         <v>0</v>
@@ -2955,57 +3051,51 @@
       <c r="K30" s="1">
         <v>0</v>
       </c>
-      <c r="L30" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="M30" s="1">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="31" ht="33" spans="1:13">
       <c r="A31" s="1">
-        <v>106005</v>
-      </c>
-      <c r="B31" s="5" t="s">
+        <v>102006</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
       </c>
       <c r="F31" s="1">
+        <v>2</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1">
+        <v>3</v>
+      </c>
+      <c r="I31" s="1">
         <v>6</v>
       </c>
-      <c r="G31" s="1">
-        <v>0</v>
-      </c>
-      <c r="H31" s="1">
-        <v>5</v>
-      </c>
-      <c r="I31" s="1">
-        <v>29</v>
-      </c>
       <c r="J31" s="1">
-        <v>0</v>
+        <v>202006</v>
       </c>
       <c r="K31" s="1">
         <v>0</v>
       </c>
-      <c r="L31" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="M31" s="1">
-        <v>550</v>
+        <v>500</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="1">
-        <v>106006</v>
+        <v>106001</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>74</v>
@@ -3014,7 +3104,7 @@
         <v>75</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="E32" s="1">
         <v>1</v>
@@ -3026,10 +3116,10 @@
         <v>0</v>
       </c>
       <c r="H32" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I32" s="1">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J32" s="1">
         <v>0</v>
@@ -3041,7 +3131,630 @@
         <v>62</v>
       </c>
       <c r="M32" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="1">
+        <v>106002</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1">
+        <v>6</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <v>2</v>
+      </c>
+      <c r="I33" s="1">
+        <v>26</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M33" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="1">
+        <v>106003</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1">
+        <v>6</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1">
+        <v>3</v>
+      </c>
+      <c r="I34" s="1">
+        <v>27</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M34" s="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="1">
+        <v>106004</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1">
+        <v>6</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1">
+        <v>4</v>
+      </c>
+      <c r="I35" s="1">
+        <v>28</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0</v>
+      </c>
+      <c r="K35" s="1">
+        <v>0</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M35" s="1">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="1">
+        <v>106005</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1">
+        <v>6</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1">
+        <v>5</v>
+      </c>
+      <c r="I36" s="1">
+        <v>29</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M36" s="1">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="1">
+        <v>106006</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1">
+        <v>6</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1">
+        <v>6</v>
+      </c>
+      <c r="I37" s="1">
+        <v>30</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M37" s="1">
         <v>650</v>
+      </c>
+    </row>
+    <row r="38" ht="33" spans="1:13">
+      <c r="A38" s="1">
+        <v>105001</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1</v>
+      </c>
+      <c r="F38" s="1">
+        <v>5</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1">
+        <v>1</v>
+      </c>
+      <c r="I38" s="1">
+        <v>51</v>
+      </c>
+      <c r="J38" s="1">
+        <v>205001</v>
+      </c>
+      <c r="K38" s="4">
+        <v>0</v>
+      </c>
+      <c r="M38" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="39" ht="33" spans="1:13">
+      <c r="A39" s="1">
+        <v>105002</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1</v>
+      </c>
+      <c r="F39" s="1">
+        <v>5</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1">
+        <v>1</v>
+      </c>
+      <c r="I39" s="1">
+        <v>52</v>
+      </c>
+      <c r="J39" s="1">
+        <v>205002</v>
+      </c>
+      <c r="K39" s="1">
+        <v>0</v>
+      </c>
+      <c r="M39" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="1">
+        <v>111001</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1">
+        <v>11</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0</v>
+      </c>
+      <c r="K40" s="1">
+        <v>0</v>
+      </c>
+      <c r="M40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" ht="49.5" spans="1:13">
+      <c r="A41" s="1">
+        <v>112001</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E41" s="4">
+        <v>0</v>
+      </c>
+      <c r="F41" s="1">
+        <v>12</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0</v>
+      </c>
+      <c r="J41" s="1">
+        <v>0</v>
+      </c>
+      <c r="K41" s="1">
+        <v>0</v>
+      </c>
+      <c r="M41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" ht="49.5" spans="1:13">
+      <c r="A42" s="1">
+        <v>112002</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1">
+        <v>12</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0</v>
+      </c>
+      <c r="M42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" ht="49.5" spans="1:13">
+      <c r="A43" s="1">
+        <v>112003</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0</v>
+      </c>
+      <c r="F43" s="1">
+        <v>12</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0</v>
+      </c>
+      <c r="J43" s="1">
+        <v>0</v>
+      </c>
+      <c r="K43" s="1">
+        <v>0</v>
+      </c>
+      <c r="M43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" ht="33" spans="1:13">
+      <c r="A44" s="1">
+        <v>114001</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
+      <c r="F44" s="1">
+        <v>14</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0</v>
+      </c>
+      <c r="J44" s="1">
+        <v>0</v>
+      </c>
+      <c r="K44" s="1">
+        <v>0</v>
+      </c>
+      <c r="M44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" ht="33" spans="1:13">
+      <c r="A45" s="1">
+        <v>114002</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0</v>
+      </c>
+      <c r="F45" s="1">
+        <v>14</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0</v>
+      </c>
+      <c r="I45" s="1">
+        <v>0</v>
+      </c>
+      <c r="J45" s="1">
+        <v>0</v>
+      </c>
+      <c r="K45" s="1">
+        <v>0</v>
+      </c>
+      <c r="M45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" ht="33" spans="1:13">
+      <c r="A46" s="1">
+        <v>114003</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0</v>
+      </c>
+      <c r="F46" s="1">
+        <v>14</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0</v>
+      </c>
+      <c r="J46" s="1">
+        <v>0</v>
+      </c>
+      <c r="K46" s="1">
+        <v>0</v>
+      </c>
+      <c r="M46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" ht="33" spans="1:13">
+      <c r="A47" s="1">
+        <v>114004</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0</v>
+      </c>
+      <c r="F47" s="1">
+        <v>14</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0</v>
+      </c>
+      <c r="J47" s="1">
+        <v>0</v>
+      </c>
+      <c r="K47" s="1">
+        <v>0</v>
+      </c>
+      <c r="M47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="1">
+        <v>115001</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0</v>
+      </c>
+      <c r="F48" s="1">
+        <v>15</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0</v>
+      </c>
+      <c r="I48" s="1">
+        <v>0</v>
+      </c>
+      <c r="J48" s="1">
+        <v>0</v>
+      </c>
+      <c r="K48" s="1">
+        <v>0</v>
+      </c>
+      <c r="M48" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/common/Item.xlsx
+++ b/common/Item.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24345" windowHeight="12465"/>
+    <workbookView windowWidth="24180" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124">
   <si>
     <t>序号</t>
   </si>
@@ -31,7 +31,8 @@
     <t>背包类型
 0=不显示在背包
 1=通用背包
-2=好感背包</t>
+2=好感背包
+3=卡牌背包</t>
   </si>
   <si>
     <r>
@@ -72,6 +73,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">品质
 0=无品质
 </t>
@@ -799,10 +807,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -833,24 +841,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -871,38 +878,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -917,7 +901,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -931,7 +922,23 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -946,8 +953,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -955,22 +971,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1011,13 +1019,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1035,37 +1169,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1077,121 +1187,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1220,13 +1228,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1242,24 +1254,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1289,21 +1283,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1317,6 +1296,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1325,10 +1333,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1337,136 +1345,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1812,12 +1820,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="L43" sqref="L43"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/common/Item.xlsx
+++ b/common/Item.xlsx
@@ -60,7 +60,8 @@
 12=资源
 13=卡牌
 14=属性
-15=经验</t>
+15=经验
+16=改名卡</t>
     </r>
   </si>
   <si>
@@ -807,10 +808,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -841,23 +842,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -870,9 +863,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -893,17 +908,11 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -914,8 +923,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -923,7 +933,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -938,32 +948,22 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -971,14 +971,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1019,7 +1020,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1031,13 +1080,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1049,13 +1116,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1067,31 +1134,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1103,19 +1152,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1133,55 +1176,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1193,13 +1194,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1228,32 +1229,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1275,9 +1264,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1297,22 +1303,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1320,8 +1321,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1333,10 +1334,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1345,37 +1346,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1384,97 +1379,103 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1825,7 +1826,7 @@
   <dimension ref="A1:M48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1845,7 +1846,7 @@
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="263.25" spans="1:13">
+    <row r="1" ht="279.75" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>

--- a/common/Item.xlsx
+++ b/common/Item.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13065"/>
+    <workbookView windowWidth="23400" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="127">
   <si>
     <t>序号</t>
   </si>
@@ -36,6 +36,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">道具类型
 </t>
     </r>
@@ -515,7 +522,7 @@
     <t>提升好感度</t>
   </si>
   <si>
-    <t>寻访</t>
+    <t>追忆</t>
   </si>
   <si>
     <t>Assets\mnRes\Images\icon\453.png</t>
@@ -801,6 +808,15 @@
   </si>
   <si>
     <t>growth</t>
+  </si>
+  <si>
+    <t>好感值</t>
+  </si>
+  <si>
+    <t>知交好感经验</t>
+  </si>
+  <si>
+    <t>favor</t>
   </si>
 </sst>
 </file>
@@ -808,10 +824,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -837,6 +853,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -844,6 +866,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -863,22 +892,8 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -887,7 +902,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -908,10 +923,18 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -924,18 +947,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -948,7 +963,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -962,8 +985,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -971,15 +995,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1020,31 +1036,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1062,7 +1090,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1074,7 +1114,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1086,37 +1180,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1128,79 +1210,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1229,11 +1245,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1241,34 +1263,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1289,16 +1285,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1322,7 +1318,27 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1334,10 +1350,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1346,136 +1362,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1821,12 +1837,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M48"/>
+  <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -3766,6 +3782,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="1">
+        <v>115002</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0</v>
+      </c>
+      <c r="F49" s="1">
+        <v>15</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0</v>
+      </c>
+      <c r="I49" s="1">
+        <v>0</v>
+      </c>
+      <c r="J49" s="1">
+        <v>0</v>
+      </c>
+      <c r="K49" s="1">
+        <v>0</v>
+      </c>
+      <c r="M49" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/common/Item.xlsx
+++ b/common/Item.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23400" windowHeight="12465"/>
+    <workbookView windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127">
   <si>
     <t>序号</t>
   </si>
@@ -525,7 +525,7 @@
     <t>追忆</t>
   </si>
   <si>
-    <t>Assets\mnRes\Images\icon\453.png</t>
+    <t>Assets/mnRes/Images/icon/453.png</t>
   </si>
   <si>
     <t>荔枝</t>
@@ -594,7 +594,7 @@
     <t>关卡、牢房、副本</t>
   </si>
   <si>
-    <t>Assets\mnRes\Images\icon\49.png</t>
+    <t>Assets/mnRes/Images/icon/49.png</t>
   </si>
   <si>
     <t>威严丸</t>
@@ -603,7 +603,7 @@
     <t>增加卡牌500点威严属性</t>
   </si>
   <si>
-    <t>Assets\mnRes\Images\icon\5.png</t>
+    <t>Assets/mnRes/Images/icon/5.png</t>
   </si>
   <si>
     <t>威严丹</t>
@@ -612,7 +612,7 @@
     <t>增加卡牌1000点威严属性</t>
   </si>
   <si>
-    <t>Assets\mnRes\Images\icon\9.png</t>
+    <t>Assets/mnRes/Images/icon/9.png</t>
   </si>
   <si>
     <t>威严星力</t>
@@ -624,7 +624,7 @@
     <t>商城礼包购买、副本、冲榜奖励、充值奖励</t>
   </si>
   <si>
-    <t>Assets\mnRes\Images\icon\15.png</t>
+    <t>Assets/mnRes/Images/icon/15.png</t>
   </si>
   <si>
     <t>才华星力</t>
@@ -825,9 +825,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -852,9 +852,34 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -871,8 +896,85 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -886,116 +988,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1036,7 +1036,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1048,19 +1192,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1072,151 +1204,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1245,6 +1245,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1263,8 +1272,49 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1284,61 +1334,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1350,10 +1350,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1362,136 +1362,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1837,12 +1837,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/common/Item.xlsx
+++ b/common/Item.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="23535" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="156">
   <si>
     <t>序号</t>
   </si>
@@ -585,7 +585,7 @@
     <t>玛瑙天珠手串</t>
   </si>
   <si>
-    <t>威严散</t>
+    <t>威严玉露</t>
   </si>
   <si>
     <t>增加卡牌100点威严属性</t>
@@ -594,10 +594,40 @@
     <t>关卡、牢房、副本</t>
   </si>
   <si>
+    <t>majesty</t>
+  </si>
+  <si>
     <t>Assets/mnRes/Images/icon/49.png</t>
   </si>
   <si>
-    <t>威严丸</t>
+    <t>才华玉露</t>
+  </si>
+  <si>
+    <t>增加卡牌100点才华属性</t>
+  </si>
+  <si>
+    <t>talent</t>
+  </si>
+  <si>
+    <t>聪慧玉露</t>
+  </si>
+  <si>
+    <t>增加卡牌100点聪慧属性</t>
+  </si>
+  <si>
+    <t>intelligent</t>
+  </si>
+  <si>
+    <t>魅力玉露</t>
+  </si>
+  <si>
+    <t>增加卡牌100点魅力属性</t>
+  </si>
+  <si>
+    <t>charm</t>
+  </si>
+  <si>
+    <t>威严清浆</t>
   </si>
   <si>
     <t>增加卡牌500点威严属性</t>
@@ -606,7 +636,25 @@
     <t>Assets/mnRes/Images/icon/5.png</t>
   </si>
   <si>
-    <t>威严丹</t>
+    <t>才华清浆</t>
+  </si>
+  <si>
+    <t>增加卡牌500点才华属性</t>
+  </si>
+  <si>
+    <t>聪慧清浆</t>
+  </si>
+  <si>
+    <t>增加卡牌500点聪慧属性</t>
+  </si>
+  <si>
+    <t>魅力清浆</t>
+  </si>
+  <si>
+    <t>增加卡牌500点魅力属性</t>
+  </si>
+  <si>
+    <t>威严灵泉</t>
   </si>
   <si>
     <t>增加卡牌1000点威严属性</t>
@@ -615,6 +663,48 @@
     <t>Assets/mnRes/Images/icon/9.png</t>
   </si>
   <si>
+    <t>才华灵泉</t>
+  </si>
+  <si>
+    <t>增加卡牌1000点才华属性</t>
+  </si>
+  <si>
+    <t>聪慧灵泉</t>
+  </si>
+  <si>
+    <t>增加卡牌1000点聪慧属性</t>
+  </si>
+  <si>
+    <t>魅力灵泉</t>
+  </si>
+  <si>
+    <t>增加卡牌1000点魅力属性</t>
+  </si>
+  <si>
+    <t>威严天酿</t>
+  </si>
+  <si>
+    <t>增加卡牌5000点威严属性</t>
+  </si>
+  <si>
+    <t>才华天酿</t>
+  </si>
+  <si>
+    <t>增加卡牌5000点才华属性</t>
+  </si>
+  <si>
+    <t>聪慧天酿</t>
+  </si>
+  <si>
+    <t>增加卡牌5000点聪慧属性</t>
+  </si>
+  <si>
+    <t>魅力天酿</t>
+  </si>
+  <si>
+    <t>增加卡牌5000点魅力属性</t>
+  </si>
+  <si>
     <t>威严星力</t>
   </si>
   <si>
@@ -793,9 +883,6 @@
   </si>
   <si>
     <t>玩家单次【声望】产出的依据</t>
-  </si>
-  <si>
-    <t>charm</t>
   </si>
   <si>
     <t>成长值</t>
@@ -824,10 +911,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -852,37 +939,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -893,14 +949,6 @@
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -919,14 +967,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -950,9 +1007,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -964,9 +1029,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -974,9 +1038,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -987,8 +1059,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -999,6 +1072,20 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1036,19 +1123,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1060,13 +1135,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1084,7 +1165,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1102,25 +1207,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1138,13 +1237,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1156,31 +1267,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1192,31 +1279,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1241,6 +1328,21 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1271,35 +1373,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1319,21 +1412,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1342,6 +1420,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1350,10 +1437,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1362,136 +1449,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1837,12 +1924,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M49"/>
+  <dimension ref="A1:M62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39:G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2783,14 +2870,14 @@
       <c r="F23" s="1">
         <v>1</v>
       </c>
-      <c r="G23" s="1">
-        <v>0</v>
+      <c r="G23" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="H23" s="1">
         <v>1</v>
       </c>
       <c r="I23" s="1">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J23" s="1">
         <v>201001</v>
@@ -2799,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M23" s="1">
         <v>100</v>
@@ -2807,13 +2894,13 @@
     </row>
     <row r="24" ht="33" spans="1:13">
       <c r="A24" s="1">
-        <v>101011</v>
+        <v>101002</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>51</v>
@@ -2824,37 +2911,34 @@
       <c r="F24" s="1">
         <v>1</v>
       </c>
-      <c r="G24" s="1">
-        <v>0</v>
+      <c r="G24" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="H24" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" s="1">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="J24" s="1">
-        <v>201011</v>
+        <v>201002</v>
       </c>
       <c r="K24" s="1">
         <v>0</v>
       </c>
-      <c r="L24" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="M24" s="1">
-        <v>500</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" ht="33" spans="1:13">
       <c r="A25" s="1">
-        <v>101021</v>
+        <v>101003</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>51</v>
@@ -2865,72 +2949,66 @@
       <c r="F25" s="1">
         <v>1</v>
       </c>
-      <c r="G25" s="1">
-        <v>0</v>
+      <c r="G25" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="H25" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I25" s="1">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="J25" s="1">
-        <v>201021</v>
+        <v>201003</v>
       </c>
       <c r="K25" s="1">
         <v>0</v>
       </c>
-      <c r="L25" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="M25" s="1">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" ht="33" spans="1:13">
       <c r="A26" s="1">
-        <v>102001</v>
+        <v>101004</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" s="4" t="s">
         <v>61</v>
       </c>
+      <c r="D26" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="E26" s="1">
         <v>1</v>
       </c>
       <c r="F26" s="1">
-        <v>2</v>
-      </c>
-      <c r="G26" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="H26" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I26" s="1">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="J26" s="1">
-        <v>0</v>
+        <v>201004</v>
       </c>
       <c r="K26" s="1">
         <v>0</v>
       </c>
-      <c r="L26" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="M26" s="1">
-        <v>5000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" ht="33" spans="1:13">
       <c r="A27" s="1">
-        <v>102002</v>
+        <v>101011</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>63</v>
@@ -2938,473 +3016,461 @@
       <c r="C27" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>61</v>
+      <c r="D27" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
       </c>
       <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H27" s="1">
         <v>2</v>
       </c>
-      <c r="G27" s="1">
-        <v>0</v>
-      </c>
-      <c r="H27" s="1">
-        <v>5</v>
-      </c>
       <c r="I27" s="1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="J27" s="1">
-        <v>0</v>
+        <v>201011</v>
       </c>
       <c r="K27" s="1">
         <v>0</v>
       </c>
+      <c r="L27" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="M27" s="1">
-        <v>5000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="28" ht="33" spans="1:13">
       <c r="A28" s="1">
-        <v>102003</v>
+        <v>101012</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
       </c>
       <c r="F28" s="1">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H28" s="1">
         <v>2</v>
       </c>
-      <c r="G28" s="1">
-        <v>0</v>
-      </c>
-      <c r="H28" s="1">
-        <v>5</v>
-      </c>
       <c r="I28" s="1">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="J28" s="1">
-        <v>0</v>
+        <v>201012</v>
       </c>
       <c r="K28" s="1">
         <v>0</v>
       </c>
       <c r="M28" s="1">
-        <v>5000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="29" ht="33" spans="1:13">
       <c r="A29" s="1">
-        <v>102004</v>
+        <v>101013</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>61</v>
+        <v>69</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
       </c>
       <c r="F29" s="1">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H29" s="1">
         <v>2</v>
       </c>
-      <c r="G29" s="1">
-        <v>0</v>
-      </c>
-      <c r="H29" s="1">
-        <v>5</v>
-      </c>
       <c r="I29" s="1">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="J29" s="1">
-        <v>0</v>
+        <v>201013</v>
       </c>
       <c r="K29" s="1">
         <v>0</v>
       </c>
       <c r="M29" s="1">
-        <v>5000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="30" ht="33" spans="1:13">
       <c r="A30" s="1">
-        <v>102005</v>
+        <v>101014</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D30" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>51</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
       </c>
       <c r="F30" s="1">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H30" s="1">
         <v>2</v>
       </c>
-      <c r="G30" s="1">
-        <v>0</v>
-      </c>
-      <c r="H30" s="1">
-        <v>5</v>
-      </c>
       <c r="I30" s="1">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="J30" s="1">
-        <v>0</v>
+        <v>201014</v>
       </c>
       <c r="K30" s="1">
         <v>0</v>
       </c>
       <c r="M30" s="1">
-        <v>5000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="31" ht="33" spans="1:13">
       <c r="A31" s="1">
-        <v>102006</v>
+        <v>101021</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D31" s="4" t="s">
         <v>73</v>
       </c>
+      <c r="D31" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="E31" s="1">
         <v>1</v>
       </c>
       <c r="F31" s="1">
-        <v>2</v>
-      </c>
-      <c r="G31" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="H31" s="1">
         <v>3</v>
       </c>
       <c r="I31" s="1">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="J31" s="1">
-        <v>202006</v>
+        <v>201021</v>
       </c>
       <c r="K31" s="1">
         <v>0</v>
       </c>
+      <c r="L31" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="M31" s="1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32" ht="33" spans="1:13">
       <c r="A32" s="1">
-        <v>106001</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C32" s="1" t="s">
+        <v>101022</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="C32" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="D32" s="1" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="E32" s="1">
         <v>1</v>
       </c>
       <c r="F32" s="1">
-        <v>6</v>
-      </c>
-      <c r="G32" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="H32" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I32" s="1">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J32" s="1">
-        <v>0</v>
+        <v>201022</v>
       </c>
       <c r="K32" s="1">
         <v>0</v>
       </c>
-      <c r="L32" s="1" t="s">
+      <c r="M32" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="33" ht="33" spans="1:13">
+      <c r="A33" s="1">
+        <v>101023</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="1">
+        <v>3</v>
+      </c>
+      <c r="I33" s="1">
+        <v>17</v>
+      </c>
+      <c r="J33" s="1">
+        <v>201023</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0</v>
+      </c>
+      <c r="M33" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="34" ht="33" spans="1:13">
+      <c r="A34" s="1">
+        <v>101024</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="M32" s="1">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="1">
-        <v>106002</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E33" s="1">
-        <v>1</v>
-      </c>
-      <c r="F33" s="1">
-        <v>6</v>
-      </c>
-      <c r="G33" s="1">
-        <v>0</v>
-      </c>
-      <c r="H33" s="1">
-        <v>2</v>
-      </c>
-      <c r="I33" s="1">
-        <v>26</v>
-      </c>
-      <c r="J33" s="1">
-        <v>0</v>
-      </c>
-      <c r="K33" s="1">
-        <v>0</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M33" s="1">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
-      <c r="A34" s="1">
-        <v>106003</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E34" s="1">
-        <v>1</v>
-      </c>
-      <c r="F34" s="1">
-        <v>6</v>
-      </c>
-      <c r="G34" s="1">
-        <v>0</v>
       </c>
       <c r="H34" s="1">
         <v>3</v>
       </c>
       <c r="I34" s="1">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="J34" s="1">
-        <v>0</v>
+        <v>201024</v>
       </c>
       <c r="K34" s="1">
         <v>0</v>
       </c>
-      <c r="L34" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="M34" s="1">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="35" ht="33" spans="1:13">
       <c r="A35" s="1">
-        <v>106004</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C35" s="1" t="s">
+        <v>101031</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>81</v>
       </c>
+      <c r="C35" s="4" t="s">
+        <v>82</v>
+      </c>
       <c r="D35" s="1" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="E35" s="1">
         <v>1</v>
       </c>
       <c r="F35" s="1">
-        <v>6</v>
-      </c>
-      <c r="G35" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="H35" s="1">
         <v>4</v>
       </c>
       <c r="I35" s="1">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="J35" s="1">
-        <v>0</v>
+        <v>201031</v>
       </c>
       <c r="K35" s="1">
         <v>0</v>
       </c>
-      <c r="L35" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="M35" s="1">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="36" ht="33" spans="1:13">
       <c r="A36" s="1">
-        <v>106005</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C36" s="1" t="s">
+        <v>101032</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="C36" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="D36" s="1" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="E36" s="1">
         <v>1</v>
       </c>
       <c r="F36" s="1">
-        <v>6</v>
-      </c>
-      <c r="G36" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="H36" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I36" s="1">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J36" s="1">
-        <v>0</v>
+        <v>201032</v>
       </c>
       <c r="K36" s="1">
         <v>0</v>
       </c>
-      <c r="L36" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="M36" s="1">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="37" ht="33" spans="1:13">
       <c r="A37" s="1">
-        <v>106006</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C37" s="1" t="s">
+        <v>101033</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>85</v>
       </c>
+      <c r="C37" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="D37" s="1" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="E37" s="1">
         <v>1</v>
       </c>
       <c r="F37" s="1">
-        <v>6</v>
-      </c>
-      <c r="G37" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="H37" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I37" s="1">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="J37" s="1">
-        <v>0</v>
+        <v>201033</v>
       </c>
       <c r="K37" s="1">
         <v>0</v>
       </c>
-      <c r="L37" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="M37" s="1">
-        <v>650</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="38" ht="33" spans="1:13">
       <c r="A38" s="1">
-        <v>105001</v>
+        <v>101034</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D38" s="4" t="s">
         <v>88</v>
       </c>
+      <c r="D38" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="E38" s="1">
         <v>1</v>
       </c>
       <c r="F38" s="1">
-        <v>5</v>
-      </c>
-      <c r="G38" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="H38" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I38" s="1">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="J38" s="1">
-        <v>205001</v>
-      </c>
-      <c r="K38" s="4">
+        <v>201034</v>
+      </c>
+      <c r="K38" s="1">
         <v>0</v>
       </c>
       <c r="M38" s="1">
-        <v>150</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="39" ht="33" spans="1:13">
       <c r="A39" s="1">
-        <v>105002</v>
+        <v>102001</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>89</v>
@@ -3419,168 +3485,171 @@
         <v>1</v>
       </c>
       <c r="F39" s="1">
+        <v>2</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H39" s="1">
         <v>5</v>
       </c>
-      <c r="G39" s="1">
-        <v>0</v>
-      </c>
-      <c r="H39" s="1">
-        <v>1</v>
-      </c>
       <c r="I39" s="1">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="J39" s="1">
-        <v>205002</v>
+        <v>0</v>
       </c>
       <c r="K39" s="1">
         <v>0</v>
       </c>
+      <c r="L39" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="M39" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="40" ht="33" spans="1:13">
       <c r="A40" s="1">
-        <v>111001</v>
+        <v>102002</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C40" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="C40" s="4" t="s">
         <v>94</v>
       </c>
+      <c r="D40" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="E40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" s="1">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G40" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H40" s="1">
+        <v>5</v>
+      </c>
+      <c r="I40" s="1">
+        <v>2</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0</v>
+      </c>
+      <c r="K40" s="1">
+        <v>0</v>
+      </c>
+      <c r="M40" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="41" ht="33" spans="1:13">
+      <c r="A41" s="1">
+        <v>102003</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H40" s="1">
-        <v>0</v>
-      </c>
-      <c r="I40" s="1">
-        <v>0</v>
-      </c>
-      <c r="J40" s="1">
-        <v>0</v>
-      </c>
-      <c r="K40" s="1">
-        <v>0</v>
-      </c>
-      <c r="M40" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" ht="49.5" spans="1:13">
-      <c r="A41" s="1">
-        <v>112001</v>
-      </c>
-      <c r="B41" s="1" t="s">
+      <c r="C41" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="D41" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1</v>
+      </c>
+      <c r="F41" s="1">
+        <v>2</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H41" s="1">
+        <v>5</v>
+      </c>
+      <c r="I41" s="1">
+        <v>3</v>
+      </c>
+      <c r="J41" s="1">
+        <v>0</v>
+      </c>
+      <c r="K41" s="1">
+        <v>0</v>
+      </c>
+      <c r="M41" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="42" ht="33" spans="1:13">
+      <c r="A42" s="1">
+        <v>102004</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="C42" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E41" s="4">
-        <v>0</v>
-      </c>
-      <c r="F41" s="1">
-        <v>12</v>
-      </c>
-      <c r="G41" s="1" t="s">
+      <c r="D42" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1</v>
+      </c>
+      <c r="F42" s="1">
+        <v>2</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H42" s="1">
+        <v>5</v>
+      </c>
+      <c r="I42" s="1">
+        <v>4</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0</v>
+      </c>
+      <c r="M42" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="43" ht="33" spans="1:13">
+      <c r="A43" s="1">
+        <v>102005</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H41" s="1">
-        <v>0</v>
-      </c>
-      <c r="I41" s="1">
-        <v>0</v>
-      </c>
-      <c r="J41" s="1">
-        <v>0</v>
-      </c>
-      <c r="K41" s="1">
-        <v>0</v>
-      </c>
-      <c r="M41" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" ht="49.5" spans="1:13">
-      <c r="A42" s="1">
-        <v>112002</v>
-      </c>
-      <c r="B42" s="1" t="s">
+      <c r="C43" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E42" s="1">
-        <v>0</v>
-      </c>
-      <c r="F42" s="1">
-        <v>12</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H42" s="1">
-        <v>0</v>
-      </c>
-      <c r="I42" s="1">
-        <v>0</v>
-      </c>
-      <c r="J42" s="1">
-        <v>0</v>
-      </c>
-      <c r="K42" s="1">
-        <v>0</v>
-      </c>
-      <c r="M42" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" ht="49.5" spans="1:13">
-      <c r="A43" s="1">
-        <v>112003</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>102</v>
+      <c r="D43" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="E43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43" s="1">
-        <v>12</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>106</v>
+        <v>2</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0</v>
       </c>
       <c r="H43" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I43" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J43" s="1">
         <v>0</v>
@@ -3589,150 +3658,156 @@
         <v>0</v>
       </c>
       <c r="M43" s="1">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="44" ht="33" spans="1:13">
       <c r="A44" s="1">
-        <v>114001</v>
+        <v>102006</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E44" s="1">
+        <v>1</v>
+      </c>
+      <c r="F44" s="1">
+        <v>2</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0</v>
+      </c>
+      <c r="H44" s="1">
+        <v>3</v>
+      </c>
+      <c r="I44" s="1">
+        <v>6</v>
+      </c>
+      <c r="J44" s="1">
+        <v>202006</v>
+      </c>
+      <c r="K44" s="1">
+        <v>0</v>
+      </c>
+      <c r="M44" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="1">
+        <v>106001</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E45" s="1">
+        <v>1</v>
+      </c>
+      <c r="F45" s="1">
+        <v>6</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0</v>
+      </c>
+      <c r="H45" s="1">
+        <v>1</v>
+      </c>
+      <c r="I45" s="1">
+        <v>35</v>
+      </c>
+      <c r="J45" s="1">
+        <v>0</v>
+      </c>
+      <c r="K45" s="1">
+        <v>0</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M45" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="1">
+        <v>106002</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="D46" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E46" s="1">
+        <v>1</v>
+      </c>
+      <c r="F46" s="1">
+        <v>6</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0</v>
+      </c>
+      <c r="H46" s="1">
+        <v>2</v>
+      </c>
+      <c r="I46" s="1">
+        <v>36</v>
+      </c>
+      <c r="J46" s="1">
+        <v>0</v>
+      </c>
+      <c r="K46" s="1">
+        <v>0</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M46" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="1">
+        <v>106003</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="C47" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E44" s="1">
-        <v>0</v>
-      </c>
-      <c r="F44" s="1">
-        <v>14</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="H44" s="1">
-        <v>0</v>
-      </c>
-      <c r="I44" s="1">
-        <v>0</v>
-      </c>
-      <c r="J44" s="1">
-        <v>0</v>
-      </c>
-      <c r="K44" s="1">
-        <v>0</v>
-      </c>
-      <c r="M44" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" ht="33" spans="1:13">
-      <c r="A45" s="1">
-        <v>114002</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E45" s="1">
-        <v>0</v>
-      </c>
-      <c r="F45" s="1">
-        <v>14</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H45" s="1">
-        <v>0</v>
-      </c>
-      <c r="I45" s="1">
-        <v>0</v>
-      </c>
-      <c r="J45" s="1">
-        <v>0</v>
-      </c>
-      <c r="K45" s="1">
-        <v>0</v>
-      </c>
-      <c r="M45" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" ht="33" spans="1:13">
-      <c r="A46" s="1">
-        <v>114003</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E46" s="1">
-        <v>0</v>
-      </c>
-      <c r="F46" s="1">
-        <v>14</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H46" s="1">
-        <v>0</v>
-      </c>
-      <c r="I46" s="1">
-        <v>0</v>
-      </c>
-      <c r="J46" s="1">
-        <v>0</v>
-      </c>
-      <c r="K46" s="1">
-        <v>0</v>
-      </c>
-      <c r="M46" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" ht="33" spans="1:13">
-      <c r="A47" s="1">
-        <v>114004</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>109</v>
+      <c r="D47" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="E47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" s="1">
-        <v>14</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>119</v>
+        <v>6</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0</v>
       </c>
       <c r="H47" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I47" s="1">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="J47" s="1">
         <v>0</v>
@@ -3740,37 +3815,40 @@
       <c r="K47" s="1">
         <v>0</v>
       </c>
+      <c r="L47" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="M47" s="1">
-        <v>0</v>
+        <v>350</v>
       </c>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="1">
-        <v>115001</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>120</v>
+        <v>106004</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="E48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" s="1">
-        <v>15</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>123</v>
+        <v>6</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0</v>
       </c>
       <c r="H48" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I48" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J48" s="1">
         <v>0</v>
@@ -3778,45 +3856,548 @@
       <c r="K48" s="1">
         <v>0</v>
       </c>
+      <c r="L48" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="M48" s="1">
-        <v>0</v>
+        <v>450</v>
       </c>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="1">
+        <v>106005</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E49" s="1">
+        <v>1</v>
+      </c>
+      <c r="F49" s="1">
+        <v>6</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0</v>
+      </c>
+      <c r="H49" s="1">
+        <v>5</v>
+      </c>
+      <c r="I49" s="1">
+        <v>39</v>
+      </c>
+      <c r="J49" s="1">
+        <v>0</v>
+      </c>
+      <c r="K49" s="1">
+        <v>0</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M49" s="1">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="1">
+        <v>106006</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E50" s="1">
+        <v>1</v>
+      </c>
+      <c r="F50" s="1">
+        <v>6</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0</v>
+      </c>
+      <c r="H50" s="1">
+        <v>6</v>
+      </c>
+      <c r="I50" s="1">
+        <v>40</v>
+      </c>
+      <c r="J50" s="1">
+        <v>0</v>
+      </c>
+      <c r="K50" s="1">
+        <v>0</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M50" s="1">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="51" ht="33" spans="1:13">
+      <c r="A51" s="1">
+        <v>105001</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E51" s="1">
+        <v>1</v>
+      </c>
+      <c r="F51" s="1">
+        <v>5</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0</v>
+      </c>
+      <c r="H51" s="1">
+        <v>1</v>
+      </c>
+      <c r="I51" s="1">
+        <v>51</v>
+      </c>
+      <c r="J51" s="1">
+        <v>205001</v>
+      </c>
+      <c r="K51" s="4">
+        <v>0</v>
+      </c>
+      <c r="M51" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="52" ht="33" spans="1:13">
+      <c r="A52" s="1">
+        <v>105002</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E52" s="1">
+        <v>1</v>
+      </c>
+      <c r="F52" s="1">
+        <v>5</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0</v>
+      </c>
+      <c r="H52" s="1">
+        <v>1</v>
+      </c>
+      <c r="I52" s="1">
+        <v>52</v>
+      </c>
+      <c r="J52" s="1">
+        <v>205002</v>
+      </c>
+      <c r="K52" s="1">
+        <v>0</v>
+      </c>
+      <c r="M52" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="1">
+        <v>111001</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0</v>
+      </c>
+      <c r="F53" s="1">
+        <v>11</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H53" s="1">
+        <v>0</v>
+      </c>
+      <c r="I53" s="1">
+        <v>0</v>
+      </c>
+      <c r="J53" s="1">
+        <v>0</v>
+      </c>
+      <c r="K53" s="1">
+        <v>0</v>
+      </c>
+      <c r="M53" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" ht="49.5" spans="1:13">
+      <c r="A54" s="1">
+        <v>112001</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E54" s="4">
+        <v>0</v>
+      </c>
+      <c r="F54" s="1">
+        <v>12</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H54" s="1">
+        <v>0</v>
+      </c>
+      <c r="I54" s="1">
+        <v>0</v>
+      </c>
+      <c r="J54" s="1">
+        <v>0</v>
+      </c>
+      <c r="K54" s="1">
+        <v>0</v>
+      </c>
+      <c r="M54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" ht="49.5" spans="1:13">
+      <c r="A55" s="1">
+        <v>112002</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0</v>
+      </c>
+      <c r="F55" s="1">
+        <v>12</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H55" s="1">
+        <v>0</v>
+      </c>
+      <c r="I55" s="1">
+        <v>0</v>
+      </c>
+      <c r="J55" s="1">
+        <v>0</v>
+      </c>
+      <c r="K55" s="1">
+        <v>0</v>
+      </c>
+      <c r="M55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" ht="49.5" spans="1:13">
+      <c r="A56" s="1">
+        <v>112003</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0</v>
+      </c>
+      <c r="F56" s="1">
+        <v>12</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H56" s="1">
+        <v>0</v>
+      </c>
+      <c r="I56" s="1">
+        <v>0</v>
+      </c>
+      <c r="J56" s="1">
+        <v>0</v>
+      </c>
+      <c r="K56" s="1">
+        <v>0</v>
+      </c>
+      <c r="M56" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" ht="33" spans="1:13">
+      <c r="A57" s="1">
+        <v>114001</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E57" s="1">
+        <v>0</v>
+      </c>
+      <c r="F57" s="1">
+        <v>14</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H57" s="1">
+        <v>0</v>
+      </c>
+      <c r="I57" s="1">
+        <v>0</v>
+      </c>
+      <c r="J57" s="1">
+        <v>0</v>
+      </c>
+      <c r="K57" s="1">
+        <v>0</v>
+      </c>
+      <c r="M57" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" ht="33" spans="1:13">
+      <c r="A58" s="1">
+        <v>114002</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E58" s="1">
+        <v>0</v>
+      </c>
+      <c r="F58" s="1">
+        <v>14</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H58" s="1">
+        <v>0</v>
+      </c>
+      <c r="I58" s="1">
+        <v>0</v>
+      </c>
+      <c r="J58" s="1">
+        <v>0</v>
+      </c>
+      <c r="K58" s="1">
+        <v>0</v>
+      </c>
+      <c r="M58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" ht="33" spans="1:13">
+      <c r="A59" s="1">
+        <v>114003</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E59" s="1">
+        <v>0</v>
+      </c>
+      <c r="F59" s="1">
+        <v>14</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H59" s="1">
+        <v>0</v>
+      </c>
+      <c r="I59" s="1">
+        <v>0</v>
+      </c>
+      <c r="J59" s="1">
+        <v>0</v>
+      </c>
+      <c r="K59" s="1">
+        <v>0</v>
+      </c>
+      <c r="M59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" ht="33" spans="1:13">
+      <c r="A60" s="1">
+        <v>114004</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E60" s="1">
+        <v>0</v>
+      </c>
+      <c r="F60" s="1">
+        <v>14</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H60" s="1">
+        <v>0</v>
+      </c>
+      <c r="I60" s="1">
+        <v>0</v>
+      </c>
+      <c r="J60" s="1">
+        <v>0</v>
+      </c>
+      <c r="K60" s="1">
+        <v>0</v>
+      </c>
+      <c r="M60" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="1">
+        <v>115001</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E61" s="1">
+        <v>0</v>
+      </c>
+      <c r="F61" s="1">
+        <v>15</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H61" s="1">
+        <v>0</v>
+      </c>
+      <c r="I61" s="1">
+        <v>0</v>
+      </c>
+      <c r="J61" s="1">
+        <v>0</v>
+      </c>
+      <c r="K61" s="1">
+        <v>0</v>
+      </c>
+      <c r="M61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="1">
         <v>115002</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D49" s="1" t="s">
+      <c r="B62" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E49" s="1">
-        <v>0</v>
-      </c>
-      <c r="F49" s="1">
+      <c r="E62" s="1">
+        <v>0</v>
+      </c>
+      <c r="F62" s="1">
         <v>15</v>
       </c>
-      <c r="G49" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="H49" s="1">
-        <v>0</v>
-      </c>
-      <c r="I49" s="1">
-        <v>0</v>
-      </c>
-      <c r="J49" s="1">
-        <v>0</v>
-      </c>
-      <c r="K49" s="1">
-        <v>0</v>
-      </c>
-      <c r="M49" s="1">
+      <c r="G62" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H62" s="1">
+        <v>0</v>
+      </c>
+      <c r="I62" s="1">
+        <v>0</v>
+      </c>
+      <c r="J62" s="1">
+        <v>0</v>
+      </c>
+      <c r="K62" s="1">
+        <v>0</v>
+      </c>
+      <c r="M62" s="1">
         <v>0</v>
       </c>
     </row>

--- a/common/Item.xlsx
+++ b/common/Item.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23535" windowHeight="12465"/>
+    <workbookView windowWidth="24180" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153">
   <si>
     <t>序号</t>
   </si>
@@ -36,13 +36,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">道具类型
 </t>
     </r>
@@ -135,14 +128,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">掉落组id
+      <t xml:space="preserve">奖励组id
 </t>
     </r>
     <r>
@@ -594,9 +580,6 @@
     <t>关卡、牢房、副本</t>
   </si>
   <si>
-    <t>majesty</t>
-  </si>
-  <si>
     <t>Assets/mnRes/Images/icon/49.png</t>
   </si>
   <si>
@@ -606,283 +589,277 @@
     <t>增加卡牌100点才华属性</t>
   </si>
   <si>
-    <t>talent</t>
-  </si>
-  <si>
     <t>聪慧玉露</t>
   </si>
   <si>
     <t>增加卡牌100点聪慧属性</t>
   </si>
   <si>
-    <t>intelligent</t>
-  </si>
-  <si>
     <t>魅力玉露</t>
   </si>
   <si>
     <t>增加卡牌100点魅力属性</t>
   </si>
   <si>
+    <t>威严清浆</t>
+  </si>
+  <si>
+    <t>增加卡牌500点威严属性</t>
+  </si>
+  <si>
+    <t>Assets/mnRes/Images/icon/5.png</t>
+  </si>
+  <si>
+    <t>才华清浆</t>
+  </si>
+  <si>
+    <t>增加卡牌500点才华属性</t>
+  </si>
+  <si>
+    <t>聪慧清浆</t>
+  </si>
+  <si>
+    <t>增加卡牌500点聪慧属性</t>
+  </si>
+  <si>
+    <t>魅力清浆</t>
+  </si>
+  <si>
+    <t>增加卡牌500点魅力属性</t>
+  </si>
+  <si>
+    <t>威严灵泉</t>
+  </si>
+  <si>
+    <t>增加卡牌1000点威严属性</t>
+  </si>
+  <si>
+    <t>Assets/mnRes/Images/icon/9.png</t>
+  </si>
+  <si>
+    <t>才华灵泉</t>
+  </si>
+  <si>
+    <t>增加卡牌1000点才华属性</t>
+  </si>
+  <si>
+    <t>聪慧灵泉</t>
+  </si>
+  <si>
+    <t>增加卡牌1000点聪慧属性</t>
+  </si>
+  <si>
+    <t>魅力灵泉</t>
+  </si>
+  <si>
+    <t>增加卡牌1000点魅力属性</t>
+  </si>
+  <si>
+    <t>威严天酿</t>
+  </si>
+  <si>
+    <t>增加卡牌5000点威严属性</t>
+  </si>
+  <si>
+    <t>才华天酿</t>
+  </si>
+  <si>
+    <t>增加卡牌5000点才华属性</t>
+  </si>
+  <si>
+    <t>聪慧天酿</t>
+  </si>
+  <si>
+    <t>增加卡牌5000点聪慧属性</t>
+  </si>
+  <si>
+    <t>魅力天酿</t>
+  </si>
+  <si>
+    <t>增加卡牌5000点魅力属性</t>
+  </si>
+  <si>
+    <t>威严星力</t>
+  </si>
+  <si>
+    <t>提升卡牌威严星运等级</t>
+  </si>
+  <si>
+    <t>商城礼包购买、副本、冲榜奖励、充值奖励</t>
+  </si>
+  <si>
+    <t>Assets/mnRes/Images/icon/15.png</t>
+  </si>
+  <si>
+    <t>才华星力</t>
+  </si>
+  <si>
+    <t>提升卡牌才华星运等级</t>
+  </si>
+  <si>
+    <t>聪慧星力</t>
+  </si>
+  <si>
+    <t>提升卡牌聪慧星运等级</t>
+  </si>
+  <si>
+    <t>魅力星力</t>
+  </si>
+  <si>
+    <t>提升卡牌魅力星运等级</t>
+  </si>
+  <si>
+    <t>彩色星罐</t>
+  </si>
+  <si>
+    <t>获得一种属性星力</t>
+  </si>
+  <si>
+    <t>星瓶碎片</t>
+  </si>
+  <si>
+    <t>增加卡牌星运碎片50</t>
+  </si>
+  <si>
+    <t>副本、活动、充值奖励</t>
+  </si>
+  <si>
+    <t>月白石</t>
+  </si>
+  <si>
+    <t>卡牌1阶突破道具</t>
+  </si>
+  <si>
+    <t>石青石</t>
+  </si>
+  <si>
+    <t>卡牌2阶突破道具</t>
+  </si>
+  <si>
+    <t>黛蓝石</t>
+  </si>
+  <si>
+    <t>卡牌3阶突破道具</t>
+  </si>
+  <si>
+    <t>紫棠石</t>
+  </si>
+  <si>
+    <t>卡牌4阶突破道具</t>
+  </si>
+  <si>
+    <t>琥珀石</t>
+  </si>
+  <si>
+    <t>卡牌5阶突破道具</t>
+  </si>
+  <si>
+    <t>赤朱石</t>
+  </si>
+  <si>
+    <t>卡牌6阶突破道具</t>
+  </si>
+  <si>
+    <t>恢复卡</t>
+  </si>
+  <si>
+    <t>使用后恢复1次家事次数</t>
+  </si>
+  <si>
+    <t>主线、登录奖励、商城礼包购买</t>
+  </si>
+  <si>
+    <t>出战卡</t>
+  </si>
+  <si>
+    <t>使用后恢复1次卡牌出战次数</t>
+  </si>
+  <si>
+    <t>商城礼包购买、冲榜奖励、充值奖励</t>
+  </si>
+  <si>
+    <t>黄金</t>
+  </si>
+  <si>
+    <t>商城货币</t>
+  </si>
+  <si>
+    <t>充值</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>铜钱</t>
+  </si>
+  <si>
+    <t>主要资源之一，游戏内产出，主要用于升级卡牌</t>
+  </si>
+  <si>
+    <t>家事、关卡、活动奖励</t>
+  </si>
+  <si>
+    <t>cash</t>
+  </si>
+  <si>
+    <t>阅历</t>
+  </si>
+  <si>
+    <t>主要资源之一，游戏内产出，主要用于获取声望</t>
+  </si>
+  <si>
+    <t>家事、活动奖励</t>
+  </si>
+  <si>
+    <t>exp</t>
+  </si>
+  <si>
+    <t>声望</t>
+  </si>
+  <si>
+    <t>主要资源之一，游戏内产出，主要用于关卡消耗</t>
+  </si>
+  <si>
+    <t>rep</t>
+  </si>
+  <si>
+    <t>威严</t>
+  </si>
+  <si>
+    <t>决定玩家关卡的战斗力</t>
+  </si>
+  <si>
+    <t>卡牌、道具、拾光、作品、羁绊</t>
+  </si>
+  <si>
+    <t>maje</t>
+  </si>
+  <si>
+    <t>才华</t>
+  </si>
+  <si>
+    <t>玩家单次【阅历】产出的依据</t>
+  </si>
+  <si>
+    <t>tale</t>
+  </si>
+  <si>
+    <t>聪慧</t>
+  </si>
+  <si>
+    <t>玩家单次【铜钱】产出的依据</t>
+  </si>
+  <si>
+    <t>intel</t>
+  </si>
+  <si>
+    <t>魅力</t>
+  </si>
+  <si>
+    <t>玩家单次【声望】产出的依据</t>
+  </si>
+  <si>
     <t>charm</t>
-  </si>
-  <si>
-    <t>威严清浆</t>
-  </si>
-  <si>
-    <t>增加卡牌500点威严属性</t>
-  </si>
-  <si>
-    <t>Assets/mnRes/Images/icon/5.png</t>
-  </si>
-  <si>
-    <t>才华清浆</t>
-  </si>
-  <si>
-    <t>增加卡牌500点才华属性</t>
-  </si>
-  <si>
-    <t>聪慧清浆</t>
-  </si>
-  <si>
-    <t>增加卡牌500点聪慧属性</t>
-  </si>
-  <si>
-    <t>魅力清浆</t>
-  </si>
-  <si>
-    <t>增加卡牌500点魅力属性</t>
-  </si>
-  <si>
-    <t>威严灵泉</t>
-  </si>
-  <si>
-    <t>增加卡牌1000点威严属性</t>
-  </si>
-  <si>
-    <t>Assets/mnRes/Images/icon/9.png</t>
-  </si>
-  <si>
-    <t>才华灵泉</t>
-  </si>
-  <si>
-    <t>增加卡牌1000点才华属性</t>
-  </si>
-  <si>
-    <t>聪慧灵泉</t>
-  </si>
-  <si>
-    <t>增加卡牌1000点聪慧属性</t>
-  </si>
-  <si>
-    <t>魅力灵泉</t>
-  </si>
-  <si>
-    <t>增加卡牌1000点魅力属性</t>
-  </si>
-  <si>
-    <t>威严天酿</t>
-  </si>
-  <si>
-    <t>增加卡牌5000点威严属性</t>
-  </si>
-  <si>
-    <t>才华天酿</t>
-  </si>
-  <si>
-    <t>增加卡牌5000点才华属性</t>
-  </si>
-  <si>
-    <t>聪慧天酿</t>
-  </si>
-  <si>
-    <t>增加卡牌5000点聪慧属性</t>
-  </si>
-  <si>
-    <t>魅力天酿</t>
-  </si>
-  <si>
-    <t>增加卡牌5000点魅力属性</t>
-  </si>
-  <si>
-    <t>威严星力</t>
-  </si>
-  <si>
-    <t>提升卡牌威严星运等级</t>
-  </si>
-  <si>
-    <t>商城礼包购买、副本、冲榜奖励、充值奖励</t>
-  </si>
-  <si>
-    <t>Assets/mnRes/Images/icon/15.png</t>
-  </si>
-  <si>
-    <t>才华星力</t>
-  </si>
-  <si>
-    <t>提升卡牌才华星运等级</t>
-  </si>
-  <si>
-    <t>聪慧星力</t>
-  </si>
-  <si>
-    <t>提升卡牌聪慧星运等级</t>
-  </si>
-  <si>
-    <t>魅力星力</t>
-  </si>
-  <si>
-    <t>提升卡牌魅力星运等级</t>
-  </si>
-  <si>
-    <t>彩色星罐</t>
-  </si>
-  <si>
-    <t>获得一种属性星力</t>
-  </si>
-  <si>
-    <t>星瓶碎片</t>
-  </si>
-  <si>
-    <t>增加卡牌星运碎片50</t>
-  </si>
-  <si>
-    <t>副本、活动、充值奖励</t>
-  </si>
-  <si>
-    <t>月白石</t>
-  </si>
-  <si>
-    <t>卡牌1阶突破道具</t>
-  </si>
-  <si>
-    <t>石青石</t>
-  </si>
-  <si>
-    <t>卡牌2阶突破道具</t>
-  </si>
-  <si>
-    <t>黛蓝石</t>
-  </si>
-  <si>
-    <t>卡牌3阶突破道具</t>
-  </si>
-  <si>
-    <t>紫棠石</t>
-  </si>
-  <si>
-    <t>卡牌4阶突破道具</t>
-  </si>
-  <si>
-    <t>琥珀石</t>
-  </si>
-  <si>
-    <t>卡牌5阶突破道具</t>
-  </si>
-  <si>
-    <t>赤朱石</t>
-  </si>
-  <si>
-    <t>卡牌6阶突破道具</t>
-  </si>
-  <si>
-    <t>恢复卡</t>
-  </si>
-  <si>
-    <t>使用后恢复1次家事次数</t>
-  </si>
-  <si>
-    <t>主线、登录奖励、商城礼包购买</t>
-  </si>
-  <si>
-    <t>出战卡</t>
-  </si>
-  <si>
-    <t>使用后恢复1次卡牌出战次数</t>
-  </si>
-  <si>
-    <t>商城礼包购买、冲榜奖励、充值奖励</t>
-  </si>
-  <si>
-    <t>黄金</t>
-  </si>
-  <si>
-    <t>商城货币</t>
-  </si>
-  <si>
-    <t>充值</t>
-  </si>
-  <si>
-    <t>gold</t>
-  </si>
-  <si>
-    <t>铜钱</t>
-  </si>
-  <si>
-    <t>主要资源之一，游戏内产出，主要用于升级卡牌</t>
-  </si>
-  <si>
-    <t>家事、关卡、活动奖励</t>
-  </si>
-  <si>
-    <t>cash</t>
-  </si>
-  <si>
-    <t>阅历</t>
-  </si>
-  <si>
-    <t>主要资源之一，游戏内产出，主要用于获取声望</t>
-  </si>
-  <si>
-    <t>家事、活动奖励</t>
-  </si>
-  <si>
-    <t>exp</t>
-  </si>
-  <si>
-    <t>声望</t>
-  </si>
-  <si>
-    <t>主要资源之一，游戏内产出，主要用于关卡消耗</t>
-  </si>
-  <si>
-    <t>rep</t>
-  </si>
-  <si>
-    <t>威严</t>
-  </si>
-  <si>
-    <t>决定玩家关卡的战斗力</t>
-  </si>
-  <si>
-    <t>卡牌、道具、拾光、作品、羁绊</t>
-  </si>
-  <si>
-    <t>maje</t>
-  </si>
-  <si>
-    <t>才华</t>
-  </si>
-  <si>
-    <t>玩家单次【阅历】产出的依据</t>
-  </si>
-  <si>
-    <t>tale</t>
-  </si>
-  <si>
-    <t>聪慧</t>
-  </si>
-  <si>
-    <t>玩家单次【铜钱】产出的依据</t>
-  </si>
-  <si>
-    <t>intel</t>
-  </si>
-  <si>
-    <t>魅力</t>
-  </si>
-  <si>
-    <t>玩家单次【声望】产出的依据</t>
   </si>
   <si>
     <t>成长值</t>
@@ -912,9 +889,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -938,17 +915,19 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -959,47 +938,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1022,6 +970,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -1030,45 +986,42 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1082,10 +1035,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1102,7 +1079,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1123,7 +1100,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1135,7 +1136,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1147,19 +1148,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1171,55 +1238,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1231,25 +1262,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1261,37 +1274,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1349,30 +1332,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1397,6 +1356,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1415,8 +1383,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1424,8 +1392,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1437,10 +1420,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1449,138 +1432,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1595,6 +1578,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1924,12 +1910,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:M62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39:G42"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2060,7 +2046,7 @@
         <v>71</v>
       </c>
       <c r="J3" s="1">
-        <v>207001</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
         <v>0</v>
@@ -2101,7 +2087,7 @@
         <v>72</v>
       </c>
       <c r="J4" s="1">
-        <v>207002</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
         <v>0</v>
@@ -2142,7 +2128,7 @@
         <v>73</v>
       </c>
       <c r="J5" s="1">
-        <v>207003</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
         <v>0</v>
@@ -2183,7 +2169,7 @@
         <v>74</v>
       </c>
       <c r="J6" s="1">
-        <v>207004</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
         <v>0</v>
@@ -2224,7 +2210,7 @@
         <v>75</v>
       </c>
       <c r="J7" s="1">
-        <v>207005</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
         <v>0</v>
@@ -2265,7 +2251,7 @@
         <v>76</v>
       </c>
       <c r="J8" s="1">
-        <v>207006</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
         <v>0</v>
@@ -2306,7 +2292,7 @@
         <v>77</v>
       </c>
       <c r="J9" s="1">
-        <v>207007</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
         <v>0</v>
@@ -2347,7 +2333,7 @@
         <v>78</v>
       </c>
       <c r="J10" s="1">
-        <v>207008</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
         <v>0</v>
@@ -2388,7 +2374,7 @@
         <v>79</v>
       </c>
       <c r="J11" s="1">
-        <v>207009</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
         <v>0</v>
@@ -2429,7 +2415,7 @@
         <v>80</v>
       </c>
       <c r="J12" s="1">
-        <v>207010</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
         <v>0</v>
@@ -2470,7 +2456,7 @@
         <v>81</v>
       </c>
       <c r="J13" s="1">
-        <v>207011</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
         <v>0</v>
@@ -2511,7 +2497,7 @@
         <v>82</v>
       </c>
       <c r="J14" s="1">
-        <v>207012</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
         <v>0</v>
@@ -2552,7 +2538,7 @@
         <v>83</v>
       </c>
       <c r="J15" s="1">
-        <v>207013</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
         <v>0</v>
@@ -2593,7 +2579,7 @@
         <v>84</v>
       </c>
       <c r="J16" s="1">
-        <v>207014</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
         <v>0</v>
@@ -2634,7 +2620,7 @@
         <v>85</v>
       </c>
       <c r="J17" s="1">
-        <v>207015</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
         <v>0</v>
@@ -2675,7 +2661,7 @@
         <v>86</v>
       </c>
       <c r="J18" s="1">
-        <v>207016</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>0</v>
@@ -2716,7 +2702,7 @@
         <v>87</v>
       </c>
       <c r="J19" s="1">
-        <v>207017</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
         <v>0</v>
@@ -2757,7 +2743,7 @@
         <v>88</v>
       </c>
       <c r="J20" s="1">
-        <v>207018</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
         <v>0</v>
@@ -2798,7 +2784,7 @@
         <v>89</v>
       </c>
       <c r="J21" s="1">
-        <v>207019</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
         <v>0</v>
@@ -2839,7 +2825,7 @@
         <v>90</v>
       </c>
       <c r="J22" s="1">
-        <v>207020</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
         <v>0</v>
@@ -2870,8 +2856,8 @@
       <c r="F23" s="1">
         <v>1</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>52</v>
+      <c r="G23" s="1">
+        <v>0</v>
       </c>
       <c r="H23" s="1">
         <v>1</v>
@@ -2886,7 +2872,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M23" s="1">
         <v>100</v>
@@ -2897,10 +2883,10 @@
         <v>101002</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>51</v>
@@ -2911,8 +2897,8 @@
       <c r="F24" s="1">
         <v>1</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>56</v>
+      <c r="G24" s="1">
+        <v>0</v>
       </c>
       <c r="H24" s="1">
         <v>1</v>
@@ -2935,10 +2921,10 @@
         <v>101003</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>51</v>
@@ -2949,8 +2935,8 @@
       <c r="F25" s="1">
         <v>1</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>59</v>
+      <c r="G25" s="1">
+        <v>0</v>
       </c>
       <c r="H25" s="1">
         <v>1</v>
@@ -2973,10 +2959,10 @@
         <v>101004</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>51</v>
@@ -2987,8 +2973,8 @@
       <c r="F26" s="1">
         <v>1</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>62</v>
+      <c r="G26" s="1">
+        <v>0</v>
       </c>
       <c r="H26" s="1">
         <v>1</v>
@@ -3011,10 +2997,10 @@
         <v>101011</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>51</v>
@@ -3025,8 +3011,8 @@
       <c r="F27" s="1">
         <v>1</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>52</v>
+      <c r="G27" s="1">
+        <v>0</v>
       </c>
       <c r="H27" s="1">
         <v>2</v>
@@ -3041,7 +3027,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="M27" s="1">
         <v>500</v>
@@ -3052,10 +3038,10 @@
         <v>101012</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>51</v>
@@ -3066,8 +3052,8 @@
       <c r="F28" s="1">
         <v>1</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>56</v>
+      <c r="G28" s="1">
+        <v>0</v>
       </c>
       <c r="H28" s="1">
         <v>2</v>
@@ -3090,10 +3076,10 @@
         <v>101013</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>51</v>
@@ -3104,8 +3090,8 @@
       <c r="F29" s="1">
         <v>1</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>59</v>
+      <c r="G29" s="1">
+        <v>0</v>
       </c>
       <c r="H29" s="1">
         <v>2</v>
@@ -3128,10 +3114,10 @@
         <v>101014</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>51</v>
@@ -3142,8 +3128,8 @@
       <c r="F30" s="1">
         <v>1</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>62</v>
+      <c r="G30" s="1">
+        <v>0</v>
       </c>
       <c r="H30" s="1">
         <v>2</v>
@@ -3166,10 +3152,10 @@
         <v>101021</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>51</v>
@@ -3180,8 +3166,8 @@
       <c r="F31" s="1">
         <v>1</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>52</v>
+      <c r="G31" s="1">
+        <v>0</v>
       </c>
       <c r="H31" s="1">
         <v>3</v>
@@ -3196,7 +3182,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="M31" s="1">
         <v>1000</v>
@@ -3207,10 +3193,10 @@
         <v>101022</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>51</v>
@@ -3221,8 +3207,8 @@
       <c r="F32" s="1">
         <v>1</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>56</v>
+      <c r="G32" s="1">
+        <v>0</v>
       </c>
       <c r="H32" s="1">
         <v>3</v>
@@ -3245,10 +3231,10 @@
         <v>101023</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>51</v>
@@ -3259,8 +3245,8 @@
       <c r="F33" s="1">
         <v>1</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>59</v>
+      <c r="G33" s="1">
+        <v>0</v>
       </c>
       <c r="H33" s="1">
         <v>3</v>
@@ -3283,10 +3269,10 @@
         <v>101024</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>51</v>
@@ -3297,8 +3283,8 @@
       <c r="F34" s="1">
         <v>1</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>62</v>
+      <c r="G34" s="1">
+        <v>0</v>
       </c>
       <c r="H34" s="1">
         <v>3</v>
@@ -3321,10 +3307,10 @@
         <v>101031</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>51</v>
@@ -3335,8 +3321,8 @@
       <c r="F35" s="1">
         <v>1</v>
       </c>
-      <c r="G35" s="1" t="s">
-        <v>52</v>
+      <c r="G35" s="1">
+        <v>0</v>
       </c>
       <c r="H35" s="1">
         <v>4</v>
@@ -3359,10 +3345,10 @@
         <v>101032</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>51</v>
@@ -3373,8 +3359,8 @@
       <c r="F36" s="1">
         <v>1</v>
       </c>
-      <c r="G36" s="1" t="s">
-        <v>56</v>
+      <c r="G36" s="1">
+        <v>0</v>
       </c>
       <c r="H36" s="1">
         <v>4</v>
@@ -3397,10 +3383,10 @@
         <v>101033</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>51</v>
@@ -3411,8 +3397,8 @@
       <c r="F37" s="1">
         <v>1</v>
       </c>
-      <c r="G37" s="1" t="s">
-        <v>59</v>
+      <c r="G37" s="1">
+        <v>0</v>
       </c>
       <c r="H37" s="1">
         <v>4</v>
@@ -3435,10 +3421,10 @@
         <v>101034</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>51</v>
@@ -3449,8 +3435,8 @@
       <c r="F38" s="1">
         <v>1</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>62</v>
+      <c r="G38" s="1">
+        <v>0</v>
       </c>
       <c r="H38" s="1">
         <v>4</v>
@@ -3473,13 +3459,13 @@
         <v>102001</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E39" s="1">
         <v>1</v>
@@ -3487,8 +3473,8 @@
       <c r="F39" s="1">
         <v>2</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>52</v>
+      <c r="G39" s="1">
+        <v>0</v>
       </c>
       <c r="H39" s="1">
         <v>5</v>
@@ -3503,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="M39" s="1">
         <v>5000</v>
@@ -3514,13 +3500,13 @@
         <v>102002</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E40" s="1">
         <v>1</v>
@@ -3528,8 +3514,8 @@
       <c r="F40" s="1">
         <v>2</v>
       </c>
-      <c r="G40" s="1" t="s">
-        <v>56</v>
+      <c r="G40" s="1">
+        <v>0</v>
       </c>
       <c r="H40" s="1">
         <v>5</v>
@@ -3552,13 +3538,13 @@
         <v>102003</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E41" s="1">
         <v>1</v>
@@ -3566,8 +3552,8 @@
       <c r="F41" s="1">
         <v>2</v>
       </c>
-      <c r="G41" s="1" t="s">
-        <v>59</v>
+      <c r="G41" s="1">
+        <v>0</v>
       </c>
       <c r="H41" s="1">
         <v>5</v>
@@ -3590,13 +3576,13 @@
         <v>102004</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E42" s="1">
         <v>1</v>
@@ -3604,8 +3590,8 @@
       <c r="F42" s="1">
         <v>2</v>
       </c>
-      <c r="G42" s="1" t="s">
-        <v>62</v>
+      <c r="G42" s="1">
+        <v>0</v>
       </c>
       <c r="H42" s="1">
         <v>5</v>
@@ -3627,11 +3613,11 @@
       <c r="A43" s="1">
         <v>102005</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>99</v>
+      <c r="B43" s="5" t="s">
+        <v>95</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>51</v>
@@ -3666,13 +3652,13 @@
         <v>102006</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E44" s="1">
         <v>1</v>
@@ -3703,14 +3689,14 @@
       <c r="A45" s="1">
         <v>106001</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>104</v>
+      <c r="B45" s="6" t="s">
+        <v>100</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E45" s="1">
         <v>1</v>
@@ -3734,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="M45" s="1">
         <v>150</v>
@@ -3744,14 +3730,14 @@
       <c r="A46" s="1">
         <v>106002</v>
       </c>
-      <c r="B46" s="5" t="s">
-        <v>106</v>
+      <c r="B46" s="6" t="s">
+        <v>102</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E46" s="1">
         <v>1</v>
@@ -3775,7 +3761,7 @@
         <v>0</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="M46" s="1">
         <v>250</v>
@@ -3785,14 +3771,14 @@
       <c r="A47" s="1">
         <v>106003</v>
       </c>
-      <c r="B47" s="5" t="s">
-        <v>108</v>
+      <c r="B47" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E47" s="1">
         <v>1</v>
@@ -3816,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="M47" s="1">
         <v>350</v>
@@ -3826,14 +3812,14 @@
       <c r="A48" s="1">
         <v>106004</v>
       </c>
-      <c r="B48" s="5" t="s">
-        <v>110</v>
+      <c r="B48" s="6" t="s">
+        <v>106</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E48" s="1">
         <v>1</v>
@@ -3857,7 +3843,7 @@
         <v>0</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="M48" s="1">
         <v>450</v>
@@ -3867,14 +3853,14 @@
       <c r="A49" s="1">
         <v>106005</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>112</v>
+      <c r="B49" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E49" s="1">
         <v>1</v>
@@ -3898,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="M49" s="1">
         <v>550</v>
@@ -3908,14 +3894,14 @@
       <c r="A50" s="1">
         <v>106006</v>
       </c>
-      <c r="B50" s="5" t="s">
-        <v>114</v>
+      <c r="B50" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E50" s="1">
         <v>1</v>
@@ -3939,7 +3925,7 @@
         <v>0</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="M50" s="1">
         <v>650</v>
@@ -3950,13 +3936,13 @@
         <v>105001</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E51" s="1">
         <v>1</v>
@@ -3974,7 +3960,7 @@
         <v>51</v>
       </c>
       <c r="J51" s="1">
-        <v>205001</v>
+        <v>0</v>
       </c>
       <c r="K51" s="4">
         <v>0</v>
@@ -3988,13 +3974,13 @@
         <v>105002</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E52" s="1">
         <v>1</v>
@@ -4012,7 +3998,7 @@
         <v>52</v>
       </c>
       <c r="J52" s="1">
-        <v>205002</v>
+        <v>0</v>
       </c>
       <c r="K52" s="1">
         <v>0</v>
@@ -4026,13 +4012,13 @@
         <v>111001</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E53" s="1">
         <v>0</v>
@@ -4041,7 +4027,7 @@
         <v>11</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H53" s="1">
         <v>0</v>
@@ -4064,13 +4050,13 @@
         <v>112001</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E54" s="4">
         <v>0</v>
@@ -4079,7 +4065,7 @@
         <v>12</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H54" s="1">
         <v>0</v>
@@ -4102,13 +4088,13 @@
         <v>112002</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E55" s="1">
         <v>0</v>
@@ -4117,7 +4103,7 @@
         <v>12</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H55" s="1">
         <v>0</v>
@@ -4140,13 +4126,13 @@
         <v>112003</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E56" s="1">
         <v>0</v>
@@ -4155,7 +4141,7 @@
         <v>12</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H56" s="1">
         <v>0</v>
@@ -4178,13 +4164,13 @@
         <v>114001</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E57" s="1">
         <v>0</v>
@@ -4193,7 +4179,7 @@
         <v>14</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H57" s="1">
         <v>0</v>
@@ -4216,13 +4202,13 @@
         <v>114002</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E58" s="1">
         <v>0</v>
@@ -4231,7 +4217,7 @@
         <v>14</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H58" s="1">
         <v>0</v>
@@ -4254,13 +4240,13 @@
         <v>114003</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E59" s="1">
         <v>0</v>
@@ -4269,7 +4255,7 @@
         <v>14</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H59" s="1">
         <v>0</v>
@@ -4292,13 +4278,13 @@
         <v>114004</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E60" s="1">
         <v>0</v>
@@ -4307,7 +4293,7 @@
         <v>14</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>62</v>
+        <v>145</v>
       </c>
       <c r="H60" s="1">
         <v>0</v>
@@ -4330,13 +4316,13 @@
         <v>115001</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E61" s="1">
         <v>0</v>
@@ -4345,7 +4331,7 @@
         <v>15</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H61" s="1">
         <v>0</v>
@@ -4368,10 +4354,10 @@
         <v>115002</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>28</v>
@@ -4383,7 +4369,7 @@
         <v>15</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H62" s="1">
         <v>0</v>

--- a/common/Item.xlsx
+++ b/common/Item.xlsx
@@ -36,6 +36,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">道具类型
 </t>
     </r>
@@ -128,6 +135,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">奖励组id
 </t>
     </r>
@@ -260,14 +274,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">backpack_tpye </t>
+      <t xml:space="preserve">backpack_type </t>
     </r>
     <r>
       <rPr>
@@ -915,29 +922,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -955,14 +939,66 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -978,7 +1014,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -993,20 +1029,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1021,15 +1052,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1043,26 +1066,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1106,7 +1113,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1118,7 +1191,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1130,145 +1281,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1280,13 +1293,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1315,6 +1322,32 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1332,26 +1365,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1380,35 +1405,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1420,10 +1427,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1432,136 +1439,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1914,8 +1921,8 @@
   <sheetPr/>
   <dimension ref="A1:M62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/common/Item.xlsx
+++ b/common/Item.xlsx
@@ -256,6 +256,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">backpack_type </t>
     </r>
     <r>
@@ -522,7 +529,7 @@
     <t>随性玉露</t>
   </si>
   <si>
-    <t>随机增加卡牌100属性</t>
+    <t>增加卡牌100点随机属性</t>
   </si>
   <si>
     <t>关卡、副本积分兑换</t>
@@ -555,7 +562,7 @@
     <t>随性清浆</t>
   </si>
   <si>
-    <t>随机增加卡牌500属性</t>
+    <t>增加卡牌500点随机属性</t>
   </si>
   <si>
     <t>威严灵泉</t>
@@ -585,7 +592,7 @@
     <t>随性灵泉</t>
   </si>
   <si>
-    <t>随机增加卡牌1000属性</t>
+    <t>增加卡牌1000点随机属性</t>
   </si>
   <si>
     <t>威严天酿</t>
@@ -615,7 +622,7 @@
     <t>随性天酿</t>
   </si>
   <si>
-    <t>随机增加卡牌5000属性</t>
+    <t>增加卡牌5000点随机属性</t>
   </si>
   <si>
     <t>威严星力</t>
@@ -678,10 +685,10 @@
     <t>副本、活动、充值奖励</t>
   </si>
   <si>
-    <t>星瓶碎片</t>
-  </si>
-  <si>
-    <t>增加卡牌星运碎片50</t>
+    <t>星尘瓶</t>
+  </si>
+  <si>
+    <t>增加卡牌星尘经验50</t>
   </si>
   <si>
     <t>技能经验书</t>
@@ -1041,16 +1048,16 @@
     <t>favor</t>
   </si>
   <si>
-    <t>星运碎片</t>
-  </si>
-  <si>
-    <t>卡牌的星运碎片</t>
+    <t>星尘经验</t>
+  </si>
+  <si>
+    <t>卡牌的星尘经验</t>
   </si>
   <si>
     <t>道具、占星</t>
   </si>
   <si>
-    <t>energy_piece</t>
+    <t>energy_exp</t>
   </si>
   <si>
     <t>技能经验</t>
@@ -1100,20 +1107,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1126,9 +1135,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1136,7 +1144,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1151,52 +1174,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1212,9 +1197,40 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1227,13 +1243,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1241,12 +1250,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1299,13 +1306,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1317,7 +1372,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1329,7 +1402,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1341,97 +1438,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1449,24 +1456,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1474,6 +1463,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1508,13 +1515,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1534,35 +1578,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1581,30 +1612,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1613,10 +1620,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1625,16 +1632,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1646,115 +1653,115 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -2142,7 +2149,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomRight" activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/common/Item.xlsx
+++ b/common/Item.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23535" windowHeight="12465"/>
+    <workbookView windowWidth="24180" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216">
   <si>
     <t>序号</t>
   </si>
@@ -1074,10 +1074,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1107,15 +1107,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1128,8 +1165,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1144,116 +1250,10 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1306,7 +1306,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1318,13 +1402,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1336,7 +1426,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1348,55 +1462,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1408,85 +1486,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1511,30 +1511,6 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1580,20 +1556,35 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1612,6 +1603,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1620,10 +1620,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1632,19 +1632,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1653,115 +1653,115 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -2140,16 +2140,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:M89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="12" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="12" ySplit="1" topLeftCell="M23" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F71" sqref="F71"/>
+      <selection pane="bottomRight" activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -3278,7 +3278,7 @@
       <c r="J27" s="8">
         <v>0</v>
       </c>
-      <c r="K27" s="8">
+      <c r="K27" s="10">
         <v>0</v>
       </c>
       <c r="L27" s="8" t="str">
@@ -3411,7 +3411,9 @@
         <f t="shared" si="0"/>
         <v>Assets/mnRes/Images/icon/103003.png</v>
       </c>
-      <c r="M30" s="16"/>
+      <c r="M30" s="16">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" ht="33" spans="1:13">
       <c r="A31" s="8">
@@ -3493,7 +3495,9 @@
         <f t="shared" si="0"/>
         <v>Assets/mnRes/Images/icon/103005.png</v>
       </c>
-      <c r="M32" s="16"/>
+      <c r="M32" s="16">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" ht="49.5" spans="1:13">
       <c r="A33" s="8">
@@ -3533,7 +3537,9 @@
         <f t="shared" si="0"/>
         <v>Assets/mnRes/Images/icon/103006.png</v>
       </c>
-      <c r="M33" s="16"/>
+      <c r="M33" s="16">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" ht="33" spans="1:13">
       <c r="A34" s="8">
@@ -5215,7 +5221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" ht="33" spans="1:12">
+    <row r="74" ht="33" spans="1:13">
       <c r="A74" s="8">
         <v>109001</v>
       </c>
@@ -5253,8 +5259,11 @@
         <f t="shared" si="1"/>
         <v>Assets/mnRes/Images/icon/109001.png</v>
       </c>
-    </row>
-    <row r="75" ht="33" spans="1:12">
+      <c r="M74" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" ht="33" spans="1:13">
       <c r="A75" s="8">
         <v>109002</v>
       </c>
@@ -5292,8 +5301,11 @@
         <f t="shared" si="1"/>
         <v>Assets/mnRes/Images/icon/109002.png</v>
       </c>
-    </row>
-    <row r="76" ht="33" spans="1:12">
+      <c r="M75" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" ht="33" spans="1:13">
       <c r="A76" s="8">
         <v>109003</v>
       </c>
@@ -5331,8 +5343,11 @@
         <f t="shared" si="1"/>
         <v>Assets/mnRes/Images/icon/109003.png</v>
       </c>
-    </row>
-    <row r="77" ht="33" spans="1:12">
+      <c r="M76" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" ht="33" spans="1:13">
       <c r="A77" s="8">
         <v>109004</v>
       </c>
@@ -5370,8 +5385,11 @@
         <f t="shared" si="1"/>
         <v>Assets/mnRes/Images/icon/109004.png</v>
       </c>
-    </row>
-    <row r="78" spans="1:12">
+      <c r="M77" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="8">
         <v>111001</v>
       </c>
@@ -5405,9 +5423,14 @@
       <c r="K78" s="8">
         <v>0</v>
       </c>
-      <c r="L78" s="16"/>
-    </row>
-    <row r="79" ht="49.5" spans="1:11">
+      <c r="L78" s="16">
+        <v>0</v>
+      </c>
+      <c r="M78" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" ht="49.5" spans="1:13">
       <c r="A79" s="8">
         <v>112001</v>
       </c>
@@ -5441,8 +5464,14 @@
       <c r="K79" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" ht="49.5" spans="1:12">
+      <c r="L79" s="16">
+        <v>0</v>
+      </c>
+      <c r="M79" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" ht="49.5" spans="1:13">
       <c r="A80" s="8">
         <v>112002</v>
       </c>
@@ -5476,9 +5505,14 @@
       <c r="K80" s="8">
         <v>0</v>
       </c>
-      <c r="L80"/>
-    </row>
-    <row r="81" ht="49.5" spans="1:11">
+      <c r="L80" s="16">
+        <v>0</v>
+      </c>
+      <c r="M80" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" ht="49.5" spans="1:13">
       <c r="A81" s="8">
         <v>112003</v>
       </c>
@@ -5512,8 +5546,14 @@
       <c r="K81" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" ht="33" spans="1:11">
+      <c r="L81" s="16">
+        <v>0</v>
+      </c>
+      <c r="M81" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" ht="33" spans="1:13">
       <c r="A82" s="8">
         <v>114001</v>
       </c>
@@ -5547,8 +5587,14 @@
       <c r="K82" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" ht="33" spans="1:11">
+      <c r="L82" s="16">
+        <v>0</v>
+      </c>
+      <c r="M82" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" ht="33" spans="1:13">
       <c r="A83" s="8">
         <v>114002</v>
       </c>
@@ -5582,8 +5628,14 @@
       <c r="K83" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" ht="33" spans="1:11">
+      <c r="L83" s="16">
+        <v>0</v>
+      </c>
+      <c r="M83" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" ht="33" spans="1:13">
       <c r="A84" s="8">
         <v>114003</v>
       </c>
@@ -5617,8 +5669,14 @@
       <c r="K84" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" ht="33" spans="1:12">
+      <c r="L84" s="16">
+        <v>0</v>
+      </c>
+      <c r="M84" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" ht="33" spans="1:13">
       <c r="A85" s="8">
         <v>114004</v>
       </c>
@@ -5652,9 +5710,14 @@
       <c r="K85" s="8">
         <v>0</v>
       </c>
-      <c r="L85" s="16"/>
-    </row>
-    <row r="86" spans="1:11">
+      <c r="L85" s="16">
+        <v>0</v>
+      </c>
+      <c r="M85" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="8">
         <v>115001</v>
       </c>
@@ -5688,8 +5751,14 @@
       <c r="K86" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:12">
+      <c r="L86" s="16">
+        <v>0</v>
+      </c>
+      <c r="M86" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="8">
         <v>115002</v>
       </c>
@@ -5723,9 +5792,14 @@
       <c r="K87" s="8">
         <v>0</v>
       </c>
-      <c r="L87" s="1"/>
-    </row>
-    <row r="88" spans="1:11">
+      <c r="L87" s="16">
+        <v>0</v>
+      </c>
+      <c r="M87" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="8">
         <v>115003</v>
       </c>
@@ -5759,8 +5833,14 @@
       <c r="K88" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:11">
+      <c r="L88" s="16">
+        <v>0</v>
+      </c>
+      <c r="M88" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="8">
         <v>115004</v>
       </c>
@@ -5792,6 +5872,12 @@
         <v>0</v>
       </c>
       <c r="K89" s="5">
+        <v>0</v>
+      </c>
+      <c r="L89" s="16">
+        <v>0</v>
+      </c>
+      <c r="M89" s="5">
         <v>0</v>
       </c>
     </row>

--- a/common/Item.xlsx
+++ b/common/Item.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13065"/>
+    <workbookView windowWidth="23535" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="222">
   <si>
     <t>序号</t>
   </si>
@@ -1068,16 +1068,34 @@
   <si>
     <t>skill_exp</t>
   </si>
+  <si>
+    <t>对镜梳妆</t>
+  </si>
+  <si>
+    <t>对镜梳妆卡牌</t>
+  </si>
+  <si>
+    <t>剧情</t>
+  </si>
+  <si>
+    <t>对镜梳妆碎片</t>
+  </si>
+  <si>
+    <t>对镜梳妆卡牌碎片</t>
+  </si>
+  <si>
+    <t>卡池</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1107,7 +1125,113 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1129,120 +1253,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1254,6 +1266,12 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1306,7 +1324,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1318,115 +1366,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1444,18 +1390,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1468,13 +1402,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1486,7 +1456,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1518,8 +1536,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1556,26 +1589,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1583,8 +1599,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1603,15 +1630,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1620,10 +1638,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1632,138 +1650,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1814,6 +1832,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -2140,16 +2161,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M89"/>
+  <dimension ref="A1:M91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="12" ySplit="1" topLeftCell="M23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="12" ySplit="1" topLeftCell="M80" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L29" sqref="L29"/>
+      <selection pane="bottomRight" activeCell="L96" sqref="L96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -5423,7 +5444,7 @@
       <c r="K78" s="8">
         <v>0</v>
       </c>
-      <c r="L78" s="16">
+      <c r="L78" s="17">
         <v>0</v>
       </c>
       <c r="M78" s="5">
@@ -5464,7 +5485,7 @@
       <c r="K79" s="8">
         <v>0</v>
       </c>
-      <c r="L79" s="16">
+      <c r="L79" s="17">
         <v>0</v>
       </c>
       <c r="M79" s="5">
@@ -5505,7 +5526,7 @@
       <c r="K80" s="8">
         <v>0</v>
       </c>
-      <c r="L80" s="16">
+      <c r="L80" s="17">
         <v>0</v>
       </c>
       <c r="M80" s="5">
@@ -5546,7 +5567,7 @@
       <c r="K81" s="8">
         <v>0</v>
       </c>
-      <c r="L81" s="16">
+      <c r="L81" s="17">
         <v>0</v>
       </c>
       <c r="M81" s="5">
@@ -5587,7 +5608,7 @@
       <c r="K82" s="8">
         <v>0</v>
       </c>
-      <c r="L82" s="16">
+      <c r="L82" s="17">
         <v>0</v>
       </c>
       <c r="M82" s="5">
@@ -5628,7 +5649,7 @@
       <c r="K83" s="8">
         <v>0</v>
       </c>
-      <c r="L83" s="16">
+      <c r="L83" s="17">
         <v>0</v>
       </c>
       <c r="M83" s="5">
@@ -5669,7 +5690,7 @@
       <c r="K84" s="8">
         <v>0</v>
       </c>
-      <c r="L84" s="16">
+      <c r="L84" s="17">
         <v>0</v>
       </c>
       <c r="M84" s="5">
@@ -5710,7 +5731,7 @@
       <c r="K85" s="8">
         <v>0</v>
       </c>
-      <c r="L85" s="16">
+      <c r="L85" s="17">
         <v>0</v>
       </c>
       <c r="M85" s="5">
@@ -5751,7 +5772,7 @@
       <c r="K86" s="8">
         <v>0</v>
       </c>
-      <c r="L86" s="16">
+      <c r="L86" s="17">
         <v>0</v>
       </c>
       <c r="M86" s="5">
@@ -5792,7 +5813,7 @@
       <c r="K87" s="8">
         <v>0</v>
       </c>
-      <c r="L87" s="16">
+      <c r="L87" s="17">
         <v>0</v>
       </c>
       <c r="M87" s="5">
@@ -5833,7 +5854,7 @@
       <c r="K88" s="5">
         <v>0</v>
       </c>
-      <c r="L88" s="16">
+      <c r="L88" s="17">
         <v>0</v>
       </c>
       <c r="M88" s="5">
@@ -5874,10 +5895,92 @@
       <c r="K89" s="5">
         <v>0</v>
       </c>
-      <c r="L89" s="16">
+      <c r="L89" s="17">
         <v>0</v>
       </c>
       <c r="M89" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="A90" s="5">
+        <v>113001</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E90" s="5">
+        <v>3</v>
+      </c>
+      <c r="F90" s="5">
+        <v>13</v>
+      </c>
+      <c r="G90" s="5">
+        <v>301001</v>
+      </c>
+      <c r="H90" s="5">
+        <v>0</v>
+      </c>
+      <c r="I90" s="5">
+        <v>0</v>
+      </c>
+      <c r="J90" s="5">
+        <v>0</v>
+      </c>
+      <c r="K90" s="5">
+        <v>0</v>
+      </c>
+      <c r="L90" s="5">
+        <v>0</v>
+      </c>
+      <c r="M90" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
+      <c r="A91" s="5">
+        <v>110001</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E91" s="5">
+        <v>3</v>
+      </c>
+      <c r="F91" s="5">
+        <v>10</v>
+      </c>
+      <c r="G91" s="5">
+        <v>0</v>
+      </c>
+      <c r="H91" s="5">
+        <v>0</v>
+      </c>
+      <c r="I91" s="5">
+        <v>0</v>
+      </c>
+      <c r="J91" s="5">
+        <v>0</v>
+      </c>
+      <c r="K91" s="5">
+        <v>0</v>
+      </c>
+      <c r="L91" s="5">
+        <v>0</v>
+      </c>
+      <c r="M91" s="5">
         <v>0</v>
       </c>
     </row>

--- a/common/Item.xlsx
+++ b/common/Item.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23535" windowHeight="12465"/>
+    <workbookView windowWidth="24180" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222">
   <si>
     <t>序号</t>
   </si>
@@ -1092,9 +1092,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -1124,31 +1124,17 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1162,16 +1148,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1187,21 +1180,42 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1216,14 +1230,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1237,11 +1244,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1254,24 +1261,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1324,13 +1324,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1342,19 +1360,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1372,7 +1378,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1384,61 +1480,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1450,7 +1492,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1463,48 +1505,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1533,41 +1533,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1599,8 +1575,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1615,21 +1630,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1638,10 +1638,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1650,136 +1650,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -2161,16 +2161,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:M91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="12" ySplit="1" topLeftCell="M80" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="12" ySplit="1" topLeftCell="M17" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L96" sqref="L96"/>
+      <selection pane="bottomRight" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -3300,7 +3300,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="10">
-        <v>0</v>
+        <v>102005</v>
       </c>
       <c r="L27" s="8" t="str">
         <f t="shared" si="0"/>

--- a/common/Item.xlsx
+++ b/common/Item.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13065"/>
+    <workbookView windowWidth="24315" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="222">
   <si>
     <t>序号</t>
   </si>
@@ -59,6 +59,7 @@
 1~10没有映射
 货币、资源、属性、经验填入类型名称
 卡牌填入卡牌ID
+碎片填入对应卡牌ID
 </t>
   </si>
   <si>
@@ -1092,9 +1093,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -1124,19 +1125,32 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1156,40 +1170,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1215,7 +1209,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1223,22 +1217,37 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1261,17 +1270,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1324,7 +1325,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1336,7 +1337,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1348,31 +1493,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1384,127 +1505,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1533,21 +1534,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1566,32 +1552,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1622,6 +1584,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1630,6 +1601,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1638,10 +1639,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1650,136 +1651,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -2161,16 +2162,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:M91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="12" ySplit="1" topLeftCell="M17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="12" ySplit="1" topLeftCell="M83" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G25" sqref="G25"/>
+      <selection pane="bottomRight" activeCell="G91" sqref="G91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -5963,7 +5964,7 @@
         <v>10</v>
       </c>
       <c r="G91" s="5">
-        <v>0</v>
+        <v>301001</v>
       </c>
       <c r="H91" s="5">
         <v>0</v>

--- a/common/Item.xlsx
+++ b/common/Item.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24315" windowHeight="12465"/>
+    <workbookView windowWidth="24180" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224">
   <si>
     <t>序号</t>
   </si>
@@ -52,6 +52,14 @@
 14=属性
 15=经验
 16=改名卡</t>
+  </si>
+  <si>
+    <t>道具子类型
+类型15时
+1=成长经验
+2=好感经验
+3=星尘经验
+4=技能经验</t>
   </si>
   <si>
     <t xml:space="preserve">映射
@@ -304,6 +312,22 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">type_sub </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>int</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <rPr>
         <b/>
         <sz val="11"/>
@@ -1093,10 +1117,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1126,7 +1150,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1140,7 +1172,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1155,15 +1217,54 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1178,69 +1279,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1250,22 +1290,6 @@
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1325,7 +1349,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1343,31 +1415,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1379,31 +1487,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1415,13 +1499,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1433,49 +1517,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1487,25 +1529,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1549,24 +1573,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1586,18 +1592,31 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1617,17 +1636,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1639,10 +1663,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1651,16 +1675,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1669,115 +1693,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
@@ -2162,16 +2186,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M91"/>
+  <dimension ref="A1:N91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="12" ySplit="1" topLeftCell="M83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="13" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G91" sqref="G91"/>
+      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2180,18 +2204,18 @@
     <col min="2" max="2" width="13.25" style="5" customWidth="1"/>
     <col min="3" max="3" width="15.375" style="5" customWidth="1"/>
     <col min="4" max="4" width="21.25" style="5" customWidth="1"/>
-    <col min="5" max="6" width="16" style="5" customWidth="1"/>
-    <col min="7" max="7" width="17.125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="9.125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="9.25" style="5" customWidth="1"/>
-    <col min="10" max="10" width="10.75" style="5" customWidth="1"/>
-    <col min="11" max="11" width="13.875" style="5" customWidth="1"/>
-    <col min="12" max="12" width="49.75" style="5" customWidth="1"/>
-    <col min="13" max="13" width="8.875" style="5" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="5"/>
+    <col min="5" max="7" width="16" style="5" customWidth="1"/>
+    <col min="8" max="8" width="17.125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="9.125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="9.25" style="5" customWidth="1"/>
+    <col min="11" max="11" width="10.75" style="5" customWidth="1"/>
+    <col min="12" max="12" width="13.875" style="5" customWidth="1"/>
+    <col min="13" max="13" width="49.75" style="5" customWidth="1"/>
+    <col min="14" max="14" width="8.875" style="5" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="255.75" spans="1:13">
+    <row r="1" ht="255.75" spans="1:14">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2231,60 +2255,66 @@
       <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" ht="33.75" spans="1:13">
+      <c r="N1" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" ht="33.75" spans="1:14">
       <c r="A2" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="33" spans="1:13">
+        <v>26</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="33" spans="1:14">
       <c r="A3" s="8">
         <v>101001</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E3" s="8">
         <v>1</v>
@@ -2292,79 +2322,85 @@
       <c r="F3" s="8">
         <v>1</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="5">
         <v>0</v>
       </c>
       <c r="H3" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" s="8">
+        <v>1</v>
+      </c>
+      <c r="J3" s="8">
         <v>25</v>
       </c>
-      <c r="J3" s="8">
+      <c r="K3" s="8">
         <v>201001</v>
       </c>
-      <c r="K3" s="8">
-        <v>0</v>
-      </c>
-      <c r="L3" s="8" t="str">
-        <f t="shared" ref="L3:L66" si="0">"Assets/mnRes/Images/icon/"&amp;A3&amp;".png"</f>
+      <c r="L3" s="8">
+        <v>0</v>
+      </c>
+      <c r="M3" s="8" t="str">
+        <f t="shared" ref="M3:M66" si="0">"Assets/mnRes/Images/icon/"&amp;A3&amp;".png"</f>
         <v>Assets/mnRes/Images/icon/101001.png</v>
       </c>
-      <c r="M3" s="14"/>
-    </row>
-    <row r="4" s="2" customFormat="1" ht="33" spans="1:13">
+      <c r="N3" s="14"/>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="33" spans="1:14">
       <c r="A4" s="8">
         <v>101002</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>28</v>
-      </c>
       <c r="E4" s="8">
         <v>1</v>
       </c>
       <c r="F4" s="8">
         <v>1</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="5">
         <v>0</v>
       </c>
       <c r="H4" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="8">
+        <v>1</v>
+      </c>
+      <c r="J4" s="8">
         <v>26</v>
       </c>
-      <c r="J4" s="8">
+      <c r="K4" s="8">
         <v>201002</v>
       </c>
-      <c r="K4" s="8">
-        <v>0</v>
-      </c>
-      <c r="L4" s="8" t="str">
+      <c r="L4" s="8">
+        <v>0</v>
+      </c>
+      <c r="M4" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Assets/mnRes/Images/icon/101002.png</v>
       </c>
-      <c r="M4" s="15"/>
-    </row>
-    <row r="5" s="2" customFormat="1" ht="33" spans="1:13">
+      <c r="N4" s="15"/>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="33" spans="1:14">
       <c r="A5" s="8">
         <v>101003</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E5" s="8">
         <v>1</v>
@@ -2372,79 +2408,85 @@
       <c r="F5" s="8">
         <v>1</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="5">
         <v>0</v>
       </c>
       <c r="H5" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="8">
+        <v>1</v>
+      </c>
+      <c r="J5" s="8">
         <v>27</v>
       </c>
-      <c r="J5" s="8">
+      <c r="K5" s="8">
         <v>201003</v>
       </c>
-      <c r="K5" s="8">
-        <v>0</v>
-      </c>
-      <c r="L5" s="8" t="str">
+      <c r="L5" s="8">
+        <v>0</v>
+      </c>
+      <c r="M5" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Assets/mnRes/Images/icon/101003.png</v>
       </c>
-      <c r="M5" s="15"/>
-    </row>
-    <row r="6" s="3" customFormat="1" ht="33" spans="1:13">
+      <c r="N5" s="15"/>
+    </row>
+    <row r="6" s="3" customFormat="1" ht="33" spans="1:14">
       <c r="A6" s="8">
         <v>101004</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="8">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0</v>
+      </c>
+      <c r="I6" s="8">
+        <v>1</v>
+      </c>
+      <c r="J6" s="8">
         <v>28</v>
       </c>
-      <c r="E6" s="8">
-        <v>1</v>
-      </c>
-      <c r="F6" s="8">
-        <v>1</v>
-      </c>
-      <c r="G6" s="8">
-        <v>0</v>
-      </c>
-      <c r="H6" s="8">
-        <v>1</v>
-      </c>
-      <c r="I6" s="8">
-        <v>28</v>
-      </c>
-      <c r="J6" s="8">
+      <c r="K6" s="8">
         <v>201004</v>
       </c>
-      <c r="K6" s="8">
-        <v>0</v>
-      </c>
-      <c r="L6" s="8" t="str">
+      <c r="L6" s="8">
+        <v>0</v>
+      </c>
+      <c r="M6" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Assets/mnRes/Images/icon/101004.png</v>
       </c>
-      <c r="M6" s="14"/>
-    </row>
-    <row r="7" s="3" customFormat="1" ht="33" spans="1:13">
+      <c r="N6" s="14"/>
+    </row>
+    <row r="7" s="3" customFormat="1" ht="33" spans="1:14">
       <c r="A7" s="8">
         <v>101005</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E7" s="8">
         <v>1</v>
@@ -2452,39 +2494,42 @@
       <c r="F7" s="8">
         <v>1</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="5">
         <v>0</v>
       </c>
       <c r="H7" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="8">
+        <v>1</v>
+      </c>
+      <c r="J7" s="8">
         <v>29</v>
       </c>
-      <c r="J7" s="8">
+      <c r="K7" s="8">
         <v>201005</v>
       </c>
-      <c r="K7" s="8">
-        <v>0</v>
-      </c>
-      <c r="L7" s="8" t="str">
+      <c r="L7" s="8">
+        <v>0</v>
+      </c>
+      <c r="M7" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Assets/mnRes/Images/icon/101005.png</v>
       </c>
-      <c r="M7" s="14"/>
-    </row>
-    <row r="8" s="4" customFormat="1" ht="33" spans="1:13">
+      <c r="N7" s="14"/>
+    </row>
+    <row r="8" s="4" customFormat="1" ht="33" spans="1:14">
       <c r="A8" s="8">
         <v>101011</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E8" s="8">
         <v>1</v>
@@ -2492,39 +2537,42 @@
       <c r="F8" s="8">
         <v>1</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="5">
         <v>0</v>
       </c>
       <c r="H8" s="8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="8">
         <v>2</v>
       </c>
-      <c r="I8" s="8">
+      <c r="J8" s="8">
         <v>20</v>
       </c>
-      <c r="J8" s="8">
+      <c r="K8" s="8">
         <v>201011</v>
       </c>
-      <c r="K8" s="8">
-        <v>0</v>
-      </c>
-      <c r="L8" s="8" t="str">
+      <c r="L8" s="8">
+        <v>0</v>
+      </c>
+      <c r="M8" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Assets/mnRes/Images/icon/101011.png</v>
       </c>
-      <c r="M8" s="14"/>
-    </row>
-    <row r="9" ht="33" spans="1:13">
+      <c r="N8" s="14"/>
+    </row>
+    <row r="9" ht="33" spans="1:14">
       <c r="A9" s="8">
         <v>101012</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E9" s="8">
         <v>1</v>
@@ -2532,41 +2580,44 @@
       <c r="F9" s="8">
         <v>1</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="5">
         <v>0</v>
       </c>
       <c r="H9" s="8">
+        <v>0</v>
+      </c>
+      <c r="I9" s="8">
         <v>2</v>
       </c>
-      <c r="I9" s="8">
+      <c r="J9" s="8">
         <v>21</v>
       </c>
-      <c r="J9" s="8">
+      <c r="K9" s="8">
         <v>201012</v>
       </c>
-      <c r="K9" s="8">
-        <v>0</v>
-      </c>
-      <c r="L9" s="8" t="str">
+      <c r="L9" s="8">
+        <v>0</v>
+      </c>
+      <c r="M9" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Assets/mnRes/Images/icon/101012.png</v>
       </c>
-      <c r="M9" s="5">
+      <c r="N9" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="10" ht="33" spans="1:13">
+    <row r="10" ht="33" spans="1:14">
       <c r="A10" s="8">
         <v>101013</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E10" s="8">
         <v>1</v>
@@ -2574,41 +2625,44 @@
       <c r="F10" s="8">
         <v>1</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="5">
         <v>0</v>
       </c>
       <c r="H10" s="8">
+        <v>0</v>
+      </c>
+      <c r="I10" s="8">
         <v>2</v>
       </c>
-      <c r="I10" s="8">
+      <c r="J10" s="8">
         <v>22</v>
       </c>
-      <c r="J10" s="8">
+      <c r="K10" s="8">
         <v>201013</v>
       </c>
-      <c r="K10" s="8">
-        <v>0</v>
-      </c>
-      <c r="L10" s="8" t="str">
+      <c r="L10" s="8">
+        <v>0</v>
+      </c>
+      <c r="M10" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Assets/mnRes/Images/icon/101013.png</v>
       </c>
-      <c r="M10" s="5">
+      <c r="N10" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="11" ht="33" spans="1:13">
+    <row r="11" ht="33" spans="1:14">
       <c r="A11" s="8">
         <v>101014</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E11" s="8">
         <v>1</v>
@@ -2616,41 +2670,44 @@
       <c r="F11" s="8">
         <v>1</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="5">
         <v>0</v>
       </c>
       <c r="H11" s="8">
+        <v>0</v>
+      </c>
+      <c r="I11" s="8">
         <v>2</v>
       </c>
-      <c r="I11" s="8">
+      <c r="J11" s="8">
         <v>23</v>
       </c>
-      <c r="J11" s="8">
+      <c r="K11" s="8">
         <v>201014</v>
       </c>
-      <c r="K11" s="8">
-        <v>0</v>
-      </c>
-      <c r="L11" s="8" t="str">
+      <c r="L11" s="8">
+        <v>0</v>
+      </c>
+      <c r="M11" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Assets/mnRes/Images/icon/101014.png</v>
       </c>
-      <c r="M11" s="5">
+      <c r="N11" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="12" ht="33" spans="1:13">
+    <row r="12" ht="33" spans="1:14">
       <c r="A12" s="8">
         <v>101015</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E12" s="8">
         <v>1</v>
@@ -2658,41 +2715,44 @@
       <c r="F12" s="8">
         <v>1</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="5">
         <v>0</v>
       </c>
       <c r="H12" s="8">
+        <v>0</v>
+      </c>
+      <c r="I12" s="8">
         <v>2</v>
       </c>
-      <c r="I12" s="8">
+      <c r="J12" s="8">
         <v>24</v>
       </c>
-      <c r="J12" s="8">
+      <c r="K12" s="8">
         <v>201015</v>
       </c>
-      <c r="K12" s="8">
-        <v>0</v>
-      </c>
-      <c r="L12" s="8" t="str">
+      <c r="L12" s="8">
+        <v>0</v>
+      </c>
+      <c r="M12" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Assets/mnRes/Images/icon/101015.png</v>
       </c>
-      <c r="M12" s="5">
+      <c r="N12" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="13" ht="33" spans="1:13">
+    <row r="13" ht="33" spans="1:14">
       <c r="A13" s="8">
         <v>101021</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E13" s="8">
         <v>1</v>
@@ -2700,41 +2760,44 @@
       <c r="F13" s="8">
         <v>1</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="5">
         <v>0</v>
       </c>
       <c r="H13" s="8">
+        <v>0</v>
+      </c>
+      <c r="I13" s="8">
         <v>3</v>
       </c>
-      <c r="I13" s="8">
+      <c r="J13" s="8">
         <v>15</v>
       </c>
-      <c r="J13" s="8">
+      <c r="K13" s="8">
         <v>201021</v>
       </c>
-      <c r="K13" s="8">
-        <v>0</v>
-      </c>
-      <c r="L13" s="8" t="str">
+      <c r="L13" s="8">
+        <v>0</v>
+      </c>
+      <c r="M13" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Assets/mnRes/Images/icon/101021.png</v>
       </c>
-      <c r="M13" s="5">
+      <c r="N13" s="5">
         <v>12</v>
       </c>
     </row>
-    <row r="14" ht="33" spans="1:13">
+    <row r="14" ht="33" spans="1:14">
       <c r="A14" s="8">
         <v>101022</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E14" s="8">
         <v>1</v>
@@ -2742,41 +2805,44 @@
       <c r="F14" s="8">
         <v>1</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="5">
         <v>0</v>
       </c>
       <c r="H14" s="8">
+        <v>0</v>
+      </c>
+      <c r="I14" s="8">
         <v>3</v>
       </c>
-      <c r="I14" s="8">
+      <c r="J14" s="8">
         <v>16</v>
       </c>
-      <c r="J14" s="8">
+      <c r="K14" s="8">
         <v>201022</v>
       </c>
-      <c r="K14" s="8">
-        <v>0</v>
-      </c>
-      <c r="L14" s="8" t="str">
+      <c r="L14" s="8">
+        <v>0</v>
+      </c>
+      <c r="M14" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Assets/mnRes/Images/icon/101022.png</v>
       </c>
-      <c r="M14" s="5">
+      <c r="N14" s="5">
         <v>12</v>
       </c>
     </row>
-    <row r="15" ht="33" spans="1:13">
+    <row r="15" ht="33" spans="1:14">
       <c r="A15" s="8">
         <v>101023</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E15" s="8">
         <v>1</v>
@@ -2784,41 +2850,44 @@
       <c r="F15" s="8">
         <v>1</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="5">
         <v>0</v>
       </c>
       <c r="H15" s="8">
+        <v>0</v>
+      </c>
+      <c r="I15" s="8">
         <v>3</v>
       </c>
-      <c r="I15" s="8">
+      <c r="J15" s="8">
         <v>17</v>
       </c>
-      <c r="J15" s="8">
+      <c r="K15" s="8">
         <v>201023</v>
       </c>
-      <c r="K15" s="8">
-        <v>0</v>
-      </c>
-      <c r="L15" s="8" t="str">
+      <c r="L15" s="8">
+        <v>0</v>
+      </c>
+      <c r="M15" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Assets/mnRes/Images/icon/101023.png</v>
       </c>
-      <c r="M15" s="5">
+      <c r="N15" s="5">
         <v>12</v>
       </c>
     </row>
-    <row r="16" ht="33" spans="1:13">
+    <row r="16" ht="33" spans="1:14">
       <c r="A16" s="8">
         <v>101024</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E16" s="8">
         <v>1</v>
@@ -2826,41 +2895,44 @@
       <c r="F16" s="8">
         <v>1</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="5">
         <v>0</v>
       </c>
       <c r="H16" s="8">
+        <v>0</v>
+      </c>
+      <c r="I16" s="8">
         <v>3</v>
       </c>
-      <c r="I16" s="8">
+      <c r="J16" s="8">
         <v>18</v>
       </c>
-      <c r="J16" s="8">
+      <c r="K16" s="8">
         <v>201024</v>
       </c>
-      <c r="K16" s="8">
-        <v>0</v>
-      </c>
-      <c r="L16" s="8" t="str">
+      <c r="L16" s="8">
+        <v>0</v>
+      </c>
+      <c r="M16" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Assets/mnRes/Images/icon/101024.png</v>
       </c>
-      <c r="M16" s="5">
+      <c r="N16" s="5">
         <v>13</v>
       </c>
     </row>
-    <row r="17" ht="33" spans="1:13">
+    <row r="17" ht="33" spans="1:14">
       <c r="A17" s="8">
         <v>101025</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E17" s="8">
         <v>1</v>
@@ -2868,41 +2940,44 @@
       <c r="F17" s="8">
         <v>1</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="5">
         <v>0</v>
       </c>
       <c r="H17" s="8">
+        <v>0</v>
+      </c>
+      <c r="I17" s="8">
         <v>3</v>
       </c>
-      <c r="I17" s="8">
+      <c r="J17" s="8">
         <v>19</v>
       </c>
-      <c r="J17" s="8">
+      <c r="K17" s="8">
         <v>201025</v>
       </c>
-      <c r="K17" s="8">
-        <v>0</v>
-      </c>
-      <c r="L17" s="8" t="str">
+      <c r="L17" s="8">
+        <v>0</v>
+      </c>
+      <c r="M17" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Assets/mnRes/Images/icon/101025.png</v>
       </c>
-      <c r="M17" s="5">
+      <c r="N17" s="5">
         <v>13</v>
       </c>
     </row>
-    <row r="18" ht="33" spans="1:13">
+    <row r="18" ht="33" spans="1:14">
       <c r="A18" s="8">
         <v>101031</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E18" s="8">
         <v>1</v>
@@ -2910,41 +2985,44 @@
       <c r="F18" s="8">
         <v>1</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="5">
         <v>0</v>
       </c>
       <c r="H18" s="8">
+        <v>0</v>
+      </c>
+      <c r="I18" s="8">
         <v>4</v>
       </c>
-      <c r="I18" s="8">
+      <c r="J18" s="8">
         <v>10</v>
       </c>
-      <c r="J18" s="8">
+      <c r="K18" s="8">
         <v>201031</v>
       </c>
-      <c r="K18" s="8">
-        <v>0</v>
-      </c>
-      <c r="L18" s="8" t="str">
+      <c r="L18" s="8">
+        <v>0</v>
+      </c>
+      <c r="M18" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Assets/mnRes/Images/icon/101031.png</v>
       </c>
-      <c r="M18" s="5">
+      <c r="N18" s="5">
         <v>13</v>
       </c>
     </row>
-    <row r="19" ht="33" spans="1:13">
+    <row r="19" ht="33" spans="1:14">
       <c r="A19" s="8">
         <v>101032</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E19" s="8">
         <v>1</v>
@@ -2952,41 +3030,44 @@
       <c r="F19" s="8">
         <v>1</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="5">
         <v>0</v>
       </c>
       <c r="H19" s="8">
+        <v>0</v>
+      </c>
+      <c r="I19" s="8">
         <v>4</v>
       </c>
-      <c r="I19" s="8">
+      <c r="J19" s="8">
         <v>11</v>
       </c>
-      <c r="J19" s="8">
+      <c r="K19" s="8">
         <v>201032</v>
       </c>
-      <c r="K19" s="8">
-        <v>0</v>
-      </c>
-      <c r="L19" s="8" t="str">
+      <c r="L19" s="8">
+        <v>0</v>
+      </c>
+      <c r="M19" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Assets/mnRes/Images/icon/101032.png</v>
       </c>
-      <c r="M19" s="5">
+      <c r="N19" s="5">
         <v>13</v>
       </c>
     </row>
-    <row r="20" ht="33" spans="1:13">
+    <row r="20" ht="33" spans="1:14">
       <c r="A20" s="8">
         <v>101033</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E20" s="8">
         <v>1</v>
@@ -2994,41 +3075,44 @@
       <c r="F20" s="8">
         <v>1</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="5">
         <v>0</v>
       </c>
       <c r="H20" s="8">
+        <v>0</v>
+      </c>
+      <c r="I20" s="8">
         <v>4</v>
       </c>
-      <c r="I20" s="8">
+      <c r="J20" s="8">
         <v>12</v>
       </c>
-      <c r="J20" s="8">
+      <c r="K20" s="8">
         <v>201033</v>
       </c>
-      <c r="K20" s="8">
-        <v>0</v>
-      </c>
-      <c r="L20" s="8" t="str">
+      <c r="L20" s="8">
+        <v>0</v>
+      </c>
+      <c r="M20" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Assets/mnRes/Images/icon/101033.png</v>
       </c>
-      <c r="M20" s="5">
+      <c r="N20" s="5">
         <v>13</v>
       </c>
     </row>
-    <row r="21" ht="33" spans="1:13">
+    <row r="21" ht="33" spans="1:14">
       <c r="A21" s="8">
         <v>101034</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E21" s="8">
         <v>1</v>
@@ -3036,41 +3120,44 @@
       <c r="F21" s="8">
         <v>1</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="5">
         <v>0</v>
       </c>
       <c r="H21" s="8">
+        <v>0</v>
+      </c>
+      <c r="I21" s="8">
         <v>4</v>
       </c>
-      <c r="I21" s="8">
+      <c r="J21" s="8">
         <v>13</v>
       </c>
-      <c r="J21" s="8">
+      <c r="K21" s="8">
         <v>201034</v>
       </c>
-      <c r="K21" s="8">
-        <v>0</v>
-      </c>
-      <c r="L21" s="8" t="str">
+      <c r="L21" s="8">
+        <v>0</v>
+      </c>
+      <c r="M21" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Assets/mnRes/Images/icon/101034.png</v>
       </c>
-      <c r="M21" s="5">
+      <c r="N21" s="5">
         <v>13</v>
       </c>
     </row>
-    <row r="22" ht="33" spans="1:13">
+    <row r="22" ht="33" spans="1:14">
       <c r="A22" s="8">
         <v>101035</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E22" s="8">
         <v>1</v>
@@ -3078,41 +3165,44 @@
       <c r="F22" s="8">
         <v>1</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="5">
         <v>0</v>
       </c>
       <c r="H22" s="8">
+        <v>0</v>
+      </c>
+      <c r="I22" s="8">
         <v>4</v>
       </c>
-      <c r="I22" s="8">
+      <c r="J22" s="8">
         <v>14</v>
       </c>
-      <c r="J22" s="8">
+      <c r="K22" s="8">
         <v>201035</v>
       </c>
-      <c r="K22" s="8">
-        <v>0</v>
-      </c>
-      <c r="L22" s="8" t="str">
+      <c r="L22" s="8">
+        <v>0</v>
+      </c>
+      <c r="M22" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Assets/mnRes/Images/icon/101035.png</v>
       </c>
-      <c r="M22" s="5">
+      <c r="N22" s="5">
         <v>13</v>
       </c>
     </row>
-    <row r="23" ht="33" spans="1:13">
+    <row r="23" ht="33" spans="1:14">
       <c r="A23" s="8">
         <v>102001</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E23" s="8">
         <v>1</v>
@@ -3120,41 +3210,44 @@
       <c r="F23" s="8">
         <v>2</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="5">
         <v>0</v>
       </c>
       <c r="H23" s="8">
+        <v>0</v>
+      </c>
+      <c r="I23" s="8">
         <v>5</v>
       </c>
-      <c r="I23" s="8">
-        <v>1</v>
-      </c>
       <c r="J23" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="8">
         <v>0</v>
       </c>
-      <c r="L23" s="8" t="str">
+      <c r="L23" s="8">
+        <v>0</v>
+      </c>
+      <c r="M23" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Assets/mnRes/Images/icon/102001.png</v>
       </c>
-      <c r="M23" s="5">
+      <c r="N23" s="5">
         <v>14</v>
       </c>
     </row>
-    <row r="24" ht="33" spans="1:13">
+    <row r="24" ht="33" spans="1:14">
       <c r="A24" s="8">
         <v>102002</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C24" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="9" t="s">
         <v>72</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>70</v>
       </c>
       <c r="E24" s="8">
         <v>1</v>
@@ -3162,41 +3255,44 @@
       <c r="F24" s="8">
         <v>2</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="5">
         <v>0</v>
       </c>
       <c r="H24" s="8">
+        <v>0</v>
+      </c>
+      <c r="I24" s="8">
         <v>5</v>
       </c>
-      <c r="I24" s="8">
+      <c r="J24" s="8">
         <v>2</v>
       </c>
-      <c r="J24" s="8">
-        <v>0</v>
-      </c>
       <c r="K24" s="8">
         <v>0</v>
       </c>
-      <c r="L24" s="8" t="str">
+      <c r="L24" s="8">
+        <v>0</v>
+      </c>
+      <c r="M24" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Assets/mnRes/Images/icon/102002.png</v>
       </c>
-      <c r="M24" s="5">
+      <c r="N24" s="5">
         <v>14</v>
       </c>
     </row>
-    <row r="25" ht="33" spans="1:13">
+    <row r="25" ht="33" spans="1:14">
       <c r="A25" s="8">
         <v>102003</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E25" s="8">
         <v>1</v>
@@ -3204,41 +3300,44 @@
       <c r="F25" s="8">
         <v>2</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G25" s="5">
         <v>0</v>
       </c>
       <c r="H25" s="8">
+        <v>0</v>
+      </c>
+      <c r="I25" s="8">
         <v>5</v>
       </c>
-      <c r="I25" s="8">
+      <c r="J25" s="8">
         <v>3</v>
       </c>
-      <c r="J25" s="8">
-        <v>0</v>
-      </c>
       <c r="K25" s="8">
         <v>0</v>
       </c>
-      <c r="L25" s="8" t="str">
+      <c r="L25" s="8">
+        <v>0</v>
+      </c>
+      <c r="M25" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Assets/mnRes/Images/icon/102003.png</v>
       </c>
-      <c r="M25" s="5">
+      <c r="N25" s="5">
         <v>14</v>
       </c>
     </row>
-    <row r="26" ht="33" spans="1:13">
+    <row r="26" ht="33" spans="1:14">
       <c r="A26" s="8">
         <v>102004</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E26" s="8">
         <v>1</v>
@@ -3246,41 +3345,44 @@
       <c r="F26" s="8">
         <v>2</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G26" s="5">
         <v>0</v>
       </c>
       <c r="H26" s="8">
+        <v>0</v>
+      </c>
+      <c r="I26" s="8">
         <v>5</v>
       </c>
-      <c r="I26" s="8">
+      <c r="J26" s="8">
         <v>4</v>
       </c>
-      <c r="J26" s="8">
-        <v>0</v>
-      </c>
       <c r="K26" s="8">
         <v>0</v>
       </c>
-      <c r="L26" s="8" t="str">
+      <c r="L26" s="8">
+        <v>0</v>
+      </c>
+      <c r="M26" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Assets/mnRes/Images/icon/102004.png</v>
       </c>
-      <c r="M26" s="5">
+      <c r="N26" s="5">
         <v>14</v>
       </c>
     </row>
-    <row r="27" ht="33" spans="1:13">
+    <row r="27" ht="33" spans="1:14">
       <c r="A27" s="8">
         <v>102005</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E27" s="8">
         <v>1</v>
@@ -3288,41 +3390,44 @@
       <c r="F27" s="8">
         <v>2</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="5">
         <v>0</v>
       </c>
       <c r="H27" s="8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I27" s="8">
         <v>5</v>
       </c>
       <c r="J27" s="8">
-        <v>0</v>
-      </c>
-      <c r="K27" s="10">
+        <v>5</v>
+      </c>
+      <c r="K27" s="8">
+        <v>0</v>
+      </c>
+      <c r="L27" s="10">
         <v>102005</v>
       </c>
-      <c r="L27" s="8" t="str">
+      <c r="M27" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Assets/mnRes/Images/icon/102005.png</v>
       </c>
-      <c r="M27" s="5">
+      <c r="N27" s="5">
         <v>15</v>
       </c>
     </row>
-    <row r="28" ht="33" spans="1:13">
+    <row r="28" ht="33" spans="1:14">
       <c r="A28" s="11">
         <v>103001</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E28" s="11">
         <v>1</v>
@@ -3330,41 +3435,44 @@
       <c r="F28" s="11">
         <v>3</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G28" s="5">
         <v>0</v>
       </c>
       <c r="H28" s="11">
+        <v>0</v>
+      </c>
+      <c r="I28" s="11">
         <v>3</v>
       </c>
-      <c r="I28" s="11">
+      <c r="J28" s="11">
         <v>60</v>
       </c>
-      <c r="J28" s="11">
+      <c r="K28" s="11">
         <v>201001</v>
       </c>
-      <c r="K28" s="11">
-        <v>0</v>
-      </c>
-      <c r="L28" s="8" t="str">
+      <c r="L28" s="11">
+        <v>0</v>
+      </c>
+      <c r="M28" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Assets/mnRes/Images/icon/103001.png</v>
       </c>
-      <c r="M28" s="8">
+      <c r="N28" s="8">
         <v>100</v>
       </c>
     </row>
-    <row r="29" ht="33" spans="1:13">
+    <row r="29" ht="33" spans="1:14">
       <c r="A29" s="11">
         <v>103002</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E29" s="11">
         <v>1</v>
@@ -3372,41 +3480,44 @@
       <c r="F29" s="11">
         <v>3</v>
       </c>
-      <c r="G29" s="11">
+      <c r="G29" s="5">
         <v>0</v>
       </c>
       <c r="H29" s="11">
+        <v>0</v>
+      </c>
+      <c r="I29" s="11">
         <v>5</v>
       </c>
-      <c r="I29" s="11">
+      <c r="J29" s="11">
         <v>61</v>
       </c>
-      <c r="J29" s="11">
+      <c r="K29" s="11">
         <v>201002</v>
       </c>
-      <c r="K29" s="11">
-        <v>0</v>
-      </c>
-      <c r="L29" s="8" t="str">
+      <c r="L29" s="11">
+        <v>0</v>
+      </c>
+      <c r="M29" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Assets/mnRes/Images/icon/103002.png</v>
       </c>
-      <c r="M29" s="8">
+      <c r="N29" s="8">
         <v>100</v>
       </c>
     </row>
-    <row r="30" ht="33" spans="1:13">
+    <row r="30" ht="33" spans="1:14">
       <c r="A30" s="11">
         <v>103003</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E30" s="11">
         <v>1</v>
@@ -3414,41 +3525,44 @@
       <c r="F30" s="11">
         <v>3</v>
       </c>
-      <c r="G30" s="11">
+      <c r="G30" s="5">
         <v>0</v>
       </c>
       <c r="H30" s="11">
+        <v>0</v>
+      </c>
+      <c r="I30" s="11">
         <v>3</v>
       </c>
-      <c r="I30" s="11">
+      <c r="J30" s="11">
         <v>7</v>
       </c>
-      <c r="J30" s="11">
+      <c r="K30" s="11">
         <v>203003</v>
       </c>
-      <c r="K30" s="11">
-        <v>0</v>
-      </c>
-      <c r="L30" s="8" t="str">
+      <c r="L30" s="11">
+        <v>0</v>
+      </c>
+      <c r="M30" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Assets/mnRes/Images/icon/103003.png</v>
       </c>
-      <c r="M30" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" ht="33" spans="1:13">
+      <c r="N30" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" ht="33" spans="1:14">
       <c r="A31" s="8">
         <v>103004</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C31" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" s="9" t="s">
         <v>89</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>87</v>
       </c>
       <c r="E31" s="8">
         <v>1</v>
@@ -3456,41 +3570,44 @@
       <c r="F31" s="8">
         <v>3</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G31" s="5">
         <v>0</v>
       </c>
       <c r="H31" s="8">
+        <v>0</v>
+      </c>
+      <c r="I31" s="8">
         <v>3</v>
       </c>
-      <c r="I31" s="8">
+      <c r="J31" s="8">
         <v>6</v>
       </c>
-      <c r="J31" s="8">
+      <c r="K31" s="8">
         <v>203004</v>
       </c>
-      <c r="K31" s="8">
-        <v>0</v>
-      </c>
-      <c r="L31" s="8" t="str">
+      <c r="L31" s="8">
+        <v>0</v>
+      </c>
+      <c r="M31" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Assets/mnRes/Images/icon/103004.png</v>
       </c>
-      <c r="M31" s="5">
+      <c r="N31" s="5">
         <v>15</v>
       </c>
     </row>
-    <row r="32" ht="49.5" spans="1:13">
+    <row r="32" ht="49.5" spans="1:14">
       <c r="A32" s="8">
         <v>103005</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E32" s="8">
         <v>1</v>
@@ -3498,41 +3615,44 @@
       <c r="F32" s="8">
         <v>3</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G32" s="5">
         <v>0</v>
       </c>
       <c r="H32" s="8">
+        <v>0</v>
+      </c>
+      <c r="I32" s="8">
         <v>3</v>
       </c>
-      <c r="I32" s="8">
+      <c r="J32" s="8">
         <v>9</v>
       </c>
-      <c r="J32" s="8">
+      <c r="K32" s="8">
         <v>203005</v>
       </c>
-      <c r="K32" s="8">
-        <v>0</v>
-      </c>
-      <c r="L32" s="8" t="str">
+      <c r="L32" s="8">
+        <v>0</v>
+      </c>
+      <c r="M32" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Assets/mnRes/Images/icon/103005.png</v>
       </c>
-      <c r="M32" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" ht="49.5" spans="1:13">
+      <c r="N32" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" ht="49.5" spans="1:14">
       <c r="A33" s="8">
         <v>103006</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C33" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" s="9" t="s">
         <v>94</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>92</v>
       </c>
       <c r="E33" s="8">
         <v>1</v>
@@ -3540,41 +3660,44 @@
       <c r="F33" s="8">
         <v>3</v>
       </c>
-      <c r="G33" s="8">
+      <c r="G33" s="5">
         <v>0</v>
       </c>
       <c r="H33" s="8">
+        <v>0</v>
+      </c>
+      <c r="I33" s="8">
         <v>3</v>
       </c>
-      <c r="I33" s="8">
+      <c r="J33" s="8">
         <v>8</v>
       </c>
-      <c r="J33" s="8">
+      <c r="K33" s="8">
         <v>203006</v>
       </c>
-      <c r="K33" s="8">
-        <v>0</v>
-      </c>
-      <c r="L33" s="8" t="str">
+      <c r="L33" s="8">
+        <v>0</v>
+      </c>
+      <c r="M33" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Assets/mnRes/Images/icon/103006.png</v>
       </c>
-      <c r="M33" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" ht="33" spans="1:13">
+      <c r="N33" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" ht="33" spans="1:14">
       <c r="A34" s="8">
         <v>104001</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E34" s="8">
         <v>1</v>
@@ -3582,41 +3705,44 @@
       <c r="F34" s="8">
         <v>4</v>
       </c>
-      <c r="G34" s="8">
+      <c r="G34" s="5">
         <v>0</v>
       </c>
       <c r="H34" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" s="8">
+        <v>1</v>
+      </c>
+      <c r="J34" s="8">
         <v>100</v>
       </c>
-      <c r="J34" s="8">
+      <c r="K34" s="8">
         <v>204001</v>
       </c>
-      <c r="K34" s="11">
-        <v>0</v>
-      </c>
-      <c r="L34" s="8" t="str">
+      <c r="L34" s="11">
+        <v>0</v>
+      </c>
+      <c r="M34" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Assets/mnRes/Images/icon/104001.png</v>
       </c>
-      <c r="M34" s="8">
+      <c r="N34" s="8">
         <v>100</v>
       </c>
     </row>
-    <row r="35" ht="33" spans="1:13">
+    <row r="35" ht="33" spans="1:14">
       <c r="A35" s="8">
         <v>104002</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C35" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" s="9" t="s">
         <v>99</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>97</v>
       </c>
       <c r="E35" s="8">
         <v>1</v>
@@ -3624,41 +3750,44 @@
       <c r="F35" s="8">
         <v>4</v>
       </c>
-      <c r="G35" s="8">
+      <c r="G35" s="5">
         <v>0</v>
       </c>
       <c r="H35" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" s="8">
+        <v>1</v>
+      </c>
+      <c r="J35" s="8">
         <v>101</v>
       </c>
-      <c r="J35" s="8">
+      <c r="K35" s="8">
         <v>204002</v>
       </c>
-      <c r="K35" s="11">
-        <v>0</v>
-      </c>
-      <c r="L35" s="8" t="str">
+      <c r="L35" s="11">
+        <v>0</v>
+      </c>
+      <c r="M35" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Assets/mnRes/Images/icon/104002.png</v>
       </c>
-      <c r="M35" s="8">
+      <c r="N35" s="8">
         <v>100</v>
       </c>
     </row>
-    <row r="36" ht="33" spans="1:13">
+    <row r="36" ht="33" spans="1:14">
       <c r="A36" s="8">
         <v>104003</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E36" s="8">
         <v>1</v>
@@ -3666,41 +3795,44 @@
       <c r="F36" s="8">
         <v>4</v>
       </c>
-      <c r="G36" s="8">
+      <c r="G36" s="5">
         <v>0</v>
       </c>
       <c r="H36" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" s="8">
+        <v>1</v>
+      </c>
+      <c r="J36" s="8">
         <v>102</v>
       </c>
-      <c r="J36" s="8">
+      <c r="K36" s="8">
         <v>204003</v>
       </c>
-      <c r="K36" s="11">
-        <v>0</v>
-      </c>
-      <c r="L36" s="8" t="str">
+      <c r="L36" s="11">
+        <v>0</v>
+      </c>
+      <c r="M36" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Assets/mnRes/Images/icon/104003.png</v>
       </c>
-      <c r="M36" s="8">
+      <c r="N36" s="8">
         <v>500</v>
       </c>
     </row>
-    <row r="37" ht="31" customHeight="1" spans="1:13">
+    <row r="37" ht="31" customHeight="1" spans="1:14">
       <c r="A37" s="8">
         <v>105001</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E37" s="8">
         <v>1</v>
@@ -3708,41 +3840,44 @@
       <c r="F37" s="8">
         <v>5</v>
       </c>
-      <c r="G37" s="8">
+      <c r="G37" s="5">
         <v>0</v>
       </c>
       <c r="H37" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" s="8">
+        <v>1</v>
+      </c>
+      <c r="J37" s="8">
         <v>51</v>
       </c>
-      <c r="J37" s="8">
-        <v>0</v>
-      </c>
-      <c r="K37" s="9">
-        <v>0</v>
-      </c>
-      <c r="L37" s="8" t="str">
+      <c r="K37" s="8">
+        <v>0</v>
+      </c>
+      <c r="L37" s="9">
+        <v>0</v>
+      </c>
+      <c r="M37" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Assets/mnRes/Images/icon/105001.png</v>
       </c>
-      <c r="M37" s="8">
+      <c r="N37" s="8">
         <v>500</v>
       </c>
     </row>
-    <row r="38" ht="31" customHeight="1" spans="1:13">
+    <row r="38" ht="31" customHeight="1" spans="1:14">
       <c r="A38" s="8">
         <v>105002</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E38" s="8">
         <v>1</v>
@@ -3750,41 +3885,44 @@
       <c r="F38" s="8">
         <v>5</v>
       </c>
-      <c r="G38" s="8">
+      <c r="G38" s="5">
         <v>0</v>
       </c>
       <c r="H38" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" s="8">
+        <v>1</v>
+      </c>
+      <c r="J38" s="8">
         <v>52</v>
       </c>
-      <c r="J38" s="8">
-        <v>0</v>
-      </c>
       <c r="K38" s="8">
         <v>0</v>
       </c>
-      <c r="L38" s="8" t="str">
+      <c r="L38" s="8">
+        <v>0</v>
+      </c>
+      <c r="M38" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Assets/mnRes/Images/icon/105002.png</v>
       </c>
-      <c r="M38" s="5">
+      <c r="N38" s="5">
         <v>500</v>
       </c>
     </row>
-    <row r="39" ht="33" spans="1:13">
+    <row r="39" ht="33" spans="1:14">
       <c r="A39" s="8">
         <v>105003</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E39" s="8">
         <v>1</v>
@@ -3792,41 +3930,44 @@
       <c r="F39" s="8">
         <v>5</v>
       </c>
-      <c r="G39" s="8">
+      <c r="G39" s="5">
         <v>0</v>
       </c>
       <c r="H39" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" s="8">
+        <v>1</v>
+      </c>
+      <c r="J39" s="8">
         <v>53</v>
       </c>
-      <c r="J39" s="8">
-        <v>0</v>
-      </c>
       <c r="K39" s="8">
         <v>0</v>
       </c>
-      <c r="L39" s="8" t="str">
+      <c r="L39" s="8">
+        <v>0</v>
+      </c>
+      <c r="M39" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Assets/mnRes/Images/icon/105003.png</v>
       </c>
-      <c r="M39" s="8">
+      <c r="N39" s="8">
         <v>500</v>
       </c>
     </row>
-    <row r="40" ht="33" spans="1:13">
+    <row r="40" ht="33" spans="1:14">
       <c r="A40" s="8">
         <v>105004</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C40" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D40" s="9" t="s">
         <v>112</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>110</v>
       </c>
       <c r="E40" s="8">
         <v>1</v>
@@ -3834,41 +3975,44 @@
       <c r="F40" s="8">
         <v>5</v>
       </c>
-      <c r="G40" s="8">
+      <c r="G40" s="5">
         <v>0</v>
       </c>
       <c r="H40" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" s="8">
+        <v>1</v>
+      </c>
+      <c r="J40" s="8">
         <v>54</v>
       </c>
-      <c r="J40" s="8">
-        <v>0</v>
-      </c>
       <c r="K40" s="8">
         <v>0</v>
       </c>
-      <c r="L40" s="8" t="str">
+      <c r="L40" s="8">
+        <v>0</v>
+      </c>
+      <c r="M40" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Assets/mnRes/Images/icon/105004.png</v>
       </c>
-      <c r="M40" s="8">
+      <c r="N40" s="8">
         <v>1000</v>
       </c>
     </row>
-    <row r="41" ht="49.5" spans="1:13">
+    <row r="41" ht="49.5" spans="1:14">
       <c r="A41" s="8">
         <v>105005</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E41" s="8">
         <v>1</v>
@@ -3876,41 +4020,44 @@
       <c r="F41" s="8">
         <v>5</v>
       </c>
-      <c r="G41" s="8">
+      <c r="G41" s="5">
         <v>0</v>
       </c>
       <c r="H41" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" s="8">
+        <v>1</v>
+      </c>
+      <c r="J41" s="8">
         <v>55</v>
       </c>
-      <c r="J41" s="8">
-        <v>0</v>
-      </c>
       <c r="K41" s="8">
         <v>0</v>
       </c>
-      <c r="L41" s="8" t="str">
+      <c r="L41" s="8">
+        <v>0</v>
+      </c>
+      <c r="M41" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Assets/mnRes/Images/icon/105005.png</v>
       </c>
-      <c r="M41" s="8">
+      <c r="N41" s="8">
         <v>1000</v>
       </c>
     </row>
-    <row r="42" ht="33" spans="1:13">
+    <row r="42" ht="33" spans="1:14">
       <c r="A42" s="8">
         <v>105006</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E42" s="8">
         <v>1</v>
@@ -3918,41 +4065,44 @@
       <c r="F42" s="8">
         <v>5</v>
       </c>
-      <c r="G42" s="8">
+      <c r="G42" s="5">
         <v>0</v>
       </c>
       <c r="H42" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" s="8">
+        <v>1</v>
+      </c>
+      <c r="J42" s="8">
         <v>56</v>
       </c>
-      <c r="J42" s="8">
-        <v>0</v>
-      </c>
       <c r="K42" s="8">
         <v>0</v>
       </c>
-      <c r="L42" s="8" t="str">
+      <c r="L42" s="8">
+        <v>0</v>
+      </c>
+      <c r="M42" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Assets/mnRes/Images/icon/105006.png</v>
       </c>
-      <c r="M42" s="8">
+      <c r="N42" s="8">
         <v>1000</v>
       </c>
     </row>
-    <row r="43" ht="49.5" spans="1:13">
+    <row r="43" ht="49.5" spans="1:14">
       <c r="A43" s="8">
         <v>105007</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E43" s="8">
         <v>1</v>
@@ -3960,41 +4110,44 @@
       <c r="F43" s="8">
         <v>5</v>
       </c>
-      <c r="G43" s="8">
+      <c r="G43" s="5">
         <v>0</v>
       </c>
       <c r="H43" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" s="8">
+        <v>1</v>
+      </c>
+      <c r="J43" s="8">
         <v>57</v>
       </c>
-      <c r="J43" s="8">
-        <v>0</v>
-      </c>
       <c r="K43" s="8">
         <v>0</v>
       </c>
-      <c r="L43" s="8" t="str">
+      <c r="L43" s="8">
+        <v>0</v>
+      </c>
+      <c r="M43" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Assets/mnRes/Images/icon/105007.png</v>
       </c>
-      <c r="M43" s="8">
+      <c r="N43" s="8">
         <v>1000</v>
       </c>
     </row>
-    <row r="44" ht="33" spans="1:13">
+    <row r="44" ht="33" spans="1:14">
       <c r="A44" s="8">
         <v>105008</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E44" s="8">
         <v>1</v>
@@ -4002,41 +4155,44 @@
       <c r="F44" s="8">
         <v>5</v>
       </c>
-      <c r="G44" s="8">
+      <c r="G44" s="5">
         <v>0</v>
       </c>
       <c r="H44" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" s="8">
+        <v>1</v>
+      </c>
+      <c r="J44" s="8">
         <v>58</v>
       </c>
-      <c r="J44" s="8">
-        <v>0</v>
-      </c>
       <c r="K44" s="8">
         <v>0</v>
       </c>
-      <c r="L44" s="8" t="str">
+      <c r="L44" s="8">
+        <v>0</v>
+      </c>
+      <c r="M44" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Assets/mnRes/Images/icon/105008.png</v>
       </c>
-      <c r="M44" s="8">
+      <c r="N44" s="8">
         <v>1000</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:14">
       <c r="A45" s="8">
         <v>106001</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E45" s="8">
         <v>1</v>
@@ -4044,41 +4200,44 @@
       <c r="F45" s="8">
         <v>6</v>
       </c>
-      <c r="G45" s="8">
+      <c r="G45" s="5">
         <v>0</v>
       </c>
       <c r="H45" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" s="8">
+        <v>1</v>
+      </c>
+      <c r="J45" s="8">
         <v>35</v>
       </c>
-      <c r="J45" s="8">
-        <v>0</v>
-      </c>
       <c r="K45" s="8">
         <v>0</v>
       </c>
-      <c r="L45" s="8" t="str">
+      <c r="L45" s="8">
+        <v>0</v>
+      </c>
+      <c r="M45" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Assets/mnRes/Images/icon/106001.png</v>
       </c>
-      <c r="M45" s="8">
+      <c r="N45" s="8">
         <v>5000</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:14">
       <c r="A46" s="8">
         <v>106002</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E46" s="8">
         <v>1</v>
@@ -4086,41 +4245,44 @@
       <c r="F46" s="8">
         <v>6</v>
       </c>
-      <c r="G46" s="8">
+      <c r="G46" s="5">
         <v>0</v>
       </c>
       <c r="H46" s="8">
+        <v>0</v>
+      </c>
+      <c r="I46" s="8">
         <v>2</v>
       </c>
-      <c r="I46" s="8">
+      <c r="J46" s="8">
         <v>36</v>
       </c>
-      <c r="J46" s="8">
-        <v>0</v>
-      </c>
       <c r="K46" s="8">
         <v>0</v>
       </c>
-      <c r="L46" s="8" t="str">
+      <c r="L46" s="8">
+        <v>0</v>
+      </c>
+      <c r="M46" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Assets/mnRes/Images/icon/106002.png</v>
       </c>
-      <c r="M46" s="8">
+      <c r="N46" s="8">
         <v>5000</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:14">
       <c r="A47" s="8">
         <v>106003</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E47" s="8">
         <v>1</v>
@@ -4128,41 +4290,44 @@
       <c r="F47" s="8">
         <v>6</v>
       </c>
-      <c r="G47" s="8">
+      <c r="G47" s="5">
         <v>0</v>
       </c>
       <c r="H47" s="8">
+        <v>0</v>
+      </c>
+      <c r="I47" s="8">
         <v>3</v>
       </c>
-      <c r="I47" s="8">
+      <c r="J47" s="8">
         <v>37</v>
       </c>
-      <c r="J47" s="8">
-        <v>0</v>
-      </c>
       <c r="K47" s="8">
         <v>0</v>
       </c>
-      <c r="L47" s="8" t="str">
+      <c r="L47" s="8">
+        <v>0</v>
+      </c>
+      <c r="M47" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Assets/mnRes/Images/icon/106003.png</v>
       </c>
-      <c r="M47" s="8">
+      <c r="N47" s="8">
         <v>5000</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:14">
       <c r="A48" s="8">
         <v>106004</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E48" s="8">
         <v>1</v>
@@ -4170,41 +4335,44 @@
       <c r="F48" s="8">
         <v>6</v>
       </c>
-      <c r="G48" s="8">
+      <c r="G48" s="5">
         <v>0</v>
       </c>
       <c r="H48" s="8">
+        <v>0</v>
+      </c>
+      <c r="I48" s="8">
         <v>4</v>
       </c>
-      <c r="I48" s="8">
+      <c r="J48" s="8">
         <v>38</v>
       </c>
-      <c r="J48" s="8">
-        <v>0</v>
-      </c>
       <c r="K48" s="8">
         <v>0</v>
       </c>
-      <c r="L48" s="8" t="str">
+      <c r="L48" s="8">
+        <v>0</v>
+      </c>
+      <c r="M48" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Assets/mnRes/Images/icon/106004.png</v>
       </c>
-      <c r="M48" s="8">
+      <c r="N48" s="8">
         <v>5000</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:14">
       <c r="A49" s="8">
         <v>106005</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E49" s="8">
         <v>1</v>
@@ -4212,41 +4380,44 @@
       <c r="F49" s="8">
         <v>6</v>
       </c>
-      <c r="G49" s="8">
+      <c r="G49" s="5">
         <v>0</v>
       </c>
       <c r="H49" s="8">
+        <v>0</v>
+      </c>
+      <c r="I49" s="8">
         <v>5</v>
       </c>
-      <c r="I49" s="8">
+      <c r="J49" s="8">
         <v>39</v>
       </c>
-      <c r="J49" s="8">
-        <v>0</v>
-      </c>
       <c r="K49" s="8">
         <v>0</v>
       </c>
-      <c r="L49" s="8" t="str">
+      <c r="L49" s="8">
+        <v>0</v>
+      </c>
+      <c r="M49" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Assets/mnRes/Images/icon/106005.png</v>
       </c>
-      <c r="M49" s="8">
+      <c r="N49" s="8">
         <v>5000</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:14">
       <c r="A50" s="8">
         <v>106006</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E50" s="8">
         <v>1</v>
@@ -4254,41 +4425,44 @@
       <c r="F50" s="8">
         <v>6</v>
       </c>
-      <c r="G50" s="8">
+      <c r="G50" s="5">
         <v>0</v>
       </c>
       <c r="H50" s="8">
+        <v>0</v>
+      </c>
+      <c r="I50" s="8">
         <v>6</v>
       </c>
-      <c r="I50" s="8">
+      <c r="J50" s="8">
         <v>40</v>
       </c>
-      <c r="J50" s="8">
-        <v>0</v>
-      </c>
       <c r="K50" s="8">
         <v>0</v>
       </c>
-      <c r="L50" s="8" t="str">
+      <c r="L50" s="8">
+        <v>0</v>
+      </c>
+      <c r="M50" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Assets/mnRes/Images/icon/106006.png</v>
       </c>
-      <c r="M50" s="8">
+      <c r="N50" s="8">
         <v>5000</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:14">
       <c r="A51" s="8">
         <v>107001</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E51" s="8">
         <v>2</v>
@@ -4296,41 +4470,44 @@
       <c r="F51" s="8">
         <v>7</v>
       </c>
-      <c r="G51" s="8">
+      <c r="G51" s="5">
         <v>0</v>
       </c>
       <c r="H51" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" s="8">
+        <v>1</v>
+      </c>
+      <c r="J51" s="8">
         <v>71</v>
       </c>
-      <c r="J51" s="8">
-        <v>0</v>
-      </c>
       <c r="K51" s="8">
         <v>0</v>
       </c>
-      <c r="L51" s="8" t="str">
+      <c r="L51" s="8">
+        <v>0</v>
+      </c>
+      <c r="M51" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Assets/mnRes/Images/icon/107001.png</v>
       </c>
-      <c r="M51" s="8">
+      <c r="N51" s="8">
         <v>5000</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:14">
       <c r="A52" s="8">
         <v>107002</v>
       </c>
       <c r="B52" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C52" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="C52" s="8" t="s">
-        <v>136</v>
-      </c>
       <c r="D52" s="8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E52" s="8">
         <v>2</v>
@@ -4338,41 +4515,44 @@
       <c r="F52" s="8">
         <v>7</v>
       </c>
-      <c r="G52" s="8">
+      <c r="G52" s="5">
         <v>0</v>
       </c>
       <c r="H52" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" s="8">
+        <v>1</v>
+      </c>
+      <c r="J52" s="8">
         <v>72</v>
       </c>
-      <c r="J52" s="8">
-        <v>0</v>
-      </c>
       <c r="K52" s="8">
         <v>0</v>
       </c>
-      <c r="L52" s="8" t="str">
+      <c r="L52" s="8">
+        <v>0</v>
+      </c>
+      <c r="M52" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Assets/mnRes/Images/icon/107002.png</v>
       </c>
-      <c r="M52" s="8">
+      <c r="N52" s="8">
         <v>5000</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:14">
       <c r="A53" s="8">
         <v>107003</v>
       </c>
       <c r="B53" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D53" s="8" t="s">
         <v>139</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>137</v>
       </c>
       <c r="E53" s="8">
         <v>2</v>
@@ -4380,41 +4560,44 @@
       <c r="F53" s="8">
         <v>7</v>
       </c>
-      <c r="G53" s="8">
+      <c r="G53" s="5">
         <v>0</v>
       </c>
       <c r="H53" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" s="8">
+        <v>1</v>
+      </c>
+      <c r="J53" s="8">
         <v>73</v>
       </c>
-      <c r="J53" s="8">
-        <v>0</v>
-      </c>
       <c r="K53" s="8">
         <v>0</v>
       </c>
-      <c r="L53" s="8" t="str">
+      <c r="L53" s="8">
+        <v>0</v>
+      </c>
+      <c r="M53" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Assets/mnRes/Images/icon/107003.png</v>
       </c>
-      <c r="M53" s="8">
+      <c r="N53" s="8">
         <v>5000</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:14">
       <c r="A54" s="8">
         <v>107004</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E54" s="8">
         <v>2</v>
@@ -4422,41 +4605,44 @@
       <c r="F54" s="8">
         <v>7</v>
       </c>
-      <c r="G54" s="8">
+      <c r="G54" s="5">
         <v>0</v>
       </c>
       <c r="H54" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" s="8">
+        <v>1</v>
+      </c>
+      <c r="J54" s="8">
         <v>74</v>
       </c>
-      <c r="J54" s="8">
-        <v>0</v>
-      </c>
       <c r="K54" s="8">
         <v>0</v>
       </c>
-      <c r="L54" s="8" t="str">
+      <c r="L54" s="8">
+        <v>0</v>
+      </c>
+      <c r="M54" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Assets/mnRes/Images/icon/107004.png</v>
       </c>
-      <c r="M54" s="8">
+      <c r="N54" s="8">
         <v>500</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:14">
       <c r="A55" s="8">
         <v>107005</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E55" s="8">
         <v>2</v>
@@ -4464,41 +4650,44 @@
       <c r="F55" s="8">
         <v>7</v>
       </c>
-      <c r="G55" s="8">
+      <c r="G55" s="5">
         <v>0</v>
       </c>
       <c r="H55" s="8">
+        <v>0</v>
+      </c>
+      <c r="I55" s="8">
         <v>2</v>
       </c>
-      <c r="I55" s="8">
+      <c r="J55" s="8">
         <v>75</v>
       </c>
-      <c r="J55" s="8">
-        <v>0</v>
-      </c>
       <c r="K55" s="8">
         <v>0</v>
       </c>
-      <c r="L55" s="8" t="str">
+      <c r="L55" s="8">
+        <v>0</v>
+      </c>
+      <c r="M55" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Assets/mnRes/Images/icon/107005.png</v>
       </c>
-      <c r="M55" s="8">
+      <c r="N55" s="8">
         <v>150</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:14">
       <c r="A56" s="8">
         <v>107006</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E56" s="8">
         <v>2</v>
@@ -4506,41 +4695,44 @@
       <c r="F56" s="8">
         <v>7</v>
       </c>
-      <c r="G56" s="8">
+      <c r="G56" s="5">
         <v>0</v>
       </c>
       <c r="H56" s="8">
+        <v>0</v>
+      </c>
+      <c r="I56" s="8">
         <v>2</v>
       </c>
-      <c r="I56" s="8">
+      <c r="J56" s="8">
         <v>76</v>
       </c>
-      <c r="J56" s="8">
-        <v>0</v>
-      </c>
       <c r="K56" s="8">
         <v>0</v>
       </c>
-      <c r="L56" s="8" t="str">
+      <c r="L56" s="8">
+        <v>0</v>
+      </c>
+      <c r="M56" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Assets/mnRes/Images/icon/107006.png</v>
       </c>
-      <c r="M56" s="8">
+      <c r="N56" s="8">
         <v>250</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:14">
       <c r="A57" s="8">
         <v>107007</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E57" s="8">
         <v>2</v>
@@ -4548,41 +4740,44 @@
       <c r="F57" s="8">
         <v>7</v>
       </c>
-      <c r="G57" s="8">
+      <c r="G57" s="5">
         <v>0</v>
       </c>
       <c r="H57" s="8">
+        <v>0</v>
+      </c>
+      <c r="I57" s="8">
         <v>2</v>
       </c>
-      <c r="I57" s="8">
+      <c r="J57" s="8">
         <v>77</v>
       </c>
-      <c r="J57" s="8">
-        <v>0</v>
-      </c>
       <c r="K57" s="8">
         <v>0</v>
       </c>
-      <c r="L57" s="8" t="str">
+      <c r="L57" s="8">
+        <v>0</v>
+      </c>
+      <c r="M57" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Assets/mnRes/Images/icon/107007.png</v>
       </c>
-      <c r="M57" s="8">
+      <c r="N57" s="8">
         <v>350</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:14">
       <c r="A58" s="8">
         <v>107008</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E58" s="8">
         <v>2</v>
@@ -4590,41 +4785,44 @@
       <c r="F58" s="8">
         <v>7</v>
       </c>
-      <c r="G58" s="8">
+      <c r="G58" s="5">
         <v>0</v>
       </c>
       <c r="H58" s="8">
+        <v>0</v>
+      </c>
+      <c r="I58" s="8">
         <v>3</v>
       </c>
-      <c r="I58" s="8">
+      <c r="J58" s="8">
         <v>78</v>
       </c>
-      <c r="J58" s="8">
-        <v>0</v>
-      </c>
       <c r="K58" s="8">
         <v>0</v>
       </c>
-      <c r="L58" s="8" t="str">
+      <c r="L58" s="8">
+        <v>0</v>
+      </c>
+      <c r="M58" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Assets/mnRes/Images/icon/107008.png</v>
       </c>
-      <c r="M58" s="8">
+      <c r="N58" s="8">
         <v>450</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:14">
       <c r="A59" s="8">
         <v>107009</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E59" s="8">
         <v>2</v>
@@ -4632,41 +4830,44 @@
       <c r="F59" s="8">
         <v>7</v>
       </c>
-      <c r="G59" s="8">
+      <c r="G59" s="5">
         <v>0</v>
       </c>
       <c r="H59" s="8">
+        <v>0</v>
+      </c>
+      <c r="I59" s="8">
         <v>3</v>
       </c>
-      <c r="I59" s="8">
+      <c r="J59" s="8">
         <v>79</v>
       </c>
-      <c r="J59" s="8">
-        <v>0</v>
-      </c>
       <c r="K59" s="8">
         <v>0</v>
       </c>
-      <c r="L59" s="8" t="str">
+      <c r="L59" s="8">
+        <v>0</v>
+      </c>
+      <c r="M59" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Assets/mnRes/Images/icon/107009.png</v>
       </c>
-      <c r="M59" s="8">
+      <c r="N59" s="8">
         <v>550</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:14">
       <c r="A60" s="8">
         <v>107010</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E60" s="8">
         <v>2</v>
@@ -4674,41 +4875,44 @@
       <c r="F60" s="8">
         <v>7</v>
       </c>
-      <c r="G60" s="8">
+      <c r="G60" s="5">
         <v>0</v>
       </c>
       <c r="H60" s="8">
+        <v>0</v>
+      </c>
+      <c r="I60" s="8">
         <v>3</v>
       </c>
-      <c r="I60" s="8">
+      <c r="J60" s="8">
         <v>80</v>
       </c>
-      <c r="J60" s="8">
-        <v>0</v>
-      </c>
       <c r="K60" s="8">
         <v>0</v>
       </c>
-      <c r="L60" s="8" t="str">
+      <c r="L60" s="8">
+        <v>0</v>
+      </c>
+      <c r="M60" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Assets/mnRes/Images/icon/107010.png</v>
       </c>
-      <c r="M60" s="8">
+      <c r="N60" s="8">
         <v>650</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:14">
       <c r="A61" s="8">
         <v>107011</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E61" s="8">
         <v>2</v>
@@ -4716,41 +4920,44 @@
       <c r="F61" s="8">
         <v>7</v>
       </c>
-      <c r="G61" s="8">
+      <c r="G61" s="5">
         <v>0</v>
       </c>
       <c r="H61" s="8">
+        <v>0</v>
+      </c>
+      <c r="I61" s="8">
         <v>3</v>
       </c>
-      <c r="I61" s="8">
+      <c r="J61" s="8">
         <v>81</v>
       </c>
-      <c r="J61" s="8">
-        <v>0</v>
-      </c>
       <c r="K61" s="8">
         <v>0</v>
       </c>
-      <c r="L61" s="8" t="str">
+      <c r="L61" s="8">
+        <v>0</v>
+      </c>
+      <c r="M61" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Assets/mnRes/Images/icon/107011.png</v>
       </c>
-      <c r="M61" s="8">
+      <c r="N61" s="8">
         <v>150</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:14">
       <c r="A62" s="8">
         <v>107012</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E62" s="8">
         <v>2</v>
@@ -4758,41 +4965,44 @@
       <c r="F62" s="8">
         <v>7</v>
       </c>
-      <c r="G62" s="8">
+      <c r="G62" s="5">
         <v>0</v>
       </c>
       <c r="H62" s="8">
+        <v>0</v>
+      </c>
+      <c r="I62" s="8">
         <v>3</v>
       </c>
-      <c r="I62" s="8">
+      <c r="J62" s="8">
         <v>82</v>
       </c>
-      <c r="J62" s="8">
-        <v>0</v>
-      </c>
       <c r="K62" s="8">
         <v>0</v>
       </c>
-      <c r="L62" s="8" t="str">
+      <c r="L62" s="8">
+        <v>0</v>
+      </c>
+      <c r="M62" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Assets/mnRes/Images/icon/107012.png</v>
       </c>
-      <c r="M62" s="8">
+      <c r="N62" s="8">
         <v>200</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:14">
       <c r="A63" s="8">
         <v>107013</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E63" s="8">
         <v>2</v>
@@ -4800,41 +5010,44 @@
       <c r="F63" s="8">
         <v>7</v>
       </c>
-      <c r="G63" s="8">
+      <c r="G63" s="5">
         <v>0</v>
       </c>
       <c r="H63" s="8">
+        <v>0</v>
+      </c>
+      <c r="I63" s="8">
         <v>3</v>
       </c>
-      <c r="I63" s="8">
+      <c r="J63" s="8">
         <v>83</v>
       </c>
-      <c r="J63" s="8">
-        <v>0</v>
-      </c>
       <c r="K63" s="8">
         <v>0</v>
       </c>
-      <c r="L63" s="8" t="str">
+      <c r="L63" s="8">
+        <v>0</v>
+      </c>
+      <c r="M63" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Assets/mnRes/Images/icon/107013.png</v>
       </c>
-      <c r="M63" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
+      <c r="N63" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
       <c r="A64" s="8">
         <v>107014</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E64" s="8">
         <v>2</v>
@@ -4842,41 +5055,44 @@
       <c r="F64" s="8">
         <v>7</v>
       </c>
-      <c r="G64" s="8">
+      <c r="G64" s="5">
         <v>0</v>
       </c>
       <c r="H64" s="8">
+        <v>0</v>
+      </c>
+      <c r="I64" s="8">
         <v>3</v>
       </c>
-      <c r="I64" s="8">
+      <c r="J64" s="8">
         <v>84</v>
       </c>
-      <c r="J64" s="8">
-        <v>0</v>
-      </c>
       <c r="K64" s="8">
         <v>0</v>
       </c>
-      <c r="L64" s="8" t="str">
+      <c r="L64" s="8">
+        <v>0</v>
+      </c>
+      <c r="M64" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Assets/mnRes/Images/icon/107014.png</v>
       </c>
-      <c r="M64" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" ht="31" customHeight="1" spans="1:13">
+      <c r="N64" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" ht="31" customHeight="1" spans="1:14">
       <c r="A65" s="8">
         <v>107015</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E65" s="8">
         <v>2</v>
@@ -4884,41 +5100,44 @@
       <c r="F65" s="8">
         <v>7</v>
       </c>
-      <c r="G65" s="8">
+      <c r="G65" s="5">
         <v>0</v>
       </c>
       <c r="H65" s="8">
+        <v>0</v>
+      </c>
+      <c r="I65" s="8">
         <v>4</v>
       </c>
-      <c r="I65" s="8">
+      <c r="J65" s="8">
         <v>85</v>
       </c>
-      <c r="J65" s="8">
-        <v>0</v>
-      </c>
       <c r="K65" s="8">
         <v>0</v>
       </c>
-      <c r="L65" s="8" t="str">
+      <c r="L65" s="8">
+        <v>0</v>
+      </c>
+      <c r="M65" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Assets/mnRes/Images/icon/107015.png</v>
       </c>
-      <c r="M65" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" ht="33" customHeight="1" spans="1:13">
+      <c r="N65" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" ht="33" customHeight="1" spans="1:14">
       <c r="A66" s="8">
         <v>107016</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E66" s="8">
         <v>2</v>
@@ -4926,41 +5145,44 @@
       <c r="F66" s="8">
         <v>7</v>
       </c>
-      <c r="G66" s="8">
+      <c r="G66" s="5">
         <v>0</v>
       </c>
       <c r="H66" s="8">
+        <v>0</v>
+      </c>
+      <c r="I66" s="8">
         <v>4</v>
       </c>
-      <c r="I66" s="8">
+      <c r="J66" s="8">
         <v>86</v>
       </c>
-      <c r="J66" s="8">
-        <v>0</v>
-      </c>
       <c r="K66" s="8">
         <v>0</v>
       </c>
-      <c r="L66" s="8" t="str">
+      <c r="L66" s="8">
+        <v>0</v>
+      </c>
+      <c r="M66" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Assets/mnRes/Images/icon/107016.png</v>
       </c>
-      <c r="M66" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" ht="29" customHeight="1" spans="1:13">
+      <c r="N66" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" ht="29" customHeight="1" spans="1:14">
       <c r="A67" s="8">
         <v>107017</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E67" s="8">
         <v>2</v>
@@ -4968,41 +5190,44 @@
       <c r="F67" s="8">
         <v>7</v>
       </c>
-      <c r="G67" s="8">
+      <c r="G67" s="5">
         <v>0</v>
       </c>
       <c r="H67" s="8">
+        <v>0</v>
+      </c>
+      <c r="I67" s="8">
         <v>4</v>
       </c>
-      <c r="I67" s="8">
+      <c r="J67" s="8">
         <v>87</v>
       </c>
-      <c r="J67" s="8">
-        <v>0</v>
-      </c>
       <c r="K67" s="8">
         <v>0</v>
       </c>
-      <c r="L67" s="8" t="str">
-        <f t="shared" ref="L67:L77" si="1">"Assets/mnRes/Images/icon/"&amp;A67&amp;".png"</f>
+      <c r="L67" s="8">
+        <v>0</v>
+      </c>
+      <c r="M67" s="8" t="str">
+        <f t="shared" ref="M67:M77" si="1">"Assets/mnRes/Images/icon/"&amp;A67&amp;".png"</f>
         <v>Assets/mnRes/Images/icon/107017.png</v>
       </c>
-      <c r="M67" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" ht="33" customHeight="1" spans="1:13">
+      <c r="N67" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" ht="33" customHeight="1" spans="1:14">
       <c r="A68" s="8">
         <v>107018</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E68" s="8">
         <v>2</v>
@@ -5010,41 +5235,44 @@
       <c r="F68" s="8">
         <v>7</v>
       </c>
-      <c r="G68" s="8">
+      <c r="G68" s="5">
         <v>0</v>
       </c>
       <c r="H68" s="8">
+        <v>0</v>
+      </c>
+      <c r="I68" s="8">
         <v>4</v>
       </c>
-      <c r="I68" s="8">
+      <c r="J68" s="8">
         <v>88</v>
       </c>
-      <c r="J68" s="8">
-        <v>0</v>
-      </c>
       <c r="K68" s="8">
         <v>0</v>
       </c>
-      <c r="L68" s="8" t="str">
+      <c r="L68" s="8">
+        <v>0</v>
+      </c>
+      <c r="M68" s="8" t="str">
         <f t="shared" si="1"/>
         <v>Assets/mnRes/Images/icon/107018.png</v>
       </c>
-      <c r="M68" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13">
+      <c r="N68" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
       <c r="A69" s="8">
         <v>107019</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E69" s="8">
         <v>2</v>
@@ -5052,41 +5280,44 @@
       <c r="F69" s="8">
         <v>7</v>
       </c>
-      <c r="G69" s="8">
+      <c r="G69" s="5">
         <v>0</v>
       </c>
       <c r="H69" s="8">
+        <v>0</v>
+      </c>
+      <c r="I69" s="8">
         <v>5</v>
       </c>
-      <c r="I69" s="8">
+      <c r="J69" s="8">
         <v>89</v>
       </c>
-      <c r="J69" s="8">
-        <v>0</v>
-      </c>
       <c r="K69" s="8">
         <v>0</v>
       </c>
-      <c r="L69" s="5" t="str">
+      <c r="L69" s="8">
+        <v>0</v>
+      </c>
+      <c r="M69" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Assets/mnRes/Images/icon/107019.png</v>
       </c>
-      <c r="M69" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13">
+      <c r="N69" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
       <c r="A70" s="8">
         <v>107020</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E70" s="8">
         <v>2</v>
@@ -5094,41 +5325,44 @@
       <c r="F70" s="8">
         <v>7</v>
       </c>
-      <c r="G70" s="8">
+      <c r="G70" s="5">
         <v>0</v>
       </c>
       <c r="H70" s="8">
+        <v>0</v>
+      </c>
+      <c r="I70" s="8">
         <v>5</v>
       </c>
-      <c r="I70" s="8">
+      <c r="J70" s="8">
         <v>90</v>
       </c>
-      <c r="J70" s="8">
-        <v>0</v>
-      </c>
       <c r="K70" s="8">
         <v>0</v>
       </c>
-      <c r="L70" s="5" t="str">
+      <c r="L70" s="8">
+        <v>0</v>
+      </c>
+      <c r="M70" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Assets/mnRes/Images/icon/107020.png</v>
       </c>
-      <c r="M70" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" ht="49.5" spans="1:13">
+      <c r="N70" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" ht="49.5" spans="1:14">
       <c r="A71" s="8">
         <v>108001</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E71" s="8">
         <v>1</v>
@@ -5136,41 +5370,44 @@
       <c r="F71" s="8">
         <v>8</v>
       </c>
-      <c r="G71" s="8">
+      <c r="G71" s="5">
         <v>0</v>
       </c>
       <c r="H71" s="8">
+        <v>0</v>
+      </c>
+      <c r="I71" s="8">
         <v>2</v>
       </c>
-      <c r="I71" s="8">
+      <c r="J71" s="8">
         <v>140</v>
       </c>
-      <c r="J71" s="8">
-        <v>0</v>
-      </c>
       <c r="K71" s="8">
         <v>0</v>
       </c>
-      <c r="L71" s="5" t="str">
+      <c r="L71" s="8">
+        <v>0</v>
+      </c>
+      <c r="M71" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Assets/mnRes/Images/icon/108001.png</v>
       </c>
-      <c r="M71" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" ht="49.5" spans="1:13">
+      <c r="N71" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" ht="49.5" spans="1:14">
       <c r="A72" s="8">
         <v>108002</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C72" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="D72" s="9" t="s">
         <v>161</v>
-      </c>
-      <c r="D72" s="9" t="s">
-        <v>159</v>
       </c>
       <c r="E72" s="8">
         <v>1</v>
@@ -5178,41 +5415,44 @@
       <c r="F72" s="8">
         <v>8</v>
       </c>
-      <c r="G72" s="8">
+      <c r="G72" s="5">
         <v>0</v>
       </c>
       <c r="H72" s="8">
+        <v>0</v>
+      </c>
+      <c r="I72" s="8">
         <v>3</v>
       </c>
-      <c r="I72" s="8">
+      <c r="J72" s="8">
         <v>141</v>
       </c>
-      <c r="J72" s="8">
-        <v>0</v>
-      </c>
       <c r="K72" s="8">
         <v>0</v>
       </c>
-      <c r="L72" s="5" t="str">
+      <c r="L72" s="8">
+        <v>0</v>
+      </c>
+      <c r="M72" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Assets/mnRes/Images/icon/108002.png</v>
       </c>
-      <c r="M72" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" ht="49.5" spans="1:13">
+      <c r="N72" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" ht="49.5" spans="1:14">
       <c r="A73" s="8">
         <v>108003</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E73" s="8">
         <v>1</v>
@@ -5220,41 +5460,44 @@
       <c r="F73" s="8">
         <v>8</v>
       </c>
-      <c r="G73" s="8">
+      <c r="G73" s="5">
         <v>0</v>
       </c>
       <c r="H73" s="8">
+        <v>0</v>
+      </c>
+      <c r="I73" s="8">
         <v>4</v>
       </c>
-      <c r="I73" s="8">
+      <c r="J73" s="8">
         <v>142</v>
       </c>
-      <c r="J73" s="8">
-        <v>0</v>
-      </c>
       <c r="K73" s="8">
         <v>0</v>
       </c>
-      <c r="L73" s="5" t="str">
+      <c r="L73" s="8">
+        <v>0</v>
+      </c>
+      <c r="M73" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Assets/mnRes/Images/icon/108003.png</v>
       </c>
-      <c r="M73" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" ht="33" spans="1:13">
+      <c r="N73" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" ht="33" spans="1:14">
       <c r="A74" s="8">
         <v>109001</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E74" s="8">
         <v>1</v>
@@ -5262,41 +5505,44 @@
       <c r="F74" s="8">
         <v>9</v>
       </c>
-      <c r="G74" s="8">
+      <c r="G74" s="5">
         <v>0</v>
       </c>
       <c r="H74" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" s="8">
+        <v>1</v>
+      </c>
+      <c r="J74" s="8">
         <v>120</v>
       </c>
-      <c r="J74" s="8">
-        <v>0</v>
-      </c>
       <c r="K74" s="8">
         <v>0</v>
       </c>
-      <c r="L74" s="8" t="str">
+      <c r="L74" s="8">
+        <v>0</v>
+      </c>
+      <c r="M74" s="8" t="str">
         <f t="shared" si="1"/>
         <v>Assets/mnRes/Images/icon/109001.png</v>
       </c>
-      <c r="M74" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" ht="33" spans="1:13">
+      <c r="N74" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" ht="33" spans="1:14">
       <c r="A75" s="8">
         <v>109002</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C75" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="D75" s="9" t="s">
         <v>168</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>166</v>
       </c>
       <c r="E75" s="8">
         <v>1</v>
@@ -5304,41 +5550,44 @@
       <c r="F75" s="8">
         <v>9</v>
       </c>
-      <c r="G75" s="8">
+      <c r="G75" s="5">
         <v>0</v>
       </c>
       <c r="H75" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" s="8">
+        <v>1</v>
+      </c>
+      <c r="J75" s="8">
         <v>121</v>
       </c>
-      <c r="J75" s="8">
-        <v>0</v>
-      </c>
       <c r="K75" s="8">
         <v>0</v>
       </c>
-      <c r="L75" s="8" t="str">
+      <c r="L75" s="8">
+        <v>0</v>
+      </c>
+      <c r="M75" s="8" t="str">
         <f t="shared" si="1"/>
         <v>Assets/mnRes/Images/icon/109002.png</v>
       </c>
-      <c r="M75" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" ht="33" spans="1:13">
+      <c r="N75" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" ht="33" spans="1:14">
       <c r="A76" s="8">
         <v>109003</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E76" s="8">
         <v>1</v>
@@ -5346,41 +5595,44 @@
       <c r="F76" s="8">
         <v>9</v>
       </c>
-      <c r="G76" s="8">
+      <c r="G76" s="5">
         <v>0</v>
       </c>
       <c r="H76" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" s="8">
+        <v>1</v>
+      </c>
+      <c r="J76" s="8">
         <v>130</v>
       </c>
-      <c r="J76" s="8">
-        <v>0</v>
-      </c>
       <c r="K76" s="8">
         <v>0</v>
       </c>
-      <c r="L76" s="5" t="str">
+      <c r="L76" s="8">
+        <v>0</v>
+      </c>
+      <c r="M76" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Assets/mnRes/Images/icon/109003.png</v>
       </c>
-      <c r="M76" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" ht="33" spans="1:13">
+      <c r="N76" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" ht="33" spans="1:14">
       <c r="A77" s="8">
         <v>109004</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E77" s="8">
         <v>1</v>
@@ -5388,41 +5640,44 @@
       <c r="F77" s="8">
         <v>9</v>
       </c>
-      <c r="G77" s="8">
+      <c r="G77" s="5">
         <v>0</v>
       </c>
       <c r="H77" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" s="8">
+        <v>1</v>
+      </c>
+      <c r="J77" s="8">
         <v>131</v>
       </c>
-      <c r="J77" s="8">
-        <v>0</v>
-      </c>
       <c r="K77" s="8">
         <v>0</v>
       </c>
-      <c r="L77" s="5" t="str">
+      <c r="L77" s="8">
+        <v>0</v>
+      </c>
+      <c r="M77" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Assets/mnRes/Images/icon/109004.png</v>
       </c>
-      <c r="M77" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13">
+      <c r="N77" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
       <c r="A78" s="8">
         <v>111001</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E78" s="8">
         <v>0</v>
@@ -5430,11 +5685,11 @@
       <c r="F78" s="8">
         <v>11</v>
       </c>
-      <c r="G78" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="H78" s="8">
-        <v>0</v>
+      <c r="G78" s="5">
+        <v>0</v>
+      </c>
+      <c r="H78" s="8" t="s">
+        <v>178</v>
       </c>
       <c r="I78" s="8">
         <v>0</v>
@@ -5445,25 +5700,28 @@
       <c r="K78" s="8">
         <v>0</v>
       </c>
-      <c r="L78" s="17">
-        <v>0</v>
-      </c>
-      <c r="M78" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" ht="49.5" spans="1:13">
+      <c r="L78" s="8">
+        <v>0</v>
+      </c>
+      <c r="M78" s="17">
+        <v>0</v>
+      </c>
+      <c r="N78" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" ht="49.5" spans="1:14">
       <c r="A79" s="8">
         <v>112001</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E79" s="9">
         <v>0</v>
@@ -5471,11 +5729,11 @@
       <c r="F79" s="8">
         <v>12</v>
       </c>
-      <c r="G79" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="H79" s="8">
-        <v>0</v>
+      <c r="G79" s="5">
+        <v>0</v>
+      </c>
+      <c r="H79" s="8" t="s">
+        <v>182</v>
       </c>
       <c r="I79" s="8">
         <v>0</v>
@@ -5486,25 +5744,28 @@
       <c r="K79" s="8">
         <v>0</v>
       </c>
-      <c r="L79" s="17">
-        <v>0</v>
-      </c>
-      <c r="M79" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" ht="49.5" spans="1:13">
+      <c r="L79" s="8">
+        <v>0</v>
+      </c>
+      <c r="M79" s="17">
+        <v>0</v>
+      </c>
+      <c r="N79" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" ht="49.5" spans="1:14">
       <c r="A80" s="8">
         <v>112002</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E80" s="8">
         <v>0</v>
@@ -5512,11 +5773,11 @@
       <c r="F80" s="8">
         <v>12</v>
       </c>
-      <c r="G80" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="H80" s="8">
-        <v>0</v>
+      <c r="G80" s="5">
+        <v>0</v>
+      </c>
+      <c r="H80" s="8" t="s">
+        <v>186</v>
       </c>
       <c r="I80" s="8">
         <v>0</v>
@@ -5527,25 +5788,28 @@
       <c r="K80" s="8">
         <v>0</v>
       </c>
-      <c r="L80" s="17">
-        <v>0</v>
-      </c>
-      <c r="M80" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" ht="49.5" spans="1:13">
+      <c r="L80" s="8">
+        <v>0</v>
+      </c>
+      <c r="M80" s="17">
+        <v>0</v>
+      </c>
+      <c r="N80" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" ht="49.5" spans="1:14">
       <c r="A81" s="8">
         <v>112003</v>
       </c>
       <c r="B81" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="D81" s="8" t="s">
         <v>185</v>
-      </c>
-      <c r="C81" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="D81" s="8" t="s">
-        <v>183</v>
       </c>
       <c r="E81" s="8">
         <v>0</v>
@@ -5553,11 +5817,11 @@
       <c r="F81" s="8">
         <v>12</v>
       </c>
-      <c r="G81" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="H81" s="8">
-        <v>0</v>
+      <c r="G81" s="5">
+        <v>0</v>
+      </c>
+      <c r="H81" s="8" t="s">
+        <v>189</v>
       </c>
       <c r="I81" s="8">
         <v>0</v>
@@ -5568,25 +5832,28 @@
       <c r="K81" s="8">
         <v>0</v>
       </c>
-      <c r="L81" s="17">
-        <v>0</v>
-      </c>
-      <c r="M81" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" ht="33" spans="1:13">
+      <c r="L81" s="8">
+        <v>0</v>
+      </c>
+      <c r="M81" s="17">
+        <v>0</v>
+      </c>
+      <c r="N81" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" ht="33" spans="1:14">
       <c r="A82" s="8">
         <v>114001</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E82" s="8">
         <v>0</v>
@@ -5594,11 +5861,11 @@
       <c r="F82" s="8">
         <v>14</v>
       </c>
-      <c r="G82" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="H82" s="8">
-        <v>0</v>
+      <c r="G82" s="5">
+        <v>0</v>
+      </c>
+      <c r="H82" s="8" t="s">
+        <v>193</v>
       </c>
       <c r="I82" s="8">
         <v>0</v>
@@ -5609,25 +5876,28 @@
       <c r="K82" s="8">
         <v>0</v>
       </c>
-      <c r="L82" s="17">
-        <v>0</v>
-      </c>
-      <c r="M82" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" ht="33" spans="1:13">
+      <c r="L82" s="8">
+        <v>0</v>
+      </c>
+      <c r="M82" s="17">
+        <v>0</v>
+      </c>
+      <c r="N82" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" ht="33" spans="1:14">
       <c r="A83" s="8">
         <v>114002</v>
       </c>
       <c r="B83" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D83" s="9" t="s">
         <v>192</v>
-      </c>
-      <c r="C83" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="D83" s="9" t="s">
-        <v>190</v>
       </c>
       <c r="E83" s="8">
         <v>0</v>
@@ -5635,11 +5905,11 @@
       <c r="F83" s="8">
         <v>14</v>
       </c>
-      <c r="G83" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="H83" s="8">
-        <v>0</v>
+      <c r="G83" s="5">
+        <v>0</v>
+      </c>
+      <c r="H83" s="8" t="s">
+        <v>196</v>
       </c>
       <c r="I83" s="8">
         <v>0</v>
@@ -5650,25 +5920,28 @@
       <c r="K83" s="8">
         <v>0</v>
       </c>
-      <c r="L83" s="17">
-        <v>0</v>
-      </c>
-      <c r="M83" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" ht="33" spans="1:13">
+      <c r="L83" s="8">
+        <v>0</v>
+      </c>
+      <c r="M83" s="17">
+        <v>0</v>
+      </c>
+      <c r="N83" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" ht="33" spans="1:14">
       <c r="A84" s="8">
         <v>114003</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E84" s="8">
         <v>0</v>
@@ -5676,11 +5949,11 @@
       <c r="F84" s="8">
         <v>14</v>
       </c>
-      <c r="G84" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="H84" s="8">
-        <v>0</v>
+      <c r="G84" s="5">
+        <v>0</v>
+      </c>
+      <c r="H84" s="8" t="s">
+        <v>199</v>
       </c>
       <c r="I84" s="8">
         <v>0</v>
@@ -5691,25 +5964,28 @@
       <c r="K84" s="8">
         <v>0</v>
       </c>
-      <c r="L84" s="17">
-        <v>0</v>
-      </c>
-      <c r="M84" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" ht="33" spans="1:13">
+      <c r="L84" s="8">
+        <v>0</v>
+      </c>
+      <c r="M84" s="17">
+        <v>0</v>
+      </c>
+      <c r="N84" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" ht="33" spans="1:14">
       <c r="A85" s="8">
         <v>114004</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E85" s="8">
         <v>0</v>
@@ -5717,11 +5993,11 @@
       <c r="F85" s="8">
         <v>14</v>
       </c>
-      <c r="G85" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="H85" s="8">
-        <v>0</v>
+      <c r="G85" s="5">
+        <v>0</v>
+      </c>
+      <c r="H85" s="8" t="s">
+        <v>202</v>
       </c>
       <c r="I85" s="8">
         <v>0</v>
@@ -5732,25 +6008,28 @@
       <c r="K85" s="8">
         <v>0</v>
       </c>
-      <c r="L85" s="17">
-        <v>0</v>
-      </c>
-      <c r="M85" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13">
+      <c r="L85" s="8">
+        <v>0</v>
+      </c>
+      <c r="M85" s="17">
+        <v>0</v>
+      </c>
+      <c r="N85" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
       <c r="A86" s="8">
         <v>115001</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E86" s="8">
         <v>0</v>
@@ -5758,11 +6037,11 @@
       <c r="F86" s="8">
         <v>15</v>
       </c>
-      <c r="G86" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="H86" s="8">
-        <v>0</v>
+      <c r="G86" s="5">
+        <v>1</v>
+      </c>
+      <c r="H86" s="8" t="s">
+        <v>206</v>
       </c>
       <c r="I86" s="8">
         <v>0</v>
@@ -5773,25 +6052,28 @@
       <c r="K86" s="8">
         <v>0</v>
       </c>
-      <c r="L86" s="17">
-        <v>0</v>
-      </c>
-      <c r="M86" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13">
+      <c r="L86" s="8">
+        <v>0</v>
+      </c>
+      <c r="M86" s="17">
+        <v>0</v>
+      </c>
+      <c r="N86" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
       <c r="A87" s="8">
         <v>115002</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E87" s="8">
         <v>0</v>
@@ -5799,11 +6081,11 @@
       <c r="F87" s="8">
         <v>15</v>
       </c>
-      <c r="G87" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="H87" s="8">
-        <v>0</v>
+      <c r="G87" s="5">
+        <v>2</v>
+      </c>
+      <c r="H87" s="8" t="s">
+        <v>210</v>
       </c>
       <c r="I87" s="8">
         <v>0</v>
@@ -5814,25 +6096,28 @@
       <c r="K87" s="8">
         <v>0</v>
       </c>
-      <c r="L87" s="17">
-        <v>0</v>
-      </c>
-      <c r="M87" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13">
+      <c r="L87" s="8">
+        <v>0</v>
+      </c>
+      <c r="M87" s="17">
+        <v>0</v>
+      </c>
+      <c r="N87" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
       <c r="A88" s="8">
         <v>115003</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E88" s="5">
         <v>3</v>
@@ -5840,11 +6125,11 @@
       <c r="F88" s="5">
         <v>15</v>
       </c>
-      <c r="G88" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="H88" s="5">
-        <v>0</v>
+      <c r="G88" s="5">
+        <v>3</v>
+      </c>
+      <c r="H88" s="5" t="s">
+        <v>214</v>
       </c>
       <c r="I88" s="5">
         <v>0</v>
@@ -5855,25 +6140,28 @@
       <c r="K88" s="5">
         <v>0</v>
       </c>
-      <c r="L88" s="17">
-        <v>0</v>
-      </c>
-      <c r="M88" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13">
+      <c r="L88" s="5">
+        <v>0</v>
+      </c>
+      <c r="M88" s="17">
+        <v>0</v>
+      </c>
+      <c r="N88" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
       <c r="A89" s="8">
         <v>115004</v>
       </c>
       <c r="B89" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="D89" s="5" t="s">
         <v>213</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>211</v>
       </c>
       <c r="E89" s="5">
         <v>3</v>
@@ -5881,11 +6169,11 @@
       <c r="F89" s="5">
         <v>15</v>
       </c>
-      <c r="G89" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="H89" s="5">
-        <v>0</v>
+      <c r="G89" s="5">
+        <v>4</v>
+      </c>
+      <c r="H89" s="5" t="s">
+        <v>217</v>
       </c>
       <c r="I89" s="5">
         <v>0</v>
@@ -5896,25 +6184,28 @@
       <c r="K89" s="5">
         <v>0</v>
       </c>
-      <c r="L89" s="17">
-        <v>0</v>
-      </c>
-      <c r="M89" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13">
+      <c r="L89" s="5">
+        <v>0</v>
+      </c>
+      <c r="M89" s="17">
+        <v>0</v>
+      </c>
+      <c r="N89" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
       <c r="A90" s="5">
         <v>113001</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E90" s="5">
         <v>3</v>
@@ -5923,11 +6214,11 @@
         <v>13</v>
       </c>
       <c r="G90" s="5">
+        <v>0</v>
+      </c>
+      <c r="H90" s="5">
         <v>301001</v>
       </c>
-      <c r="H90" s="5">
-        <v>0</v>
-      </c>
       <c r="I90" s="5">
         <v>0</v>
       </c>
@@ -5943,19 +6234,22 @@
       <c r="M90" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:13">
+      <c r="N90" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
       <c r="A91" s="5">
         <v>110001</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E91" s="5">
         <v>3</v>
@@ -5964,11 +6258,11 @@
         <v>10</v>
       </c>
       <c r="G91" s="5">
+        <v>0</v>
+      </c>
+      <c r="H91" s="5">
         <v>301001</v>
       </c>
-      <c r="H91" s="5">
-        <v>0</v>
-      </c>
       <c r="I91" s="5">
         <v>0</v>
       </c>
@@ -5984,9 +6278,12 @@
       <c r="M91" s="5">
         <v>0</v>
       </c>
+      <c r="N91" s="5">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A4:M89">
+  <sortState ref="A4:N89">
     <sortCondition ref="A4:A89"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/common/Item.xlsx
+++ b/common/Item.xlsx
@@ -312,6 +312,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">type_sub </t>
     </r>
     <r>
@@ -1118,9 +1125,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1150,7 +1157,98 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1165,110 +1263,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Tahoma"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1286,17 +1283,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1349,19 +1356,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1373,85 +1380,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1469,7 +1398,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1481,25 +1470,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1511,25 +1530,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1573,6 +1580,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1597,15 +1613,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1616,21 +1623,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1655,6 +1647,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1663,10 +1670,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1675,136 +1682,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -2191,11 +2198,11 @@
   <dimension ref="A1:N91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="13" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="13" ySplit="1" topLeftCell="N23" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomRight" activeCell="K28" sqref="K28:K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -3448,7 +3455,7 @@
         <v>60</v>
       </c>
       <c r="K28" s="11">
-        <v>201001</v>
+        <v>203001</v>
       </c>
       <c r="L28" s="11">
         <v>0</v>
@@ -3493,7 +3500,7 @@
         <v>61</v>
       </c>
       <c r="K29" s="11">
-        <v>201002</v>
+        <v>203002</v>
       </c>
       <c r="L29" s="11">
         <v>0</v>

--- a/common/Item.xlsx
+++ b/common/Item.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13065"/>
+    <workbookView windowHeight="16020"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
@@ -1125,8 +1125,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -1156,64 +1156,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -1223,10 +1165,17 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1238,17 +1187,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1262,29 +1202,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1300,10 +1219,91 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1356,31 +1356,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1398,36 +1380,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1440,13 +1392,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1464,19 +1494,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1488,55 +1536,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1565,17 +1565,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1604,15 +1598,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1630,6 +1615,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1639,11 +1633,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1667,151 +1667,151 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1853,7 +1853,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1871,55 +1871,55 @@
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="常规 7 6 3 2" xfId="1"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="2" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="3" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="4" builtinId="41"/>
+    <cellStyle name="输入" xfId="5" builtinId="20"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 7 6 3 2" xfId="49"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="7" builtinId="38"/>
+    <cellStyle name="货币" xfId="8" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="9" builtinId="37"/>
+    <cellStyle name="百分比" xfId="10" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="11" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="12" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="13" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="14" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="15" builtinId="44"/>
+    <cellStyle name="计算" xfId="16" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29"/>
+    <cellStyle name="适中" xfId="18" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="19" builtinId="46"/>
+    <cellStyle name="好" xfId="20" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="21" builtinId="30"/>
+    <cellStyle name="汇总" xfId="22" builtinId="25"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
+    <cellStyle name="输出" xfId="25" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="26" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="27" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="28" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="30" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="32" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="33" builtinId="9"/>
+    <cellStyle name="标题" xfId="34" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="35" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="36" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="37" builtinId="40"/>
+    <cellStyle name="注释" xfId="38" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="40" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="41" builtinId="51"/>
+    <cellStyle name="超链接" xfId="42" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="43" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="44" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="46" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="49" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -2195,19 +2195,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N91"/>
+  <dimension ref="A1:N100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="13" ySplit="1" topLeftCell="N23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="13" ySplit="1" topLeftCell="N82" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K28" sqref="K28:K29"/>
+      <selection pane="bottomRight" activeCell="N103" sqref="N103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="9.25" style="5"/>
+    <col min="1" max="1" width="9.69230769230769" style="5"/>
     <col min="2" max="2" width="13.25" style="5" customWidth="1"/>
     <col min="3" max="3" width="15.375" style="5" customWidth="1"/>
     <col min="4" max="4" width="21.25" style="5" customWidth="1"/>
@@ -2222,7 +2222,7 @@
     <col min="15" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="255.75" spans="1:14">
+    <row r="1" ht="266.75" spans="1:14">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" ht="33.75" spans="1:14">
+    <row r="2" ht="32.75" spans="1:14">
       <c r="A2" s="7" t="s">
         <v>14</v>
       </c>
@@ -2310,7 +2310,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="33" spans="1:14">
+    <row r="3" s="1" customFormat="1" ht="32" spans="1:14">
       <c r="A3" s="8">
         <v>101001</v>
       </c>
@@ -2353,7 +2353,7 @@
       </c>
       <c r="N3" s="14"/>
     </row>
-    <row r="4" s="2" customFormat="1" ht="33" spans="1:14">
+    <row r="4" s="2" customFormat="1" ht="32" spans="1:14">
       <c r="A4" s="8">
         <v>101002</v>
       </c>
@@ -2396,7 +2396,7 @@
       </c>
       <c r="N4" s="15"/>
     </row>
-    <row r="5" s="2" customFormat="1" ht="33" spans="1:14">
+    <row r="5" s="2" customFormat="1" ht="32" spans="1:14">
       <c r="A5" s="8">
         <v>101003</v>
       </c>
@@ -2439,7 +2439,7 @@
       </c>
       <c r="N5" s="15"/>
     </row>
-    <row r="6" s="3" customFormat="1" ht="33" spans="1:14">
+    <row r="6" s="3" customFormat="1" ht="32" spans="1:14">
       <c r="A6" s="8">
         <v>101004</v>
       </c>
@@ -2482,7 +2482,7 @@
       </c>
       <c r="N6" s="14"/>
     </row>
-    <row r="7" s="3" customFormat="1" ht="33" spans="1:14">
+    <row r="7" s="3" customFormat="1" ht="32" spans="1:14">
       <c r="A7" s="8">
         <v>101005</v>
       </c>
@@ -2525,7 +2525,7 @@
       </c>
       <c r="N7" s="14"/>
     </row>
-    <row r="8" s="4" customFormat="1" ht="33" spans="1:14">
+    <row r="8" s="4" customFormat="1" ht="32" spans="1:14">
       <c r="A8" s="8">
         <v>101011</v>
       </c>
@@ -2568,7 +2568,7 @@
       </c>
       <c r="N8" s="14"/>
     </row>
-    <row r="9" ht="33" spans="1:14">
+    <row r="9" ht="32" spans="1:14">
       <c r="A9" s="8">
         <v>101012</v>
       </c>
@@ -2613,7 +2613,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" ht="33" spans="1:14">
+    <row r="10" ht="32" spans="1:14">
       <c r="A10" s="8">
         <v>101013</v>
       </c>
@@ -2658,7 +2658,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" ht="33" spans="1:14">
+    <row r="11" ht="32" spans="1:14">
       <c r="A11" s="8">
         <v>101014</v>
       </c>
@@ -2703,7 +2703,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" ht="33" spans="1:14">
+    <row r="12" ht="32" spans="1:14">
       <c r="A12" s="8">
         <v>101015</v>
       </c>
@@ -2748,7 +2748,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" ht="33" spans="1:14">
+    <row r="13" ht="32" spans="1:14">
       <c r="A13" s="8">
         <v>101021</v>
       </c>
@@ -2793,7 +2793,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" ht="33" spans="1:14">
+    <row r="14" ht="32" spans="1:14">
       <c r="A14" s="8">
         <v>101022</v>
       </c>
@@ -2838,7 +2838,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" ht="33" spans="1:14">
+    <row r="15" ht="32" spans="1:14">
       <c r="A15" s="8">
         <v>101023</v>
       </c>
@@ -2883,7 +2883,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" ht="33" spans="1:14">
+    <row r="16" ht="32" spans="1:14">
       <c r="A16" s="8">
         <v>101024</v>
       </c>
@@ -2928,7 +2928,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" ht="33" spans="1:14">
+    <row r="17" ht="32" spans="1:14">
       <c r="A17" s="8">
         <v>101025</v>
       </c>
@@ -2973,7 +2973,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" ht="33" spans="1:14">
+    <row r="18" ht="32" spans="1:14">
       <c r="A18" s="8">
         <v>101031</v>
       </c>
@@ -3018,7 +3018,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" ht="33" spans="1:14">
+    <row r="19" ht="32" spans="1:14">
       <c r="A19" s="8">
         <v>101032</v>
       </c>
@@ -3063,7 +3063,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" ht="33" spans="1:14">
+    <row r="20" ht="32" spans="1:14">
       <c r="A20" s="8">
         <v>101033</v>
       </c>
@@ -3108,7 +3108,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" ht="33" spans="1:14">
+    <row r="21" ht="32" spans="1:14">
       <c r="A21" s="8">
         <v>101034</v>
       </c>
@@ -3153,7 +3153,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" ht="33" spans="1:14">
+    <row r="22" ht="32" spans="1:14">
       <c r="A22" s="8">
         <v>101035</v>
       </c>
@@ -3198,7 +3198,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" ht="33" spans="1:14">
+    <row r="23" ht="47" spans="1:14">
       <c r="A23" s="8">
         <v>102001</v>
       </c>
@@ -3243,7 +3243,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" ht="33" spans="1:14">
+    <row r="24" ht="47" spans="1:14">
       <c r="A24" s="8">
         <v>102002</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" ht="33" spans="1:14">
+    <row r="25" ht="47" spans="1:14">
       <c r="A25" s="8">
         <v>102003</v>
       </c>
@@ -3333,7 +3333,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" ht="33" spans="1:14">
+    <row r="26" ht="47" spans="1:14">
       <c r="A26" s="8">
         <v>102004</v>
       </c>
@@ -3378,7 +3378,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" ht="33" spans="1:14">
+    <row r="27" ht="32" spans="1:14">
       <c r="A27" s="8">
         <v>102005</v>
       </c>
@@ -3423,7 +3423,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" ht="33" spans="1:14">
+    <row r="28" ht="32" spans="1:14">
       <c r="A28" s="11">
         <v>103001</v>
       </c>
@@ -3468,7 +3468,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" ht="33" spans="1:14">
+    <row r="29" ht="32" spans="1:14">
       <c r="A29" s="11">
         <v>103002</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" ht="33" spans="1:14">
+    <row r="30" ht="32" spans="1:14">
       <c r="A30" s="11">
         <v>103003</v>
       </c>
@@ -3558,7 +3558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" ht="33" spans="1:14">
+    <row r="31" ht="32" spans="1:14">
       <c r="A31" s="8">
         <v>103004</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" ht="49.5" spans="1:14">
+    <row r="32" ht="47" spans="1:14">
       <c r="A32" s="8">
         <v>103005</v>
       </c>
@@ -3648,7 +3648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" ht="49.5" spans="1:14">
+    <row r="33" ht="47" spans="1:14">
       <c r="A33" s="8">
         <v>103006</v>
       </c>
@@ -3693,7 +3693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" ht="33" spans="1:14">
+    <row r="34" ht="32" spans="1:14">
       <c r="A34" s="8">
         <v>104001</v>
       </c>
@@ -3738,7 +3738,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" ht="33" spans="1:14">
+    <row r="35" ht="32" spans="1:14">
       <c r="A35" s="8">
         <v>104002</v>
       </c>
@@ -3783,7 +3783,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" ht="33" spans="1:14">
+    <row r="36" ht="32" spans="1:14">
       <c r="A36" s="8">
         <v>104003</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="39" ht="33" spans="1:14">
+    <row r="39" ht="32" spans="1:14">
       <c r="A39" s="8">
         <v>105003</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="40" ht="33" spans="1:14">
+    <row r="40" ht="32" spans="1:14">
       <c r="A40" s="8">
         <v>105004</v>
       </c>
@@ -4008,7 +4008,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="41" ht="49.5" spans="1:14">
+    <row r="41" ht="47" spans="1:14">
       <c r="A41" s="8">
         <v>105005</v>
       </c>
@@ -4053,7 +4053,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="42" ht="33" spans="1:14">
+    <row r="42" ht="47" spans="1:14">
       <c r="A42" s="8">
         <v>105006</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="43" ht="49.5" spans="1:14">
+    <row r="43" ht="63" spans="1:14">
       <c r="A43" s="8">
         <v>105007</v>
       </c>
@@ -4143,7 +4143,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="44" ht="33" spans="1:14">
+    <row r="44" ht="47" spans="1:14">
       <c r="A44" s="8">
         <v>105008</v>
       </c>
@@ -5358,7 +5358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" ht="49.5" spans="1:14">
+    <row r="71" ht="47" spans="1:14">
       <c r="A71" s="8">
         <v>108001</v>
       </c>
@@ -5403,7 +5403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" ht="49.5" spans="1:14">
+    <row r="72" ht="47" spans="1:14">
       <c r="A72" s="8">
         <v>108002</v>
       </c>
@@ -5448,7 +5448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" ht="49.5" spans="1:14">
+    <row r="73" ht="47" spans="1:14">
       <c r="A73" s="8">
         <v>108003</v>
       </c>
@@ -5493,7 +5493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" ht="33" spans="1:14">
+    <row r="74" ht="32" spans="1:14">
       <c r="A74" s="8">
         <v>109001</v>
       </c>
@@ -5538,7 +5538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" ht="33" spans="1:14">
+    <row r="75" ht="32" spans="1:14">
       <c r="A75" s="8">
         <v>109002</v>
       </c>
@@ -5583,7 +5583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" ht="33" spans="1:14">
+    <row r="76" ht="32" spans="1:14">
       <c r="A76" s="8">
         <v>109003</v>
       </c>
@@ -5628,7 +5628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" ht="33" spans="1:14">
+    <row r="77" ht="32" spans="1:14">
       <c r="A77" s="8">
         <v>109004</v>
       </c>
@@ -5673,7 +5673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" ht="16.8" spans="1:14">
       <c r="A78" s="8">
         <v>111001</v>
       </c>
@@ -5717,7 +5717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" ht="49.5" spans="1:14">
+    <row r="79" ht="63" spans="1:14">
       <c r="A79" s="8">
         <v>112001</v>
       </c>
@@ -5761,7 +5761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" ht="49.5" spans="1:14">
+    <row r="80" ht="63" spans="1:14">
       <c r="A80" s="8">
         <v>112002</v>
       </c>
@@ -5805,7 +5805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" ht="49.5" spans="1:14">
+    <row r="81" ht="63" spans="1:14">
       <c r="A81" s="8">
         <v>112003</v>
       </c>
@@ -5849,7 +5849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" ht="33" spans="1:14">
+    <row r="82" ht="32" spans="1:14">
       <c r="A82" s="8">
         <v>114001</v>
       </c>
@@ -5893,7 +5893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" ht="33" spans="1:14">
+    <row r="83" ht="47" spans="1:14">
       <c r="A83" s="8">
         <v>114002</v>
       </c>
@@ -5937,7 +5937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" ht="33" spans="1:14">
+    <row r="84" ht="47" spans="1:14">
       <c r="A84" s="8">
         <v>114003</v>
       </c>
@@ -5981,7 +5981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" ht="33" spans="1:14">
+    <row r="85" ht="47" spans="1:14">
       <c r="A85" s="8">
         <v>114004</v>
       </c>
@@ -6025,7 +6025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:14">
+    <row r="86" ht="16.8" spans="1:14">
       <c r="A86" s="8">
         <v>115001</v>
       </c>
@@ -6069,7 +6069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:14">
+    <row r="87" ht="16.8" spans="1:14">
       <c r="A87" s="8">
         <v>115002</v>
       </c>
@@ -6113,7 +6113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:14">
+    <row r="88" ht="16.8" spans="1:14">
       <c r="A88" s="8">
         <v>115003</v>
       </c>
@@ -6157,7 +6157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:14">
+    <row r="89" ht="16.8" spans="1:14">
       <c r="A89" s="8">
         <v>115004</v>
       </c>
@@ -6286,6 +6286,402 @@
         <v>0</v>
       </c>
       <c r="N91" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
+      <c r="A92" s="5">
+        <v>110002</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="E92" s="5">
+        <v>3</v>
+      </c>
+      <c r="F92" s="5">
+        <v>10</v>
+      </c>
+      <c r="G92" s="5">
+        <v>0</v>
+      </c>
+      <c r="H92" s="5">
+        <v>301002</v>
+      </c>
+      <c r="I92" s="5">
+        <v>0</v>
+      </c>
+      <c r="J92" s="5">
+        <v>0</v>
+      </c>
+      <c r="K92" s="5">
+        <v>0</v>
+      </c>
+      <c r="L92" s="5">
+        <v>0</v>
+      </c>
+      <c r="M92" s="5">
+        <v>0</v>
+      </c>
+      <c r="N92" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14">
+      <c r="A93" s="5">
+        <v>110003</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="E93" s="5">
+        <v>3</v>
+      </c>
+      <c r="F93" s="5">
+        <v>10</v>
+      </c>
+      <c r="G93" s="5">
+        <v>0</v>
+      </c>
+      <c r="H93" s="5">
+        <v>301003</v>
+      </c>
+      <c r="I93" s="5">
+        <v>0</v>
+      </c>
+      <c r="J93" s="5">
+        <v>0</v>
+      </c>
+      <c r="K93" s="5">
+        <v>0</v>
+      </c>
+      <c r="L93" s="5">
+        <v>0</v>
+      </c>
+      <c r="M93" s="5">
+        <v>0</v>
+      </c>
+      <c r="N93" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
+      <c r="A94" s="5">
+        <v>110004</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="E94" s="5">
+        <v>3</v>
+      </c>
+      <c r="F94" s="5">
+        <v>10</v>
+      </c>
+      <c r="G94" s="5">
+        <v>0</v>
+      </c>
+      <c r="H94" s="5">
+        <v>301004</v>
+      </c>
+      <c r="I94" s="5">
+        <v>0</v>
+      </c>
+      <c r="J94" s="5">
+        <v>0</v>
+      </c>
+      <c r="K94" s="5">
+        <v>0</v>
+      </c>
+      <c r="L94" s="5">
+        <v>0</v>
+      </c>
+      <c r="M94" s="5">
+        <v>0</v>
+      </c>
+      <c r="N94" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
+      <c r="A95" s="5">
+        <v>110005</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="E95" s="5">
+        <v>3</v>
+      </c>
+      <c r="F95" s="5">
+        <v>10</v>
+      </c>
+      <c r="G95" s="5">
+        <v>0</v>
+      </c>
+      <c r="H95" s="5">
+        <v>301005</v>
+      </c>
+      <c r="I95" s="5">
+        <v>0</v>
+      </c>
+      <c r="J95" s="5">
+        <v>0</v>
+      </c>
+      <c r="K95" s="5">
+        <v>0</v>
+      </c>
+      <c r="L95" s="5">
+        <v>0</v>
+      </c>
+      <c r="M95" s="5">
+        <v>0</v>
+      </c>
+      <c r="N95" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14">
+      <c r="A96" s="5">
+        <v>110006</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="E96" s="5">
+        <v>3</v>
+      </c>
+      <c r="F96" s="5">
+        <v>10</v>
+      </c>
+      <c r="G96" s="5">
+        <v>0</v>
+      </c>
+      <c r="H96" s="5">
+        <v>301006</v>
+      </c>
+      <c r="I96" s="5">
+        <v>0</v>
+      </c>
+      <c r="J96" s="5">
+        <v>0</v>
+      </c>
+      <c r="K96" s="5">
+        <v>0</v>
+      </c>
+      <c r="L96" s="5">
+        <v>0</v>
+      </c>
+      <c r="M96" s="5">
+        <v>0</v>
+      </c>
+      <c r="N96" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14">
+      <c r="A97" s="5">
+        <v>110007</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="E97" s="5">
+        <v>3</v>
+      </c>
+      <c r="F97" s="5">
+        <v>10</v>
+      </c>
+      <c r="G97" s="5">
+        <v>0</v>
+      </c>
+      <c r="H97" s="5">
+        <v>301007</v>
+      </c>
+      <c r="I97" s="5">
+        <v>0</v>
+      </c>
+      <c r="J97" s="5">
+        <v>0</v>
+      </c>
+      <c r="K97" s="5">
+        <v>0</v>
+      </c>
+      <c r="L97" s="5">
+        <v>0</v>
+      </c>
+      <c r="M97" s="5">
+        <v>0</v>
+      </c>
+      <c r="N97" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14">
+      <c r="A98" s="5">
+        <v>110008</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="E98" s="5">
+        <v>3</v>
+      </c>
+      <c r="F98" s="5">
+        <v>10</v>
+      </c>
+      <c r="G98" s="5">
+        <v>0</v>
+      </c>
+      <c r="H98" s="5">
+        <v>301008</v>
+      </c>
+      <c r="I98" s="5">
+        <v>0</v>
+      </c>
+      <c r="J98" s="5">
+        <v>0</v>
+      </c>
+      <c r="K98" s="5">
+        <v>0</v>
+      </c>
+      <c r="L98" s="5">
+        <v>0</v>
+      </c>
+      <c r="M98" s="5">
+        <v>0</v>
+      </c>
+      <c r="N98" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14">
+      <c r="A99" s="5">
+        <v>110009</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="E99" s="5">
+        <v>3</v>
+      </c>
+      <c r="F99" s="5">
+        <v>10</v>
+      </c>
+      <c r="G99" s="5">
+        <v>0</v>
+      </c>
+      <c r="H99" s="5">
+        <v>301009</v>
+      </c>
+      <c r="I99" s="5">
+        <v>0</v>
+      </c>
+      <c r="J99" s="5">
+        <v>0</v>
+      </c>
+      <c r="K99" s="5">
+        <v>0</v>
+      </c>
+      <c r="L99" s="5">
+        <v>0</v>
+      </c>
+      <c r="M99" s="5">
+        <v>0</v>
+      </c>
+      <c r="N99" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14">
+      <c r="A100" s="5">
+        <v>110010</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="E100" s="5">
+        <v>3</v>
+      </c>
+      <c r="F100" s="5">
+        <v>10</v>
+      </c>
+      <c r="G100" s="5">
+        <v>0</v>
+      </c>
+      <c r="H100" s="5">
+        <v>301010</v>
+      </c>
+      <c r="I100" s="5">
+        <v>0</v>
+      </c>
+      <c r="J100" s="5">
+        <v>0</v>
+      </c>
+      <c r="K100" s="5">
+        <v>0</v>
+      </c>
+      <c r="L100" s="5">
+        <v>0</v>
+      </c>
+      <c r="M100" s="5">
+        <v>0</v>
+      </c>
+      <c r="N100" s="5">
         <v>0</v>
       </c>
     </row>

--- a/common/Item.xlsx
+++ b/common/Item.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16020"/>
+    <workbookView windowWidth="24345" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="224">
   <si>
     <t>序号</t>
   </si>
@@ -777,7 +777,7 @@
     <t>商城礼包购买、冲榜奖励、充值奖励</t>
   </si>
   <si>
-    <t>忆梦诀</t>
+    <t>寻梦诀</t>
   </si>
   <si>
     <t>恢复当前所有梦力</t>
@@ -1124,10 +1124,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1158,22 +1158,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1188,18 +1173,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1217,19 +1193,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1248,13 +1253,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1263,7 +1261,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1278,6 +1276,22 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1285,25 +1299,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1356,6 +1356,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1368,7 +1380,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1380,163 +1536,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1565,6 +1565,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1576,9 +1606,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1598,67 +1654,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1667,151 +1667,151 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1853,7 +1853,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1871,55 +1871,55 @@
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 7 6 3 2" xfId="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="2" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="3" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="4" builtinId="41"/>
-    <cellStyle name="输入" xfId="5" builtinId="20"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="7" builtinId="38"/>
-    <cellStyle name="货币" xfId="8" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="9" builtinId="37"/>
-    <cellStyle name="百分比" xfId="10" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="11" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="12" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="13" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="14" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="15" builtinId="44"/>
-    <cellStyle name="计算" xfId="16" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29"/>
-    <cellStyle name="适中" xfId="18" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="19" builtinId="46"/>
-    <cellStyle name="好" xfId="20" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="21" builtinId="30"/>
-    <cellStyle name="汇总" xfId="22" builtinId="25"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="26" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="27" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="28" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="30" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="32" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="33" builtinId="9"/>
-    <cellStyle name="标题" xfId="34" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="35" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="36" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="37" builtinId="40"/>
-    <cellStyle name="注释" xfId="38" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="40" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="41" builtinId="51"/>
-    <cellStyle name="超链接" xfId="42" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="43" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="44" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="46" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="49" builtinId="24"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 7 6 3 2" xfId="49"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -2193,21 +2193,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:N100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="13" ySplit="1" topLeftCell="N82" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="13" ySplit="1" topLeftCell="N26" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N103" sqref="N103"/>
+      <selection pane="bottomRight" activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9.69230769230769" style="5"/>
+    <col min="1" max="1" width="9.69166666666667" style="5"/>
     <col min="2" max="2" width="13.25" style="5" customWidth="1"/>
     <col min="3" max="3" width="15.375" style="5" customWidth="1"/>
     <col min="4" max="4" width="21.25" style="5" customWidth="1"/>
@@ -2222,7 +2222,7 @@
     <col min="15" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="266.75" spans="1:14">
+    <row r="1" ht="255.75" spans="1:14">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" ht="32.75" spans="1:14">
+    <row r="2" ht="33.75" spans="1:14">
       <c r="A2" s="7" t="s">
         <v>14</v>
       </c>
@@ -2310,7 +2310,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="32" spans="1:14">
+    <row r="3" s="1" customFormat="1" ht="33" spans="1:14">
       <c r="A3" s="8">
         <v>101001</v>
       </c>
@@ -2353,7 +2353,7 @@
       </c>
       <c r="N3" s="14"/>
     </row>
-    <row r="4" s="2" customFormat="1" ht="32" spans="1:14">
+    <row r="4" s="2" customFormat="1" ht="33" spans="1:14">
       <c r="A4" s="8">
         <v>101002</v>
       </c>
@@ -2396,7 +2396,7 @@
       </c>
       <c r="N4" s="15"/>
     </row>
-    <row r="5" s="2" customFormat="1" ht="32" spans="1:14">
+    <row r="5" s="2" customFormat="1" ht="33" spans="1:14">
       <c r="A5" s="8">
         <v>101003</v>
       </c>
@@ -2439,7 +2439,7 @@
       </c>
       <c r="N5" s="15"/>
     </row>
-    <row r="6" s="3" customFormat="1" ht="32" spans="1:14">
+    <row r="6" s="3" customFormat="1" ht="33" spans="1:14">
       <c r="A6" s="8">
         <v>101004</v>
       </c>
@@ -2482,7 +2482,7 @@
       </c>
       <c r="N6" s="14"/>
     </row>
-    <row r="7" s="3" customFormat="1" ht="32" spans="1:14">
+    <row r="7" s="3" customFormat="1" ht="33" spans="1:14">
       <c r="A7" s="8">
         <v>101005</v>
       </c>
@@ -2525,7 +2525,7 @@
       </c>
       <c r="N7" s="14"/>
     </row>
-    <row r="8" s="4" customFormat="1" ht="32" spans="1:14">
+    <row r="8" s="4" customFormat="1" ht="33" spans="1:14">
       <c r="A8" s="8">
         <v>101011</v>
       </c>
@@ -2568,7 +2568,7 @@
       </c>
       <c r="N8" s="14"/>
     </row>
-    <row r="9" ht="32" spans="1:14">
+    <row r="9" ht="33" spans="1:14">
       <c r="A9" s="8">
         <v>101012</v>
       </c>
@@ -2613,7 +2613,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" ht="32" spans="1:14">
+    <row r="10" ht="33" spans="1:14">
       <c r="A10" s="8">
         <v>101013</v>
       </c>
@@ -2658,7 +2658,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" ht="32" spans="1:14">
+    <row r="11" ht="33" spans="1:14">
       <c r="A11" s="8">
         <v>101014</v>
       </c>
@@ -2703,7 +2703,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" ht="32" spans="1:14">
+    <row r="12" ht="33" spans="1:14">
       <c r="A12" s="8">
         <v>101015</v>
       </c>
@@ -2748,7 +2748,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" ht="32" spans="1:14">
+    <row r="13" ht="33" spans="1:14">
       <c r="A13" s="8">
         <v>101021</v>
       </c>
@@ -2793,7 +2793,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" ht="32" spans="1:14">
+    <row r="14" ht="33" spans="1:14">
       <c r="A14" s="8">
         <v>101022</v>
       </c>
@@ -2838,7 +2838,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" ht="32" spans="1:14">
+    <row r="15" ht="33" spans="1:14">
       <c r="A15" s="8">
         <v>101023</v>
       </c>
@@ -2883,7 +2883,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" ht="32" spans="1:14">
+    <row r="16" ht="33" spans="1:14">
       <c r="A16" s="8">
         <v>101024</v>
       </c>
@@ -2928,7 +2928,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" ht="32" spans="1:14">
+    <row r="17" ht="33" spans="1:14">
       <c r="A17" s="8">
         <v>101025</v>
       </c>
@@ -2973,7 +2973,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" ht="32" spans="1:14">
+    <row r="18" ht="33" spans="1:14">
       <c r="A18" s="8">
         <v>101031</v>
       </c>
@@ -3018,7 +3018,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" ht="32" spans="1:14">
+    <row r="19" ht="33" spans="1:14">
       <c r="A19" s="8">
         <v>101032</v>
       </c>
@@ -3063,7 +3063,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" ht="32" spans="1:14">
+    <row r="20" ht="33" spans="1:14">
       <c r="A20" s="8">
         <v>101033</v>
       </c>
@@ -3108,7 +3108,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" ht="32" spans="1:14">
+    <row r="21" ht="33" spans="1:14">
       <c r="A21" s="8">
         <v>101034</v>
       </c>
@@ -3153,7 +3153,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" ht="32" spans="1:14">
+    <row r="22" ht="33" spans="1:14">
       <c r="A22" s="8">
         <v>101035</v>
       </c>
@@ -3198,7 +3198,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" ht="47" spans="1:14">
+    <row r="23" ht="33" spans="1:14">
       <c r="A23" s="8">
         <v>102001</v>
       </c>
@@ -3243,7 +3243,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" ht="47" spans="1:14">
+    <row r="24" ht="33" spans="1:14">
       <c r="A24" s="8">
         <v>102002</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" ht="47" spans="1:14">
+    <row r="25" ht="33" spans="1:14">
       <c r="A25" s="8">
         <v>102003</v>
       </c>
@@ -3333,7 +3333,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" ht="47" spans="1:14">
+    <row r="26" ht="33" spans="1:14">
       <c r="A26" s="8">
         <v>102004</v>
       </c>
@@ -3378,7 +3378,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" ht="32" spans="1:14">
+    <row r="27" ht="33" spans="1:14">
       <c r="A27" s="8">
         <v>102005</v>
       </c>
@@ -3423,7 +3423,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" ht="32" spans="1:14">
+    <row r="28" ht="33" spans="1:14">
       <c r="A28" s="11">
         <v>103001</v>
       </c>
@@ -3468,7 +3468,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" ht="32" spans="1:14">
+    <row r="29" ht="33" spans="1:14">
       <c r="A29" s="11">
         <v>103002</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" ht="32" spans="1:14">
+    <row r="30" ht="33" spans="1:14">
       <c r="A30" s="11">
         <v>103003</v>
       </c>
@@ -3558,7 +3558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" ht="32" spans="1:14">
+    <row r="31" ht="33" spans="1:14">
       <c r="A31" s="8">
         <v>103004</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" ht="47" spans="1:14">
+    <row r="32" ht="49.5" spans="1:14">
       <c r="A32" s="8">
         <v>103005</v>
       </c>
@@ -3648,7 +3648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" ht="47" spans="1:14">
+    <row r="33" ht="49.5" spans="1:14">
       <c r="A33" s="8">
         <v>103006</v>
       </c>
@@ -3693,7 +3693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" ht="32" spans="1:14">
+    <row r="34" ht="33" spans="1:14">
       <c r="A34" s="8">
         <v>104001</v>
       </c>
@@ -3738,7 +3738,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" ht="32" spans="1:14">
+    <row r="35" ht="33" spans="1:14">
       <c r="A35" s="8">
         <v>104002</v>
       </c>
@@ -3783,7 +3783,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" ht="32" spans="1:14">
+    <row r="36" ht="33" spans="1:14">
       <c r="A36" s="8">
         <v>104003</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="39" ht="32" spans="1:14">
+    <row r="39" ht="33" spans="1:14">
       <c r="A39" s="8">
         <v>105003</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="40" ht="32" spans="1:14">
+    <row r="40" ht="33" spans="1:14">
       <c r="A40" s="8">
         <v>105004</v>
       </c>
@@ -4008,7 +4008,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="41" ht="47" spans="1:14">
+    <row r="41" ht="49.5" spans="1:14">
       <c r="A41" s="8">
         <v>105005</v>
       </c>
@@ -4053,7 +4053,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="42" ht="47" spans="1:14">
+    <row r="42" ht="33" spans="1:14">
       <c r="A42" s="8">
         <v>105006</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="43" ht="63" spans="1:14">
+    <row r="43" ht="49.5" spans="1:14">
       <c r="A43" s="8">
         <v>105007</v>
       </c>
@@ -4143,7 +4143,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="44" ht="47" spans="1:14">
+    <row r="44" ht="33" spans="1:14">
       <c r="A44" s="8">
         <v>105008</v>
       </c>
@@ -5358,7 +5358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" ht="47" spans="1:14">
+    <row r="71" ht="49.5" spans="1:14">
       <c r="A71" s="8">
         <v>108001</v>
       </c>
@@ -5403,7 +5403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" ht="47" spans="1:14">
+    <row r="72" ht="49.5" spans="1:14">
       <c r="A72" s="8">
         <v>108002</v>
       </c>
@@ -5448,7 +5448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" ht="47" spans="1:14">
+    <row r="73" ht="49.5" spans="1:14">
       <c r="A73" s="8">
         <v>108003</v>
       </c>
@@ -5493,7 +5493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" ht="32" spans="1:14">
+    <row r="74" ht="33" spans="1:14">
       <c r="A74" s="8">
         <v>109001</v>
       </c>
@@ -5538,7 +5538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" ht="32" spans="1:14">
+    <row r="75" ht="33" spans="1:14">
       <c r="A75" s="8">
         <v>109002</v>
       </c>
@@ -5583,7 +5583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" ht="32" spans="1:14">
+    <row r="76" ht="33" spans="1:14">
       <c r="A76" s="8">
         <v>109003</v>
       </c>
@@ -5628,7 +5628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" ht="32" spans="1:14">
+    <row r="77" ht="33" spans="1:14">
       <c r="A77" s="8">
         <v>109004</v>
       </c>
@@ -5673,7 +5673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" ht="16.8" spans="1:14">
+    <row r="78" spans="1:14">
       <c r="A78" s="8">
         <v>111001</v>
       </c>
@@ -5717,7 +5717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" ht="63" spans="1:14">
+    <row r="79" ht="49.5" spans="1:14">
       <c r="A79" s="8">
         <v>112001</v>
       </c>
@@ -5761,7 +5761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" ht="63" spans="1:14">
+    <row r="80" ht="49.5" spans="1:14">
       <c r="A80" s="8">
         <v>112002</v>
       </c>
@@ -5805,7 +5805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" ht="63" spans="1:14">
+    <row r="81" ht="49.5" spans="1:14">
       <c r="A81" s="8">
         <v>112003</v>
       </c>
@@ -5849,7 +5849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" ht="32" spans="1:14">
+    <row r="82" ht="33" spans="1:14">
       <c r="A82" s="8">
         <v>114001</v>
       </c>
@@ -5893,7 +5893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" ht="47" spans="1:14">
+    <row r="83" ht="33" spans="1:14">
       <c r="A83" s="8">
         <v>114002</v>
       </c>
@@ -5937,7 +5937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" ht="47" spans="1:14">
+    <row r="84" ht="33" spans="1:14">
       <c r="A84" s="8">
         <v>114003</v>
       </c>
@@ -5981,7 +5981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" ht="47" spans="1:14">
+    <row r="85" ht="33" spans="1:14">
       <c r="A85" s="8">
         <v>114004</v>
       </c>
@@ -6025,7 +6025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" ht="16.8" spans="1:14">
+    <row r="86" spans="1:14">
       <c r="A86" s="8">
         <v>115001</v>
       </c>
@@ -6069,7 +6069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" ht="16.8" spans="1:14">
+    <row r="87" spans="1:14">
       <c r="A87" s="8">
         <v>115002</v>
       </c>
@@ -6113,7 +6113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" ht="16.8" spans="1:14">
+    <row r="88" spans="1:14">
       <c r="A88" s="8">
         <v>115003</v>
       </c>
@@ -6157,7 +6157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" ht="16.8" spans="1:14">
+    <row r="89" spans="1:14">
       <c r="A89" s="8">
         <v>115004</v>
       </c>

--- a/common/Item.xlsx
+++ b/common/Item.xlsx
@@ -58,7 +58,7 @@
 类型15时
 1=成长经验
 2=好感经验
-3=星尘经验
+3=星运经验
 4=技能经验</t>
   </si>
   <si>
@@ -717,13 +717,13 @@
     <t>副本、活动、充值奖励</t>
   </si>
   <si>
-    <t>星尘瓶</t>
-  </si>
-  <si>
-    <t>增加卡牌星尘经验50</t>
-  </si>
-  <si>
-    <t>技能经验书</t>
+    <t>星运瓶</t>
+  </si>
+  <si>
+    <t>增加卡牌星运经验50</t>
+  </si>
+  <si>
+    <t>技能经验灯</t>
   </si>
   <si>
     <t>使用后随机门客获得5~1000技能经验</t>
@@ -732,7 +732,7 @@
     <t>累天登录、商城礼包购买、冲榜活动获取</t>
   </si>
   <si>
-    <t>书籍经验书</t>
+    <t>星运经验灯</t>
   </si>
   <si>
     <t>使用后随机门客获得5~1000书籍经验</t>
@@ -1080,10 +1080,10 @@
     <t>favor</t>
   </si>
   <si>
-    <t>星尘经验</t>
-  </si>
-  <si>
-    <t>卡牌的星尘经验</t>
+    <t>星运经验</t>
+  </si>
+  <si>
+    <t>卡牌的星运经验</t>
   </si>
   <si>
     <t>道具、占星</t>
@@ -1125,9 +1125,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1156,30 +1156,73 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1188,6 +1231,29 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1209,15 +1275,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1225,35 +1292,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1261,48 +1300,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1356,13 +1356,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1380,13 +1440,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1398,7 +1500,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1410,97 +1512,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1518,25 +1530,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1565,45 +1565,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1624,6 +1585,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1635,6 +1611,39 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1653,15 +1662,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1670,10 +1670,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1682,136 +1682,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -2198,11 +2198,11 @@
   <dimension ref="A1:N100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="13" ySplit="1" topLeftCell="N26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="13" ySplit="1" topLeftCell="N23" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G39" sqref="G39"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
